--- a/DoE/DoE - Results.xlsx
+++ b/DoE/DoE - Results.xlsx
@@ -5676,10 +5676,22 @@
           <t>RD</t>
         </is>
       </c>
-      <c r="H122" t="inlineStr"/>
-      <c r="I122" t="inlineStr"/>
-      <c r="J122" t="inlineStr"/>
-      <c r="K122" t="inlineStr"/>
+      <c r="H122" t="n">
+        <v>238483.4327104233</v>
+      </c>
+      <c r="I122" t="n">
+        <v>79.07564439056925</v>
+      </c>
+      <c r="J122" t="inlineStr">
+        <is>
+          <t>[983.0382067991865, 693.6977359312598, 575.5146069690795]</t>
+        </is>
+      </c>
+      <c r="K122" t="inlineStr">
+        <is>
+          <t>[911.142039462254, 272.8532470174723, 277.31959620270015]</t>
+        </is>
+      </c>
     </row>
     <row r="123">
       <c r="A123" t="n">
@@ -5707,10 +5719,22 @@
           <t>GA</t>
         </is>
       </c>
-      <c r="H123" t="inlineStr"/>
-      <c r="I123" t="inlineStr"/>
-      <c r="J123" t="inlineStr"/>
-      <c r="K123" t="inlineStr"/>
+      <c r="H123" t="n">
+        <v>142008.1591167772</v>
+      </c>
+      <c r="I123" t="n">
+        <v>91.348544694399</v>
+      </c>
+      <c r="J123" t="inlineStr">
+        <is>
+          <t>[304.01, 394.35, 449.48, 20.71, 541.22]</t>
+        </is>
+      </c>
+      <c r="K123" t="inlineStr">
+        <is>
+          <t>[241.61592264948803, 188.3363948959771, 50.88635483780236, 7.596681166307946, 494.9224348857574]</t>
+        </is>
+      </c>
     </row>
     <row r="124">
       <c r="A124" t="n">
@@ -5738,10 +5762,22 @@
           <t>GA</t>
         </is>
       </c>
-      <c r="H124" t="inlineStr"/>
-      <c r="I124" t="inlineStr"/>
-      <c r="J124" t="inlineStr"/>
-      <c r="K124" t="inlineStr"/>
+      <c r="H124" t="n">
+        <v>188084.9823643725</v>
+      </c>
+      <c r="I124" t="n">
+        <v>87.65213050538533</v>
+      </c>
+      <c r="J124" t="inlineStr">
+        <is>
+          <t>[826.35, 910.72, 434.26, 647.62, 890.11]</t>
+        </is>
+      </c>
+      <c r="K124" t="inlineStr">
+        <is>
+          <t>[481.99070569117094, 857.9894240649245, 1.780438135941563, 517.5001153883206, 625.6372706316461]</t>
+        </is>
+      </c>
     </row>
     <row r="125">
       <c r="A125" t="n">
@@ -5769,10 +5805,22 @@
           <t>RD</t>
         </is>
       </c>
-      <c r="H125" t="inlineStr"/>
-      <c r="I125" t="inlineStr"/>
-      <c r="J125" t="inlineStr"/>
-      <c r="K125" t="inlineStr"/>
+      <c r="H125" t="n">
+        <v>100567.9252719718</v>
+      </c>
+      <c r="I125" t="n">
+        <v>95.9331899557439</v>
+      </c>
+      <c r="J125" t="inlineStr">
+        <is>
+          <t>[620.1761969549648, 885.2325051342846, 807.5027979355241, 485.9126878206236, 602.3923874109987]</t>
+        </is>
+      </c>
+      <c r="K125" t="inlineStr">
+        <is>
+          <t>[298.02099192656146, 692.8484676673728, 774.2436721292481, 86.83085544502659, 488.8661079903275]</t>
+        </is>
+      </c>
     </row>
     <row r="126">
       <c r="A126" t="n">
@@ -5800,10 +5848,22 @@
           <t>RD</t>
         </is>
       </c>
-      <c r="H126" t="inlineStr"/>
-      <c r="I126" t="inlineStr"/>
-      <c r="J126" t="inlineStr"/>
-      <c r="K126" t="inlineStr"/>
+      <c r="H126" t="n">
+        <v>108268.0952184279</v>
+      </c>
+      <c r="I126" t="n">
+        <v>99.27583251353406</v>
+      </c>
+      <c r="J126" t="inlineStr">
+        <is>
+          <t>[677.7920725698606, 571.7425281411332, 705.5412757087686, 364.86797109477334, 213.6146549820711, 290.6724027917045, 444.1379681669514, 775.612964063449, 211.18009403540538, 715.6623442766278]</t>
+        </is>
+      </c>
+      <c r="K126" t="inlineStr">
+        <is>
+          <t>[110.13392480818078, 296.20849001290605, 581.8851468050119, 247.10576260405648, 144.03925560251756, 185.19347393734105, 244.39584847761753, 6.412602141525326, 143.40124488313083, 530.7096933683473]</t>
+        </is>
+      </c>
     </row>
     <row r="127">
       <c r="A127" t="n">
@@ -5831,10 +5891,22 @@
           <t>RD</t>
         </is>
       </c>
-      <c r="H127" t="inlineStr"/>
-      <c r="I127" t="inlineStr"/>
-      <c r="J127" t="inlineStr"/>
-      <c r="K127" t="inlineStr"/>
+      <c r="H127" t="n">
+        <v>184555.5253612434</v>
+      </c>
+      <c r="I127" t="n">
+        <v>86.5942860666749</v>
+      </c>
+      <c r="J127" t="inlineStr">
+        <is>
+          <t>[791.9490135440452, 941.7381043200738, 152.32109589133503, 493.345607378099, 665.2809983148891]</t>
+        </is>
+      </c>
+      <c r="K127" t="inlineStr">
+        <is>
+          <t>[652.7192004539917, 452.28604532447366, 76.01335692049418, 467.61273077884067, 502.46711147195794]</t>
+        </is>
+      </c>
     </row>
     <row r="128">
       <c r="A128" t="n">
@@ -5862,10 +5934,22 @@
           <t>GA</t>
         </is>
       </c>
-      <c r="H128" t="inlineStr"/>
-      <c r="I128" t="inlineStr"/>
-      <c r="J128" t="inlineStr"/>
-      <c r="K128" t="inlineStr"/>
+      <c r="H128" t="n">
+        <v>93677.78948359103</v>
+      </c>
+      <c r="I128" t="n">
+        <v>94.5584459229341</v>
+      </c>
+      <c r="J128" t="inlineStr">
+        <is>
+          <t>[807.7, 527.67, 510.26]</t>
+        </is>
+      </c>
+      <c r="K128" t="inlineStr">
+        <is>
+          <t>[352.2229713903923, 371.14791830831285, 351.89899747954945]</t>
+        </is>
+      </c>
     </row>
     <row r="129">
       <c r="A129" t="n">
@@ -5893,10 +5977,22 @@
           <t>ACO</t>
         </is>
       </c>
-      <c r="H129" t="inlineStr"/>
-      <c r="I129" t="inlineStr"/>
-      <c r="J129" t="inlineStr"/>
-      <c r="K129" t="inlineStr"/>
+      <c r="H129" t="n">
+        <v>81649.94808648335</v>
+      </c>
+      <c r="I129" t="n">
+        <v>98.84083964394846</v>
+      </c>
+      <c r="J129" t="inlineStr">
+        <is>
+          <t>[945.0, 735.0, 660.0, 350.0, 655.0]</t>
+        </is>
+      </c>
+      <c r="K129" t="inlineStr">
+        <is>
+          <t>[915.0, 440.0, 460.0, 225.0, 165.0]</t>
+        </is>
+      </c>
     </row>
     <row r="130">
       <c r="A130" t="n">
@@ -5924,10 +6020,22 @@
           <t>ACO</t>
         </is>
       </c>
-      <c r="H130" t="inlineStr"/>
-      <c r="I130" t="inlineStr"/>
-      <c r="J130" t="inlineStr"/>
-      <c r="K130" t="inlineStr"/>
+      <c r="H130" t="n">
+        <v>110168.993615158</v>
+      </c>
+      <c r="I130" t="n">
+        <v>99.6642421443952</v>
+      </c>
+      <c r="J130" t="inlineStr">
+        <is>
+          <t>[760.0, 960.0, 400.0, 95.0, 370.0, 450.0, 540.0, 330.0, 25.0, 65.0]</t>
+        </is>
+      </c>
+      <c r="K130" t="inlineStr">
+        <is>
+          <t>[600.0, 555.0, 370.0, 40.0, 245.0, 235.0, 520.0, 105.0, 15.0, 30.0]</t>
+        </is>
+      </c>
     </row>
     <row r="131">
       <c r="A131" t="n">
@@ -5955,10 +6063,22 @@
           <t>ACO</t>
         </is>
       </c>
-      <c r="H131" t="inlineStr"/>
-      <c r="I131" t="inlineStr"/>
-      <c r="J131" t="inlineStr"/>
-      <c r="K131" t="inlineStr"/>
+      <c r="H131" t="n">
+        <v>111751.4689450805</v>
+      </c>
+      <c r="I131" t="n">
+        <v>98.94169612239644</v>
+      </c>
+      <c r="J131" t="inlineStr">
+        <is>
+          <t>[795.0, 430.0, 375.0, 420.0, 950.0, 380.0, 760.0, 660.0, 565.0, 925.0]</t>
+        </is>
+      </c>
+      <c r="K131" t="inlineStr">
+        <is>
+          <t>[665.0, 160.0, 90.0, 185.0, 760.0, 275.0, 340.0, 385.0, 285.0, 795.0]</t>
+        </is>
+      </c>
     </row>
     <row r="132">
       <c r="A132" t="n">
@@ -5986,10 +6106,22 @@
           <t>NM</t>
         </is>
       </c>
-      <c r="H132" t="inlineStr"/>
-      <c r="I132" t="inlineStr"/>
-      <c r="J132" t="inlineStr"/>
-      <c r="K132" t="inlineStr"/>
+      <c r="H132" t="n">
+        <v>266517.5552249916</v>
+      </c>
+      <c r="I132" t="n">
+        <v>75.93061029505553</v>
+      </c>
+      <c r="J132" t="inlineStr">
+        <is>
+          <t>[621.7514765291902, 617.2978187451173, 771.9285091104898]</t>
+        </is>
+      </c>
+      <c r="K132" t="inlineStr">
+        <is>
+          <t>[197.15833855277845, 406.17047591641426, 267.12059748090377]</t>
+        </is>
+      </c>
     </row>
     <row r="133">
       <c r="A133" t="n">
@@ -6017,10 +6149,22 @@
           <t>GA</t>
         </is>
       </c>
-      <c r="H133" t="inlineStr"/>
-      <c r="I133" t="inlineStr"/>
-      <c r="J133" t="inlineStr"/>
-      <c r="K133" t="inlineStr"/>
+      <c r="H133" t="n">
+        <v>260510.6006503247</v>
+      </c>
+      <c r="I133" t="n">
+        <v>77.14442426697629</v>
+      </c>
+      <c r="J133" t="inlineStr">
+        <is>
+          <t>[572.03, 604.28, 135.95]</t>
+        </is>
+      </c>
+      <c r="K133" t="inlineStr">
+        <is>
+          <t>[108.29480077041435, 215.1896071717479, 116.59161983693514]</t>
+        </is>
+      </c>
     </row>
     <row r="134">
       <c r="A134" t="n">
@@ -6048,10 +6192,22 @@
           <t>NM</t>
         </is>
       </c>
-      <c r="H134" t="inlineStr"/>
-      <c r="I134" t="inlineStr"/>
-      <c r="J134" t="inlineStr"/>
-      <c r="K134" t="inlineStr"/>
+      <c r="H134" t="n">
+        <v>237222.2031200424</v>
+      </c>
+      <c r="I134" t="n">
+        <v>79.11661535569986</v>
+      </c>
+      <c r="J134" t="inlineStr">
+        <is>
+          <t>[861.7178369614703, 654.86151605434, 311.3577339480744]</t>
+        </is>
+      </c>
+      <c r="K134" t="inlineStr">
+        <is>
+          <t>[118.08798245397163, 313.4541884422733, 140.8497997524973]</t>
+        </is>
+      </c>
     </row>
     <row r="135">
       <c r="A135" t="n">
@@ -6079,10 +6235,22 @@
           <t>GA</t>
         </is>
       </c>
-      <c r="H135" t="inlineStr"/>
-      <c r="I135" t="inlineStr"/>
-      <c r="J135" t="inlineStr"/>
-      <c r="K135" t="inlineStr"/>
+      <c r="H135" t="n">
+        <v>256290.5175586532</v>
+      </c>
+      <c r="I135" t="n">
+        <v>83.95557105148121</v>
+      </c>
+      <c r="J135" t="inlineStr">
+        <is>
+          <t>[50.74, 984.12, 880.8, 194.3, 983.89, 747.85, 585.92, 577.39, 423.42, 235.84]</t>
+        </is>
+      </c>
+      <c r="K135" t="inlineStr">
+        <is>
+          <t>[42.05321966116077, 549.8526023566933, 723.5484627508351, 169.01533103476913, 563.3728239433585, 506.4974774992487, 465.3897313470351, 338.65477592749465, 190.06597673043325, 31.75547960330389]</t>
+        </is>
+      </c>
     </row>
     <row r="136">
       <c r="A136" t="n">
@@ -6110,10 +6278,22 @@
           <t>ACO</t>
         </is>
       </c>
-      <c r="H136" t="inlineStr"/>
-      <c r="I136" t="inlineStr"/>
-      <c r="J136" t="inlineStr"/>
-      <c r="K136" t="inlineStr"/>
+      <c r="H136" t="n">
+        <v>114946.982481142</v>
+      </c>
+      <c r="I136" t="n">
+        <v>91.95919510505051</v>
+      </c>
+      <c r="J136" t="inlineStr">
+        <is>
+          <t>[845.0, 285.0, 380.0]</t>
+        </is>
+      </c>
+      <c r="K136" t="inlineStr">
+        <is>
+          <t>[765.0, 165.0, 225.0]</t>
+        </is>
+      </c>
     </row>
     <row r="137">
       <c r="A137" t="n">
@@ -6141,10 +6321,22 @@
           <t>ACO</t>
         </is>
       </c>
-      <c r="H137" t="inlineStr"/>
-      <c r="I137" t="inlineStr"/>
-      <c r="J137" t="inlineStr"/>
-      <c r="K137" t="inlineStr"/>
+      <c r="H137" t="n">
+        <v>210750.362301481</v>
+      </c>
+      <c r="I137" t="n">
+        <v>82.48500671668792</v>
+      </c>
+      <c r="J137" t="inlineStr">
+        <is>
+          <t>[955.0, 760.0, 980.0]</t>
+        </is>
+      </c>
+      <c r="K137" t="inlineStr">
+        <is>
+          <t>[325.0, 755.0, 820.0]</t>
+        </is>
+      </c>
     </row>
     <row r="138">
       <c r="A138" t="n">
@@ -6172,10 +6364,22 @@
           <t>NM</t>
         </is>
       </c>
-      <c r="H138" t="inlineStr"/>
-      <c r="I138" t="inlineStr"/>
-      <c r="J138" t="inlineStr"/>
-      <c r="K138" t="inlineStr"/>
+      <c r="H138" t="n">
+        <v>89132.87918306625</v>
+      </c>
+      <c r="I138" t="n">
+        <v>99.8535061623715</v>
+      </c>
+      <c r="J138" t="inlineStr">
+        <is>
+          <t>[497.1985047503575, 421.24539948972614, 491.3931209263252, 467.76036612167843, 662.1022577269222, 489.0683012385235, 491.0715266470231, 391.9978408413262, 482.4493617425693, 583.6769396448286]</t>
+        </is>
+      </c>
+      <c r="K138" t="inlineStr">
+        <is>
+          <t>[234.53136459453776, 224.98380718360207, 286.01337417963083, 188.24006361901738, 288.1935966124156, 295.584995721076, 100.24695102990168, 248.7228803951177, 234.4443146200994, 241.08665495103315]</t>
+        </is>
+      </c>
     </row>
     <row r="139">
       <c r="A139" t="n">
@@ -6203,10 +6407,22 @@
           <t>GA</t>
         </is>
       </c>
-      <c r="H139" t="inlineStr"/>
-      <c r="I139" t="inlineStr"/>
-      <c r="J139" t="inlineStr"/>
-      <c r="K139" t="inlineStr"/>
+      <c r="H139" t="n">
+        <v>109261.8232916898</v>
+      </c>
+      <c r="I139" t="n">
+        <v>100</v>
+      </c>
+      <c r="J139" t="inlineStr">
+        <is>
+          <t>[93.1, 133.78, 58.31, 584.88, 199.35, 192.12, 59.07, 21.1, 451.74, 484.78]</t>
+        </is>
+      </c>
+      <c r="K139" t="inlineStr">
+        <is>
+          <t>[0.8062945108203323, 35.06111442956876, 26.47847631791807, 376.0644094061917, 162.49918066263726, 126.74666872448313, 19.110018206189324, 5.415799777821205, 47.916161814760244, 13.329661503107209]</t>
+        </is>
+      </c>
     </row>
     <row r="140">
       <c r="A140" t="n">
@@ -6234,10 +6450,22 @@
           <t>ACO</t>
         </is>
       </c>
-      <c r="H140" t="inlineStr"/>
-      <c r="I140" t="inlineStr"/>
-      <c r="J140" t="inlineStr"/>
-      <c r="K140" t="inlineStr"/>
+      <c r="H140" t="n">
+        <v>137393.7129997611</v>
+      </c>
+      <c r="I140" t="n">
+        <v>92.58364533485354</v>
+      </c>
+      <c r="J140" t="inlineStr">
+        <is>
+          <t>[995.0, 445.0, 925.0, 780.0, 990.0]</t>
+        </is>
+      </c>
+      <c r="K140" t="inlineStr">
+        <is>
+          <t>[600.0, 265.0, 485.0, 635.0, 980.0]</t>
+        </is>
+      </c>
     </row>
     <row r="141">
       <c r="A141" t="n">
@@ -6265,10 +6493,22 @@
           <t>NM</t>
         </is>
       </c>
-      <c r="H141" t="inlineStr"/>
-      <c r="I141" t="inlineStr"/>
-      <c r="J141" t="inlineStr"/>
-      <c r="K141" t="inlineStr"/>
+      <c r="H141" t="n">
+        <v>93833.71967490744</v>
+      </c>
+      <c r="I141" t="n">
+        <v>99.94382077905776</v>
+      </c>
+      <c r="J141" t="inlineStr">
+        <is>
+          <t>[943.8622861365244, 461.0939870418509, 750.6063963715618, 479.9229480716951, 507.3494084846766, 611.8958466473697, 459.52385975636014, 388.16819582176674, 392.0118545040931, 507.9143163909836]</t>
+        </is>
+      </c>
+      <c r="K141" t="inlineStr">
+        <is>
+          <t>[655.7097933350573, 252.37330935200754, 538.8807359605275, 288.2277371972011, 297.4715497697151, 270.12916688028264, 276.30834535472655, 254.65779110004223, 229.35491521069585, 85.577608431126]</t>
+        </is>
+      </c>
     </row>
     <row r="142">
       <c r="A142" t="n">
@@ -6296,10 +6536,22 @@
           <t>ACO</t>
         </is>
       </c>
-      <c r="H142" t="inlineStr"/>
-      <c r="I142" t="inlineStr"/>
-      <c r="J142" t="inlineStr"/>
-      <c r="K142" t="inlineStr"/>
+      <c r="H142" t="n">
+        <v>115149.2111281207</v>
+      </c>
+      <c r="I142" t="n">
+        <v>99.64296994183974</v>
+      </c>
+      <c r="J142" t="inlineStr">
+        <is>
+          <t>[465.0, 470.0, 475.0, 330.0, 500.0, 750.0, 525.0, 925.0, 945.0, 560.0]</t>
+        </is>
+      </c>
+      <c r="K142" t="inlineStr">
+        <is>
+          <t>[300.0, 235.0, 415.0, 95.0, 495.0, 500.0, 90.0, 215.0, 220.0, 510.0]</t>
+        </is>
+      </c>
     </row>
     <row r="143">
       <c r="A143" t="n">
@@ -6327,10 +6579,22 @@
           <t>NM</t>
         </is>
       </c>
-      <c r="H143" t="inlineStr"/>
-      <c r="I143" t="inlineStr"/>
-      <c r="J143" t="inlineStr"/>
-      <c r="K143" t="inlineStr"/>
+      <c r="H143" t="n">
+        <v>84413.26393319861</v>
+      </c>
+      <c r="I143" t="n">
+        <v>96.4077713845421</v>
+      </c>
+      <c r="J143" t="inlineStr">
+        <is>
+          <t>[592.6890292557935, 852.5026792134613, 507.5491613781105]</t>
+        </is>
+      </c>
+      <c r="K143" t="inlineStr">
+        <is>
+          <t>[458.54905469958294, 667.43849002457, 88.93395118855977]</t>
+        </is>
+      </c>
     </row>
     <row r="144">
       <c r="A144" t="n">
@@ -6358,10 +6622,22 @@
           <t>NM</t>
         </is>
       </c>
-      <c r="H144" t="inlineStr"/>
-      <c r="I144" t="inlineStr"/>
-      <c r="J144" t="inlineStr"/>
-      <c r="K144" t="inlineStr"/>
+      <c r="H144" t="n">
+        <v>123746.3678449731</v>
+      </c>
+      <c r="I144" t="n">
+        <v>91.33660318891791</v>
+      </c>
+      <c r="J144" t="inlineStr">
+        <is>
+          <t>[405.79810547849024, 372.103028728757, 513.9137463887937]</t>
+        </is>
+      </c>
+      <c r="K144" t="inlineStr">
+        <is>
+          <t>[351.33846866633866, 188.30463543903343, 308.53889754303134]</t>
+        </is>
+      </c>
     </row>
     <row r="145">
       <c r="A145" t="n">
@@ -6389,10 +6665,22 @@
           <t>RD</t>
         </is>
       </c>
-      <c r="H145" t="inlineStr"/>
-      <c r="I145" t="inlineStr"/>
-      <c r="J145" t="inlineStr"/>
-      <c r="K145" t="inlineStr"/>
+      <c r="H145" t="n">
+        <v>131294.516500331</v>
+      </c>
+      <c r="I145" t="n">
+        <v>92.82065300439069</v>
+      </c>
+      <c r="J145" t="inlineStr">
+        <is>
+          <t>[624.1355242038883, 874.5354603758472, 714.669342183759, 961.1285576642113, 370.02579165493097]</t>
+        </is>
+      </c>
+      <c r="K145" t="inlineStr">
+        <is>
+          <t>[521.8211035268201, 359.2057966714921, 691.9555643006619, 750.5710903092723, 339.7615823565493]</t>
+        </is>
+      </c>
     </row>
     <row r="146">
       <c r="A146" t="n">
@@ -6420,10 +6708,22 @@
           <t>NM</t>
         </is>
       </c>
-      <c r="H146" t="inlineStr"/>
-      <c r="I146" t="inlineStr"/>
-      <c r="J146" t="inlineStr"/>
-      <c r="K146" t="inlineStr"/>
+      <c r="H146" t="n">
+        <v>89814.98977845382</v>
+      </c>
+      <c r="I146" t="n">
+        <v>100</v>
+      </c>
+      <c r="J146" t="inlineStr">
+        <is>
+          <t>[637.51576255933, 673.2277307379485, 579.9704196355838, 480.9629695395667, 600.4245100112382, 542.3566450878787, 528.4742003787737, 473.7343167940939, 414.7159128650451, 545.7485532656759]</t>
+        </is>
+      </c>
+      <c r="K146" t="inlineStr">
+        <is>
+          <t>[313.4125213313131, 416.6362132554091, 187.98841456041245, 167.02161923745922, 368.6179315430094, 263.0127663849469, 288.30295898345713, 285.16807841319167, 235.11175647431224, 245.68210483791648]</t>
+        </is>
+      </c>
     </row>
     <row r="147">
       <c r="A147" t="n">
@@ -6451,10 +6751,22 @@
           <t>ACO</t>
         </is>
       </c>
-      <c r="H147" t="inlineStr"/>
-      <c r="I147" t="inlineStr"/>
-      <c r="J147" t="inlineStr"/>
-      <c r="K147" t="inlineStr"/>
+      <c r="H147" t="n">
+        <v>239243.8213438832</v>
+      </c>
+      <c r="I147" t="n">
+        <v>79.17175412936005</v>
+      </c>
+      <c r="J147" t="inlineStr">
+        <is>
+          <t>[855.0, 655.0, 815.0]</t>
+        </is>
+      </c>
+      <c r="K147" t="inlineStr">
+        <is>
+          <t>[715.0, 400.0, 580.0]</t>
+        </is>
+      </c>
     </row>
     <row r="148">
       <c r="A148" t="n">
@@ -6482,10 +6794,22 @@
           <t>NM</t>
         </is>
       </c>
-      <c r="H148" t="inlineStr"/>
-      <c r="I148" t="inlineStr"/>
-      <c r="J148" t="inlineStr"/>
-      <c r="K148" t="inlineStr"/>
+      <c r="H148" t="n">
+        <v>85885.26703959257</v>
+      </c>
+      <c r="I148" t="n">
+        <v>98.55091858912753</v>
+      </c>
+      <c r="J148" t="inlineStr">
+        <is>
+          <t>[670.9990088803715, 1530.0440078550614, 747.0146678793948, 478.9829490044726, 668.2170278202447]</t>
+        </is>
+      </c>
+      <c r="K148" t="inlineStr">
+        <is>
+          <t>[204.3917791490144, 656.1676663619589, 321.939316354492, 477.06861406875095, 227.92614309237536]</t>
+        </is>
+      </c>
     </row>
     <row r="149">
       <c r="A149" t="n">
@@ -6513,10 +6837,22 @@
           <t>NM</t>
         </is>
       </c>
-      <c r="H149" t="inlineStr"/>
-      <c r="I149" t="inlineStr"/>
-      <c r="J149" t="inlineStr"/>
-      <c r="K149" t="inlineStr"/>
+      <c r="H149" t="n">
+        <v>75627.81735642045</v>
+      </c>
+      <c r="I149" t="n">
+        <v>99.95941479069783</v>
+      </c>
+      <c r="J149" t="inlineStr">
+        <is>
+          <t>[627.1957642594598, 803.1241702749962, 1907.8280898781854, 476.1413867796356, 561.5784251284823]</t>
+        </is>
+      </c>
+      <c r="K149" t="inlineStr">
+        <is>
+          <t>[350.7392191671496, 571.550953731153, 1389.428002637404, 444.70579817862733, 524.8778324130426]</t>
+        </is>
+      </c>
     </row>
     <row r="150">
       <c r="A150" t="n">
@@ -6544,10 +6880,22 @@
           <t>GA</t>
         </is>
       </c>
-      <c r="H150" t="inlineStr"/>
-      <c r="I150" t="inlineStr"/>
-      <c r="J150" t="inlineStr"/>
-      <c r="K150" t="inlineStr"/>
+      <c r="H150" t="n">
+        <v>69967.22327993608</v>
+      </c>
+      <c r="I150" t="n">
+        <v>99.63626150444728</v>
+      </c>
+      <c r="J150" t="inlineStr">
+        <is>
+          <t>[237.14, 837.09, 560.5, 370.48, 45.91]</t>
+        </is>
+      </c>
+      <c r="K150" t="inlineStr">
+        <is>
+          <t>[18.72625495969614, 548.5247467983463, 334.70646592398947, 215.81948522695055, 4.927788985585392]</t>
+        </is>
+      </c>
     </row>
     <row r="151">
       <c r="A151" t="n">
@@ -6575,10 +6923,22 @@
           <t>GA</t>
         </is>
       </c>
-      <c r="H151" t="inlineStr"/>
-      <c r="I151" t="inlineStr"/>
-      <c r="J151" t="inlineStr"/>
-      <c r="K151" t="inlineStr"/>
+      <c r="H151" t="n">
+        <v>254368.7654258424</v>
+      </c>
+      <c r="I151" t="n">
+        <v>76.48124486960072</v>
+      </c>
+      <c r="J151" t="inlineStr">
+        <is>
+          <t>[655.66, 351.68, 37.8]</t>
+        </is>
+      </c>
+      <c r="K151" t="inlineStr">
+        <is>
+          <t>[55.46626924311894, 120.87726555869392, 37.60038725340011]</t>
+        </is>
+      </c>
     </row>
     <row r="152">
       <c r="A152" t="n">
@@ -6606,10 +6966,22 @@
           <t>GA</t>
         </is>
       </c>
-      <c r="H152" t="inlineStr"/>
-      <c r="I152" t="inlineStr"/>
-      <c r="J152" t="inlineStr"/>
-      <c r="K152" t="inlineStr"/>
+      <c r="H152" t="n">
+        <v>240587.4347409885</v>
+      </c>
+      <c r="I152" t="n">
+        <v>79.27782975259525</v>
+      </c>
+      <c r="J152" t="inlineStr">
+        <is>
+          <t>[773.29, 568.84, 292.7]</t>
+        </is>
+      </c>
+      <c r="K152" t="inlineStr">
+        <is>
+          <t>[9.658567762942008, 250.22763298711902, 67.08134576990025]</t>
+        </is>
+      </c>
     </row>
     <row r="153">
       <c r="A153" t="n">
@@ -6637,10 +7009,22 @@
           <t>RD</t>
         </is>
       </c>
-      <c r="H153" t="inlineStr"/>
-      <c r="I153" t="inlineStr"/>
-      <c r="J153" t="inlineStr"/>
-      <c r="K153" t="inlineStr"/>
+      <c r="H153" t="n">
+        <v>89384.89238945358</v>
+      </c>
+      <c r="I153" t="n">
+        <v>99.58436048213315</v>
+      </c>
+      <c r="J153" t="inlineStr">
+        <is>
+          <t>[935.8443196179917, 908.3377630140179, 352.29920612409825, 715.1589483016538, 740.3947961367767]</t>
+        </is>
+      </c>
+      <c r="K153" t="inlineStr">
+        <is>
+          <t>[741.7348110041686, 629.6846988281089, 234.15462622035813, 581.6142274519169, 252.87506012054232]</t>
+        </is>
+      </c>
     </row>
     <row r="154">
       <c r="A154" t="n">
@@ -6668,10 +7052,22 @@
           <t>NM</t>
         </is>
       </c>
-      <c r="H154" t="inlineStr"/>
-      <c r="I154" t="inlineStr"/>
-      <c r="J154" t="inlineStr"/>
-      <c r="K154" t="inlineStr"/>
+      <c r="H154" t="n">
+        <v>232849.4786097644</v>
+      </c>
+      <c r="I154" t="n">
+        <v>79.87342976425977</v>
+      </c>
+      <c r="J154" t="inlineStr">
+        <is>
+          <t>[1009.7417885650351, 919.0242245332728, 758.7161179545304]</t>
+        </is>
+      </c>
+      <c r="K154" t="inlineStr">
+        <is>
+          <t>[351.3735253953118, 574.7845215244005, 447.1533128331863]</t>
+        </is>
+      </c>
     </row>
     <row r="155">
       <c r="A155" t="n">
@@ -6699,10 +7095,22 @@
           <t>ACO</t>
         </is>
       </c>
-      <c r="H155" t="inlineStr"/>
-      <c r="I155" t="inlineStr"/>
-      <c r="J155" t="inlineStr"/>
-      <c r="K155" t="inlineStr"/>
+      <c r="H155" t="n">
+        <v>107810.4173698603</v>
+      </c>
+      <c r="I155" t="n">
+        <v>99.76794359904281</v>
+      </c>
+      <c r="J155" t="inlineStr">
+        <is>
+          <t>[225.0, 505.0, 855.0, 795.0, 605.0, 395.0, 675.0, 690.0, 930.0, 555.0]</t>
+        </is>
+      </c>
+      <c r="K155" t="inlineStr">
+        <is>
+          <t>[195.0, 190.0, 585.0, 505.0, 150.0, 195.0, 100.0, 635.0, 525.0, 375.0]</t>
+        </is>
+      </c>
     </row>
     <row r="156">
       <c r="A156" t="n">
@@ -6730,10 +7138,22 @@
           <t>RD</t>
         </is>
       </c>
-      <c r="H156" t="inlineStr"/>
-      <c r="I156" t="inlineStr"/>
-      <c r="J156" t="inlineStr"/>
-      <c r="K156" t="inlineStr"/>
+      <c r="H156" t="n">
+        <v>122178.5471972715</v>
+      </c>
+      <c r="I156" t="n">
+        <v>96.34577281519447</v>
+      </c>
+      <c r="J156" t="inlineStr">
+        <is>
+          <t>[898.4937970249343, 721.07801030678, 369.8615264874058, 44.29653876107731, 567.8427004068892, 438.7815863788157, 249.9340754197702, 257.6080744476021, 645.3211067176629, 457.9857126901756]</t>
+        </is>
+      </c>
+      <c r="K156" t="inlineStr">
+        <is>
+          <t>[818.52160510552, 481.51272222305306, 267.4182902707527, 16.50591584573867, 562.7559123353559, 231.07521708739102, 103.82411444790252, 100.07118687023706, 171.2226268733829, 56.86963095757631]</t>
+        </is>
+      </c>
     </row>
     <row r="157">
       <c r="A157" t="n">
@@ -6761,10 +7181,22 @@
           <t>RD</t>
         </is>
       </c>
-      <c r="H157" t="inlineStr"/>
-      <c r="I157" t="inlineStr"/>
-      <c r="J157" t="inlineStr"/>
-      <c r="K157" t="inlineStr"/>
+      <c r="H157" t="n">
+        <v>250562.7429526838</v>
+      </c>
+      <c r="I157" t="n">
+        <v>78.37621596167033</v>
+      </c>
+      <c r="J157" t="inlineStr">
+        <is>
+          <t>[931.0960571032018, 815.7858723054088, 95.07938564416717]</t>
+        </is>
+      </c>
+      <c r="K157" t="inlineStr">
+        <is>
+          <t>[777.9432589037162, 627.4909144477905, 65.34243717862171]</t>
+        </is>
+      </c>
     </row>
     <row r="158">
       <c r="A158" t="n">
@@ -6792,10 +7224,22 @@
           <t>ACO</t>
         </is>
       </c>
-      <c r="H158" t="inlineStr"/>
-      <c r="I158" t="inlineStr"/>
-      <c r="J158" t="inlineStr"/>
-      <c r="K158" t="inlineStr"/>
+      <c r="H158" t="n">
+        <v>137271.5468521763</v>
+      </c>
+      <c r="I158" t="n">
+        <v>91.64007122609726</v>
+      </c>
+      <c r="J158" t="inlineStr">
+        <is>
+          <t>[805.0, 630.0, 540.0, 395.0, 700.0]</t>
+        </is>
+      </c>
+      <c r="K158" t="inlineStr">
+        <is>
+          <t>[560.0, 590.0, 360.0, 130.0, 675.0]</t>
+        </is>
+      </c>
     </row>
     <row r="159">
       <c r="A159" t="n">
@@ -6823,10 +7267,22 @@
           <t>ACO</t>
         </is>
       </c>
-      <c r="H159" t="inlineStr"/>
-      <c r="I159" t="inlineStr"/>
-      <c r="J159" t="inlineStr"/>
-      <c r="K159" t="inlineStr"/>
+      <c r="H159" t="n">
+        <v>138826.9535343842</v>
+      </c>
+      <c r="I159" t="n">
+        <v>89.70087663151655</v>
+      </c>
+      <c r="J159" t="inlineStr">
+        <is>
+          <t>[850.0, 310.0, 315.0]</t>
+        </is>
+      </c>
+      <c r="K159" t="inlineStr">
+        <is>
+          <t>[825.0, 180.0, 280.0]</t>
+        </is>
+      </c>
     </row>
     <row r="160">
       <c r="A160" t="n">
@@ -6854,10 +7310,22 @@
           <t>GA</t>
         </is>
       </c>
-      <c r="H160" t="inlineStr"/>
-      <c r="I160" t="inlineStr"/>
-      <c r="J160" t="inlineStr"/>
-      <c r="K160" t="inlineStr"/>
+      <c r="H160" t="n">
+        <v>117344.1672151631</v>
+      </c>
+      <c r="I160" t="n">
+        <v>93.15139033308355</v>
+      </c>
+      <c r="J160" t="inlineStr">
+        <is>
+          <t>[536.01, 79.33, 211.56, 756.12, 522.61]</t>
+        </is>
+      </c>
+      <c r="K160" t="inlineStr">
+        <is>
+          <t>[178.55827452290472, 17.012612261964787, 72.06257451458578, 121.74085196214007, 252.07937333994775]</t>
+        </is>
+      </c>
     </row>
     <row r="161">
       <c r="A161" t="n">
@@ -6885,10 +7353,22 @@
           <t>NM</t>
         </is>
       </c>
-      <c r="H161" t="inlineStr"/>
-      <c r="I161" t="inlineStr"/>
-      <c r="J161" t="inlineStr"/>
-      <c r="K161" t="inlineStr"/>
+      <c r="H161" t="n">
+        <v>88760.30672861986</v>
+      </c>
+      <c r="I161" t="n">
+        <v>99.57616266704629</v>
+      </c>
+      <c r="J161" t="inlineStr">
+        <is>
+          <t>[902.6773861345051, 1070.2798924262327, 1697.4520054497348]</t>
+        </is>
+      </c>
+      <c r="K161" t="inlineStr">
+        <is>
+          <t>[901.6717531281404, 1070.2798924262327, 1652.7571964745748]</t>
+        </is>
+      </c>
     </row>
     <row r="162">
       <c r="A162" t="n">
@@ -6916,10 +7396,22 @@
           <t>GA</t>
         </is>
       </c>
-      <c r="H162" t="inlineStr"/>
-      <c r="I162" t="inlineStr"/>
-      <c r="J162" t="inlineStr"/>
-      <c r="K162" t="inlineStr"/>
+      <c r="H162" t="n">
+        <v>233086.4111047843</v>
+      </c>
+      <c r="I162" t="n">
+        <v>81.19565662978695</v>
+      </c>
+      <c r="J162" t="inlineStr">
+        <is>
+          <t>[880.33, 179.53, 553.35, 566.59, 33.8]</t>
+        </is>
+      </c>
+      <c r="K162" t="inlineStr">
+        <is>
+          <t>[718.2262856982919, 47.21336618411805, 109.55135361821876, 428.8742619818859, 6.7344265282060825]</t>
+        </is>
+      </c>
     </row>
     <row r="163">
       <c r="A163" t="n">
@@ -6947,10 +7439,22 @@
           <t>ACO</t>
         </is>
       </c>
-      <c r="H163" t="inlineStr"/>
-      <c r="I163" t="inlineStr"/>
-      <c r="J163" t="inlineStr"/>
-      <c r="K163" t="inlineStr"/>
+      <c r="H163" t="n">
+        <v>219621.6993395999</v>
+      </c>
+      <c r="I163" t="n">
+        <v>81.3559316024002</v>
+      </c>
+      <c r="J163" t="inlineStr">
+        <is>
+          <t>[920.0, 710.0, 675.0]</t>
+        </is>
+      </c>
+      <c r="K163" t="inlineStr">
+        <is>
+          <t>[900.0, 515.0, 565.0]</t>
+        </is>
+      </c>
     </row>
     <row r="164">
       <c r="A164" t="n">
@@ -6978,10 +7482,22 @@
           <t>ACO</t>
         </is>
       </c>
-      <c r="H164" t="inlineStr"/>
-      <c r="I164" t="inlineStr"/>
-      <c r="J164" t="inlineStr"/>
-      <c r="K164" t="inlineStr"/>
+      <c r="H164" t="n">
+        <v>96576.69853725338</v>
+      </c>
+      <c r="I164" t="n">
+        <v>99.90650496441074</v>
+      </c>
+      <c r="J164" t="inlineStr">
+        <is>
+          <t>[410.0, 585.0, 290.0, 530.0, 165.0, 665.0, 620.0, 355.0, 850.0, 250.0]</t>
+        </is>
+      </c>
+      <c r="K164" t="inlineStr">
+        <is>
+          <t>[150.0, 220.0, 255.0, 340.0, 125.0, 75.0, 470.0, 65.0, 625.0, 200.0]</t>
+        </is>
+      </c>
     </row>
     <row r="165">
       <c r="A165" t="n">
@@ -7009,10 +7525,22 @@
           <t>NM</t>
         </is>
       </c>
-      <c r="H165" t="inlineStr"/>
-      <c r="I165" t="inlineStr"/>
-      <c r="J165" t="inlineStr"/>
-      <c r="K165" t="inlineStr"/>
+      <c r="H165" t="n">
+        <v>98959.61182570895</v>
+      </c>
+      <c r="I165" t="n">
+        <v>99.6350021085613</v>
+      </c>
+      <c r="J165" t="inlineStr">
+        <is>
+          <t>[500.3716402140994, 536.8786150735264, 828.240353215614, 648.5334738493788, 788.1830269813406, 580.3842777563669, 576.4798842072753, 394.4428764384004, 371.10223129740905, 569.8621797331435]</t>
+        </is>
+      </c>
+      <c r="K165" t="inlineStr">
+        <is>
+          <t>[214.26737536102334, 344.0686959476326, 500.3107338425093, 539.0033008996518, 242.02476447550382, 315.63783154586, 323.13877196329275, 175.2566301132086, 289.8531693088721, 225.56551982581843]</t>
+        </is>
+      </c>
     </row>
     <row r="166">
       <c r="A166" t="n">
@@ -7040,10 +7568,22 @@
           <t>NM</t>
         </is>
       </c>
-      <c r="H166" t="inlineStr"/>
-      <c r="I166" t="inlineStr"/>
-      <c r="J166" t="inlineStr"/>
-      <c r="K166" t="inlineStr"/>
+      <c r="H166" t="n">
+        <v>132415.3596581357</v>
+      </c>
+      <c r="I166" t="n">
+        <v>91.71015080649218</v>
+      </c>
+      <c r="J166" t="inlineStr">
+        <is>
+          <t>[576.462330640596, 529.3371952621562, 405.58672343140535, 579.5184883856809, 762.5857228154977]</t>
+        </is>
+      </c>
+      <c r="K166" t="inlineStr">
+        <is>
+          <t>[424.50140554738164, 163.98309418041612, 237.1609558591223, 517.5373072134566, 500.76299418016015]</t>
+        </is>
+      </c>
     </row>
     <row r="167">
       <c r="A167" t="n">
@@ -7071,10 +7611,22 @@
           <t>RD</t>
         </is>
       </c>
-      <c r="H167" t="inlineStr"/>
-      <c r="I167" t="inlineStr"/>
-      <c r="J167" t="inlineStr"/>
-      <c r="K167" t="inlineStr"/>
+      <c r="H167" t="n">
+        <v>192875.4653576221</v>
+      </c>
+      <c r="I167" t="n">
+        <v>87.37771999196561</v>
+      </c>
+      <c r="J167" t="inlineStr">
+        <is>
+          <t>[895.3841578323603, 861.0940408542373, 606.3752298334213, 516.1132529593846, 862.4357912582657]</t>
+        </is>
+      </c>
+      <c r="K167" t="inlineStr">
+        <is>
+          <t>[881.4823683444845, 860.3884941662102, 212.2594815057411, 268.4920340060931, 511.3728853908653]</t>
+        </is>
+      </c>
     </row>
     <row r="168">
       <c r="A168" t="n">
@@ -7102,10 +7654,22 @@
           <t>RD</t>
         </is>
       </c>
-      <c r="H168" t="inlineStr"/>
-      <c r="I168" t="inlineStr"/>
-      <c r="J168" t="inlineStr"/>
-      <c r="K168" t="inlineStr"/>
+      <c r="H168" t="n">
+        <v>187256.6319608098</v>
+      </c>
+      <c r="I168" t="n">
+        <v>84.64998112012942</v>
+      </c>
+      <c r="J168" t="inlineStr">
+        <is>
+          <t>[492.92621958964656, 723.2930987882468, 385.78509940167015]</t>
+        </is>
+      </c>
+      <c r="K168" t="inlineStr">
+        <is>
+          <t>[325.5123417776599, 595.6928360667152, 381.9819548219463]</t>
+        </is>
+      </c>
     </row>
     <row r="169">
       <c r="A169" t="n">
@@ -7133,10 +7697,22 @@
           <t>NM</t>
         </is>
       </c>
-      <c r="H169" t="inlineStr"/>
-      <c r="I169" t="inlineStr"/>
-      <c r="J169" t="inlineStr"/>
-      <c r="K169" t="inlineStr"/>
+      <c r="H169" t="n">
+        <v>98810.17597934986</v>
+      </c>
+      <c r="I169" t="n">
+        <v>98.68446707360458</v>
+      </c>
+      <c r="J169" t="inlineStr">
+        <is>
+          <t>[887.4354641673177, 211.4881154939624, 997.6476330643254, 1155.014133658351, 1441.1759778052958]</t>
+        </is>
+      </c>
+      <c r="K169" t="inlineStr">
+        <is>
+          <t>[471.1708856198407, 192.7198986479207, 363.64916197966176, 666.4834638093691, 758.8203063933483]</t>
+        </is>
+      </c>
     </row>
     <row r="170">
       <c r="A170" t="n">
@@ -7164,10 +7740,22 @@
           <t>RD</t>
         </is>
       </c>
-      <c r="H170" t="inlineStr"/>
-      <c r="I170" t="inlineStr"/>
-      <c r="J170" t="inlineStr"/>
-      <c r="K170" t="inlineStr"/>
+      <c r="H170" t="n">
+        <v>69515.30302480119</v>
+      </c>
+      <c r="I170" t="n">
+        <v>97.32360385501609</v>
+      </c>
+      <c r="J170" t="inlineStr">
+        <is>
+          <t>[789.8259383493978, 523.0161296779813, 726.5977993071931]</t>
+        </is>
+      </c>
+      <c r="K170" t="inlineStr">
+        <is>
+          <t>[559.0401529810499, 252.9359357369418, 700.3542866839358]</t>
+        </is>
+      </c>
     </row>
     <row r="171">
       <c r="A171" t="n">
@@ -7195,10 +7783,22 @@
           <t>RD</t>
         </is>
       </c>
-      <c r="H171" t="inlineStr"/>
-      <c r="I171" t="inlineStr"/>
-      <c r="J171" t="inlineStr"/>
-      <c r="K171" t="inlineStr"/>
+      <c r="H171" t="n">
+        <v>124509.920293698</v>
+      </c>
+      <c r="I171" t="n">
+        <v>97.03567709586517</v>
+      </c>
+      <c r="J171" t="inlineStr">
+        <is>
+          <t>[410.9212923475344, 513.1855591358425, 706.0200384647218, 265.5910583572879, 715.3172711344222, 471.8995733732101, 963.3769949751548, 395.3543213927007, 505.5278743894368, 583.3319458271214]</t>
+        </is>
+      </c>
+      <c r="K171" t="inlineStr">
+        <is>
+          <t>[129.402745792563, 386.30705863615384, 663.8040739154686, 217.29653525167618, 49.0552811063682, 292.2164584530984, 901.737153859479, 203.285513695935, 475.1442537097234, 501.89720499443456]</t>
+        </is>
+      </c>
     </row>
     <row r="172">
       <c r="A172" t="n">
@@ -7226,10 +7826,22 @@
           <t>GA</t>
         </is>
       </c>
-      <c r="H172" t="inlineStr"/>
-      <c r="I172" t="inlineStr"/>
-      <c r="J172" t="inlineStr"/>
-      <c r="K172" t="inlineStr"/>
+      <c r="H172" t="n">
+        <v>134103.7309060003</v>
+      </c>
+      <c r="I172" t="n">
+        <v>99.03007039463434</v>
+      </c>
+      <c r="J172" t="inlineStr">
+        <is>
+          <t>[544.54, 501.64, 969.69, 260.47, 319.24, 397.4, 746.9, 417.16, 345.72, 537.18]</t>
+        </is>
+      </c>
+      <c r="K172" t="inlineStr">
+        <is>
+          <t>[350.91806849172804, 187.00421069065422, 466.210588721319, 229.76572216133098, 247.81956917552773, 139.26969001046436, 35.97182974620407, 119.42191807865053, 140.80999103559358, 447.7869340221924]</t>
+        </is>
+      </c>
     </row>
     <row r="173">
       <c r="A173" t="n">
@@ -7257,10 +7869,22 @@
           <t>RD</t>
         </is>
       </c>
-      <c r="H173" t="inlineStr"/>
-      <c r="I173" t="inlineStr"/>
-      <c r="J173" t="inlineStr"/>
-      <c r="K173" t="inlineStr"/>
+      <c r="H173" t="n">
+        <v>222432.8273971418</v>
+      </c>
+      <c r="I173" t="n">
+        <v>80.84087853411293</v>
+      </c>
+      <c r="J173" t="inlineStr">
+        <is>
+          <t>[644.1219760847615, 676.7714899641159, 861.5047987412682]</t>
+        </is>
+      </c>
+      <c r="K173" t="inlineStr">
+        <is>
+          <t>[156.0122741688291, 671.048706327291, 646.0139189933622]</t>
+        </is>
+      </c>
     </row>
     <row r="174">
       <c r="A174" t="n">
@@ -7288,10 +7912,22 @@
           <t>NM</t>
         </is>
       </c>
-      <c r="H174" t="inlineStr"/>
-      <c r="I174" t="inlineStr"/>
-      <c r="J174" t="inlineStr"/>
-      <c r="K174" t="inlineStr"/>
+      <c r="H174" t="n">
+        <v>82168.90331157124</v>
+      </c>
+      <c r="I174" t="n">
+        <v>99.7152599054446</v>
+      </c>
+      <c r="J174" t="inlineStr">
+        <is>
+          <t>[524.0744038297811, 462.53285058430566, 596.6690772442267, 367.1764324228355, 395.52029841650847, 474.87990410406917, 437.1564427107082, 422.35079834913455, 425.27837017273526, 284.09609024311493]</t>
+        </is>
+      </c>
+      <c r="K174" t="inlineStr">
+        <is>
+          <t>[270.6275729356312, 303.63178385893684, 248.10701235806457, 176.660777498937, 282.43330915497916, 218.0353605734254, 299.38868987063336, 301.997365141561, 131.5198356228103, 111.73564103785856]</t>
+        </is>
+      </c>
     </row>
     <row r="175">
       <c r="A175" t="n">
@@ -7319,10 +7955,22 @@
           <t>RD</t>
         </is>
       </c>
-      <c r="H175" t="inlineStr"/>
-      <c r="I175" t="inlineStr"/>
-      <c r="J175" t="inlineStr"/>
-      <c r="K175" t="inlineStr"/>
+      <c r="H175" t="n">
+        <v>144429.9775358509</v>
+      </c>
+      <c r="I175" t="n">
+        <v>95.71018726325842</v>
+      </c>
+      <c r="J175" t="inlineStr">
+        <is>
+          <t>[901.7945537184911, 733.316069285631, 928.124159535579, 343.7324565406132, 362.38321624976675, 801.9761780949456, 286.7245125043277, 584.8835246884703, 463.5529239051407, 654.0651338508607]</t>
+        </is>
+      </c>
+      <c r="K175" t="inlineStr">
+        <is>
+          <t>[876.2801780515106, 640.1012810086298, 786.814130845523, 238.6363028336496, 113.58715907729469, 226.55007867805904, 94.80220104100009, 301.2101602633239, 167.07985120830082, 528.9775021041115]</t>
+        </is>
+      </c>
     </row>
     <row r="176">
       <c r="A176" t="n">
@@ -7350,10 +7998,22 @@
           <t>RD</t>
         </is>
       </c>
-      <c r="H176" t="inlineStr"/>
-      <c r="I176" t="inlineStr"/>
-      <c r="J176" t="inlineStr"/>
-      <c r="K176" t="inlineStr"/>
+      <c r="H176" t="n">
+        <v>149001.6044738508</v>
+      </c>
+      <c r="I176" t="n">
+        <v>89.71161170372316</v>
+      </c>
+      <c r="J176" t="inlineStr">
+        <is>
+          <t>[823.7455803671016, 414.7459589789001, 666.7250851078824]</t>
+        </is>
+      </c>
+      <c r="K176" t="inlineStr">
+        <is>
+          <t>[799.073680504845, 378.6119564706535, 307.96659301110225]</t>
+        </is>
+      </c>
     </row>
     <row r="177">
       <c r="A177" t="n">
@@ -7381,10 +8041,22 @@
           <t>RD</t>
         </is>
       </c>
-      <c r="H177" t="inlineStr"/>
-      <c r="I177" t="inlineStr"/>
-      <c r="J177" t="inlineStr"/>
-      <c r="K177" t="inlineStr"/>
+      <c r="H177" t="n">
+        <v>114151.6147713702</v>
+      </c>
+      <c r="I177" t="n">
+        <v>98.06449259712183</v>
+      </c>
+      <c r="J177" t="inlineStr">
+        <is>
+          <t>[493.09006805986945, 444.2873112706963, 400.4169634727428, 799.8191073303523, 667.7602853120478, 529.91398964836, 709.7248301529293, 669.3919542442238, 394.0951426219477, 576.45543317665]</t>
+        </is>
+      </c>
+      <c r="K177" t="inlineStr">
+        <is>
+          <t>[488.60349468412153, 155.71942360710847, 220.24719107940416, 373.7051182084806, 562.693769096898, 122.26783413248073, 514.2876101028817, 30.327449747259678, 180.47355124865248, 145.28016556964906]</t>
+        </is>
+      </c>
     </row>
     <row r="178">
       <c r="A178" t="n">
@@ -7412,10 +8084,22 @@
           <t>GA</t>
         </is>
       </c>
-      <c r="H178" t="inlineStr"/>
-      <c r="I178" t="inlineStr"/>
-      <c r="J178" t="inlineStr"/>
-      <c r="K178" t="inlineStr"/>
+      <c r="H178" t="n">
+        <v>143720.7779984572</v>
+      </c>
+      <c r="I178" t="n">
+        <v>98.23490812738682</v>
+      </c>
+      <c r="J178" t="inlineStr">
+        <is>
+          <t>[934.34, 845.41, 854.94, 296.24, 828.14, 869.88, 757.18, 955.22, 761.9, 439.51]</t>
+        </is>
+      </c>
+      <c r="K178" t="inlineStr">
+        <is>
+          <t>[373.92542999347324, 114.41264066566843, 697.5458312319407, 284.30886347900696, 179.00463300907697, 269.1625885350954, 643.0244422303605, 129.757254076617, 301.8317467052104, 411.47711332689465]</t>
+        </is>
+      </c>
     </row>
     <row r="179">
       <c r="A179" t="n">
@@ -7443,10 +8127,22 @@
           <t>ACO</t>
         </is>
       </c>
-      <c r="H179" t="inlineStr"/>
-      <c r="I179" t="inlineStr"/>
-      <c r="J179" t="inlineStr"/>
-      <c r="K179" t="inlineStr"/>
+      <c r="H179" t="n">
+        <v>59376.56668331927</v>
+      </c>
+      <c r="I179" t="n">
+        <v>99.61066187481281</v>
+      </c>
+      <c r="J179" t="inlineStr">
+        <is>
+          <t>[855.0, 775.0, 805.0]</t>
+        </is>
+      </c>
+      <c r="K179" t="inlineStr">
+        <is>
+          <t>[730.0, 610.0, 280.0]</t>
+        </is>
+      </c>
     </row>
     <row r="180">
       <c r="A180" t="n">
@@ -7474,10 +8170,22 @@
           <t>NM</t>
         </is>
       </c>
-      <c r="H180" t="inlineStr"/>
-      <c r="I180" t="inlineStr"/>
-      <c r="J180" t="inlineStr"/>
-      <c r="K180" t="inlineStr"/>
+      <c r="H180" t="n">
+        <v>179235.1822878707</v>
+      </c>
+      <c r="I180" t="n">
+        <v>85.16452281569315</v>
+      </c>
+      <c r="J180" t="inlineStr">
+        <is>
+          <t>[407.0765850442053, 228.37153120016654, 304.2224866421597]</t>
+        </is>
+      </c>
+      <c r="K180" t="inlineStr">
+        <is>
+          <t>[245.85809170683615, 68.53426942938297, 203.9095429327248]</t>
+        </is>
+      </c>
     </row>
     <row r="181">
       <c r="A181" t="n">
@@ -7505,10 +8213,22 @@
           <t>ACO</t>
         </is>
       </c>
-      <c r="H181" t="inlineStr"/>
-      <c r="I181" t="inlineStr"/>
-      <c r="J181" t="inlineStr"/>
-      <c r="K181" t="inlineStr"/>
+      <c r="H181" t="n">
+        <v>159898.9329772058</v>
+      </c>
+      <c r="I181" t="n">
+        <v>89.49261155506201</v>
+      </c>
+      <c r="J181" t="inlineStr">
+        <is>
+          <t>[730.0, 995.0, 485.0, 395.0, 535.0]</t>
+        </is>
+      </c>
+      <c r="K181" t="inlineStr">
+        <is>
+          <t>[475.0, 955.0, 470.0, 240.0, 225.0]</t>
+        </is>
+      </c>
     </row>
     <row r="182">
       <c r="A182" t="n">
@@ -7536,10 +8256,22 @@
           <t>RD</t>
         </is>
       </c>
-      <c r="H182" t="inlineStr"/>
-      <c r="I182" t="inlineStr"/>
-      <c r="J182" t="inlineStr"/>
-      <c r="K182" t="inlineStr"/>
+      <c r="H182" t="n">
+        <v>135279.6054356677</v>
+      </c>
+      <c r="I182" t="n">
+        <v>92.4691073931874</v>
+      </c>
+      <c r="J182" t="inlineStr">
+        <is>
+          <t>[592.3130164082938, 132.3081957251858, 49.60870856246036, 951.7015570485173, 615.4062163593837]</t>
+        </is>
+      </c>
+      <c r="K182" t="inlineStr">
+        <is>
+          <t>[405.8068900198856, 88.92313392162656, 25.115966060735296, 604.3743846869932, 457.1489717688956]</t>
+        </is>
+      </c>
     </row>
     <row r="183">
       <c r="A183" t="n">
@@ -7567,10 +8299,22 @@
           <t>NM</t>
         </is>
       </c>
-      <c r="H183" t="inlineStr"/>
-      <c r="I183" t="inlineStr"/>
-      <c r="J183" t="inlineStr"/>
-      <c r="K183" t="inlineStr"/>
+      <c r="H183" t="n">
+        <v>100213.2617921743</v>
+      </c>
+      <c r="I183" t="n">
+        <v>100</v>
+      </c>
+      <c r="J183" t="inlineStr">
+        <is>
+          <t>[976.2928896576743, 479.59725156400657, 555.6328733819685, 510.1985501223152, 499.317049106726, 556.6904764015908, 466.47550142466207, 367.7365193929121, 640.3144435184595, 597.1152815861844]</t>
+        </is>
+      </c>
+      <c r="K183" t="inlineStr">
+        <is>
+          <t>[760.3101306208445, 178.79807586222458, 149.89449553520336, 261.3455928603114, 323.6061372782861, 273.594234370325, 249.0682155368547, 211.4350108206317, 307.57813056595694, 437.9728485695907]</t>
+        </is>
+      </c>
     </row>
     <row r="184">
       <c r="A184" t="n">
@@ -7598,10 +8342,22 @@
           <t>ACO</t>
         </is>
       </c>
-      <c r="H184" t="inlineStr"/>
-      <c r="I184" t="inlineStr"/>
-      <c r="J184" t="inlineStr"/>
-      <c r="K184" t="inlineStr"/>
+      <c r="H184" t="n">
+        <v>81142.12617548821</v>
+      </c>
+      <c r="I184" t="n">
+        <v>98.08821068807984</v>
+      </c>
+      <c r="J184" t="inlineStr">
+        <is>
+          <t>[890.0, 505.0, 685.0, 910.0, 695.0]</t>
+        </is>
+      </c>
+      <c r="K184" t="inlineStr">
+        <is>
+          <t>[575.0, 375.0, 240.0, 700.0, 205.0]</t>
+        </is>
+      </c>
     </row>
     <row r="185">
       <c r="A185" t="n">
@@ -7629,10 +8385,22 @@
           <t>ACO</t>
         </is>
       </c>
-      <c r="H185" t="inlineStr"/>
-      <c r="I185" t="inlineStr"/>
-      <c r="J185" t="inlineStr"/>
-      <c r="K185" t="inlineStr"/>
+      <c r="H185" t="n">
+        <v>72078.26095862723</v>
+      </c>
+      <c r="I185" t="n">
+        <v>98.17308493609306</v>
+      </c>
+      <c r="J185" t="inlineStr">
+        <is>
+          <t>[920.0, 840.0, 785.0]</t>
+        </is>
+      </c>
+      <c r="K185" t="inlineStr">
+        <is>
+          <t>[540.0, 770.0, 785.0]</t>
+        </is>
+      </c>
     </row>
     <row r="186">
       <c r="A186" t="n">
@@ -7660,10 +8428,22 @@
           <t>RD</t>
         </is>
       </c>
-      <c r="H186" t="inlineStr"/>
-      <c r="I186" t="inlineStr"/>
-      <c r="J186" t="inlineStr"/>
-      <c r="K186" t="inlineStr"/>
+      <c r="H186" t="n">
+        <v>218964.9293118692</v>
+      </c>
+      <c r="I186" t="n">
+        <v>81.34413796070835</v>
+      </c>
+      <c r="J186" t="inlineStr">
+        <is>
+          <t>[710.530134865612, 626.2993790461512, 564.4104527728119]</t>
+        </is>
+      </c>
+      <c r="K186" t="inlineStr">
+        <is>
+          <t>[612.4759224169611, 590.5470848363556, 475.6150343758258]</t>
+        </is>
+      </c>
     </row>
     <row r="187">
       <c r="A187" t="n">
@@ -7691,10 +8471,22 @@
           <t>RD</t>
         </is>
       </c>
-      <c r="H187" t="inlineStr"/>
-      <c r="I187" t="inlineStr"/>
-      <c r="J187" t="inlineStr"/>
-      <c r="K187" t="inlineStr"/>
+      <c r="H187" t="n">
+        <v>120771.5460644579</v>
+      </c>
+      <c r="I187" t="n">
+        <v>97.94811277353007</v>
+      </c>
+      <c r="J187" t="inlineStr">
+        <is>
+          <t>[850.0722960688101, 340.1122700487872, 330.2020246342978, 339.9492521635491, 585.5752914874193, 130.07277460536937, 805.8608191298638, 225.22557468600735, 840.946374150031, 899.8463852417232]</t>
+        </is>
+      </c>
+      <c r="K187" t="inlineStr">
+        <is>
+          <t>[210.2115430418193, 109.55714622361371, 213.3541165150953, 294.4256223771293, 559.0477049974915, 62.68110104443019, 203.5942678432755, 198.90746848882162, 751.5842268907146, 459.49707600779357]</t>
+        </is>
+      </c>
     </row>
     <row r="188">
       <c r="A188" t="n">
@@ -7722,10 +8514,22 @@
           <t>ACO</t>
         </is>
       </c>
-      <c r="H188" t="inlineStr"/>
-      <c r="I188" t="inlineStr"/>
-      <c r="J188" t="inlineStr"/>
-      <c r="K188" t="inlineStr"/>
+      <c r="H188" t="n">
+        <v>214584.1301319473</v>
+      </c>
+      <c r="I188" t="n">
+        <v>82.25301054983424</v>
+      </c>
+      <c r="J188" t="inlineStr">
+        <is>
+          <t>[990.0, 780.0, 825.0]</t>
+        </is>
+      </c>
+      <c r="K188" t="inlineStr">
+        <is>
+          <t>[585.0, 85.0, 650.0]</t>
+        </is>
+      </c>
     </row>
     <row r="189">
       <c r="A189" t="n">
@@ -7753,10 +8557,22 @@
           <t>ACO</t>
         </is>
       </c>
-      <c r="H189" t="inlineStr"/>
-      <c r="I189" t="inlineStr"/>
-      <c r="J189" t="inlineStr"/>
-      <c r="K189" t="inlineStr"/>
+      <c r="H189" t="n">
+        <v>123664.0818619284</v>
+      </c>
+      <c r="I189" t="n">
+        <v>94.20359668149078</v>
+      </c>
+      <c r="J189" t="inlineStr">
+        <is>
+          <t>[940.0, 290.0, 535.0, 855.0, 520.0]</t>
+        </is>
+      </c>
+      <c r="K189" t="inlineStr">
+        <is>
+          <t>[830.0, 220.0, 535.0, 660.0, 30.0]</t>
+        </is>
+      </c>
     </row>
     <row r="190">
       <c r="A190" t="n">
@@ -7784,10 +8600,22 @@
           <t>GA</t>
         </is>
       </c>
-      <c r="H190" t="inlineStr"/>
-      <c r="I190" t="inlineStr"/>
-      <c r="J190" t="inlineStr"/>
-      <c r="K190" t="inlineStr"/>
+      <c r="H190" t="n">
+        <v>165457.2613808042</v>
+      </c>
+      <c r="I190" t="n">
+        <v>92.29447346609896</v>
+      </c>
+      <c r="J190" t="inlineStr">
+        <is>
+          <t>[269.74, 78.48, 61.48, 90.69, 308.79, 730.44, 847.57, 21.17, 0.22, 357.98]</t>
+        </is>
+      </c>
+      <c r="K190" t="inlineStr">
+        <is>
+          <t>[209.59612987834745, 27.650811626999904, 46.53102667689477, 52.469589873959464, 84.80168742848466, 556.1776835196987, 562.2401020773397, 6.038402707765153, 0.018371458588008305, 334.4303095786664]</t>
+        </is>
+      </c>
     </row>
     <row r="191">
       <c r="A191" t="n">
@@ -7815,10 +8643,22 @@
           <t>GA</t>
         </is>
       </c>
-      <c r="H191" t="inlineStr"/>
-      <c r="I191" t="inlineStr"/>
-      <c r="J191" t="inlineStr"/>
-      <c r="K191" t="inlineStr"/>
+      <c r="H191" t="n">
+        <v>162031.654203112</v>
+      </c>
+      <c r="I191" t="n">
+        <v>88.47094273109484</v>
+      </c>
+      <c r="J191" t="inlineStr">
+        <is>
+          <t>[188.76, 160.08, 766.13]</t>
+        </is>
+      </c>
+      <c r="K191" t="inlineStr">
+        <is>
+          <t>[75.29239163163197, 137.22897421845363, 141.99615079710802]</t>
+        </is>
+      </c>
     </row>
     <row r="192">
       <c r="A192" t="n">
@@ -7846,10 +8686,22 @@
           <t>NM</t>
         </is>
       </c>
-      <c r="H192" t="inlineStr"/>
-      <c r="I192" t="inlineStr"/>
-      <c r="J192" t="inlineStr"/>
-      <c r="K192" t="inlineStr"/>
+      <c r="H192" t="n">
+        <v>67402.31488663412</v>
+      </c>
+      <c r="I192" t="n">
+        <v>99.74876974736647</v>
+      </c>
+      <c r="J192" t="inlineStr">
+        <is>
+          <t>[913.0364351079181, 1297.8917786939992, 1256.6319517136085]</t>
+        </is>
+      </c>
+      <c r="K192" t="inlineStr">
+        <is>
+          <t>[822.7597236343133, 1224.9466940058496, 590.1691729090059]</t>
+        </is>
+      </c>
     </row>
     <row r="193">
       <c r="A193" t="n">
@@ -7877,10 +8729,22 @@
           <t>NM</t>
         </is>
       </c>
-      <c r="H193" t="inlineStr"/>
-      <c r="I193" t="inlineStr"/>
-      <c r="J193" t="inlineStr"/>
-      <c r="K193" t="inlineStr"/>
+      <c r="H193" t="n">
+        <v>113622.13441673</v>
+      </c>
+      <c r="I193" t="n">
+        <v>98.85639086945083</v>
+      </c>
+      <c r="J193" t="inlineStr">
+        <is>
+          <t>[364.5169297608901, 628.8906355230757, 959.130560532007, 859.7877790514655, 472.05142684974646, 891.2339952493425, 422.63396408727573, 485.2633865778491, 622.8304286997213, 1011.6074195129727]</t>
+        </is>
+      </c>
+      <c r="K193" t="inlineStr">
+        <is>
+          <t>[267.93762022862825, 264.40804774421025, 660.2018638060501, 287.82712879016356, 379.9922051641345, 398.137951551608, 223.99965463559792, 251.2126219184755, 480.048801939135, 578.4458631362336]</t>
+        </is>
+      </c>
     </row>
     <row r="194">
       <c r="A194" t="n">
@@ -7908,10 +8772,22 @@
           <t>ACO</t>
         </is>
       </c>
-      <c r="H194" t="inlineStr"/>
-      <c r="I194" t="inlineStr"/>
-      <c r="J194" t="inlineStr"/>
-      <c r="K194" t="inlineStr"/>
+      <c r="H194" t="n">
+        <v>102114.0311240579</v>
+      </c>
+      <c r="I194" t="n">
+        <v>99.30593011035243</v>
+      </c>
+      <c r="J194" t="inlineStr">
+        <is>
+          <t>[830.0, 765.0, 175.0, 255.0, 750.0, 340.0, 395.0, 715.0, 30.0, 350.0]</t>
+        </is>
+      </c>
+      <c r="K194" t="inlineStr">
+        <is>
+          <t>[610.0, 700.0, 155.0, 160.0, 300.0, 10.0, 260.0, 85.0, 5.0, 110.0]</t>
+        </is>
+      </c>
     </row>
     <row r="195">
       <c r="A195" t="n">
@@ -7939,10 +8815,22 @@
           <t>ACO</t>
         </is>
       </c>
-      <c r="H195" t="inlineStr"/>
-      <c r="I195" t="inlineStr"/>
-      <c r="J195" t="inlineStr"/>
-      <c r="K195" t="inlineStr"/>
+      <c r="H195" t="n">
+        <v>177487.0670650614</v>
+      </c>
+      <c r="I195" t="n">
+        <v>86.52268098656046</v>
+      </c>
+      <c r="J195" t="inlineStr">
+        <is>
+          <t>[800.0, 520.0, 975.0]</t>
+        </is>
+      </c>
+      <c r="K195" t="inlineStr">
+        <is>
+          <t>[575.0, 390.0, 695.0]</t>
+        </is>
+      </c>
     </row>
     <row r="196">
       <c r="A196" t="n">
@@ -7970,10 +8858,22 @@
           <t>RD</t>
         </is>
       </c>
-      <c r="H196" t="inlineStr"/>
-      <c r="I196" t="inlineStr"/>
-      <c r="J196" t="inlineStr"/>
-      <c r="K196" t="inlineStr"/>
+      <c r="H196" t="n">
+        <v>106498.4062648532</v>
+      </c>
+      <c r="I196" t="n">
+        <v>95.39125148991924</v>
+      </c>
+      <c r="J196" t="inlineStr">
+        <is>
+          <t>[979.634565177632, 522.2414074708696, 851.7939088612248, 554.3895958206259, 786.4971279246996]</t>
+        </is>
+      </c>
+      <c r="K196" t="inlineStr">
+        <is>
+          <t>[424.3435793361869, 322.865993402155, 783.5920351574205, 547.0355787661944, 673.0585872956763]</t>
+        </is>
+      </c>
     </row>
     <row r="197">
       <c r="A197" t="n">
@@ -8001,10 +8901,22 @@
           <t>GA</t>
         </is>
       </c>
-      <c r="H197" t="inlineStr"/>
-      <c r="I197" t="inlineStr"/>
-      <c r="J197" t="inlineStr"/>
-      <c r="K197" t="inlineStr"/>
+      <c r="H197" t="n">
+        <v>127929.5907290225</v>
+      </c>
+      <c r="I197" t="n">
+        <v>97.35547440700863</v>
+      </c>
+      <c r="J197" t="inlineStr">
+        <is>
+          <t>[457.99, 117.07, 152.13, 778.36, 981.51, 861.03, 277.61, 42.68, 353.8, 133.02]</t>
+        </is>
+      </c>
+      <c r="K197" t="inlineStr">
+        <is>
+          <t>[159.35223193587828, 52.55084804932455, 68.11751350150176, 42.19929363590173, 440.5498202186576, 562.9151115322096, 51.03882388016811, 26.796065956290263, 236.24644089048144, 57.876236196329856]</t>
+        </is>
+      </c>
     </row>
     <row r="198">
       <c r="A198" t="n">
@@ -8032,10 +8944,22 @@
           <t>RD</t>
         </is>
       </c>
-      <c r="H198" t="inlineStr"/>
-      <c r="I198" t="inlineStr"/>
-      <c r="J198" t="inlineStr"/>
-      <c r="K198" t="inlineStr"/>
+      <c r="H198" t="n">
+        <v>122539.0739342967</v>
+      </c>
+      <c r="I198" t="n">
+        <v>97.73084217509935</v>
+      </c>
+      <c r="J198" t="inlineStr">
+        <is>
+          <t>[438.37157402257253, 637.6020778506113, 436.0091399464169, 928.0347268283713, 986.3274075394752, 750.3162774892583, 573.6800209341868, 574.1994373652004, 677.8279714077257, 416.82319115729405]</t>
+        </is>
+      </c>
+      <c r="K198" t="inlineStr">
+        <is>
+          <t>[60.33021535466167, 630.6592969112028, 100.53951397385708, 763.0269581432574, 847.2200204038179, 357.8119351233358, 561.7340351436388, 372.7597763824724, 318.81989844903603, 134.53537642402034]</t>
+        </is>
+      </c>
     </row>
     <row r="199">
       <c r="A199" t="n">
@@ -8063,10 +8987,22 @@
           <t>RD</t>
         </is>
       </c>
-      <c r="H199" t="inlineStr"/>
-      <c r="I199" t="inlineStr"/>
-      <c r="J199" t="inlineStr"/>
-      <c r="K199" t="inlineStr"/>
+      <c r="H199" t="n">
+        <v>135982.3663288992</v>
+      </c>
+      <c r="I199" t="n">
+        <v>91.3720324796722</v>
+      </c>
+      <c r="J199" t="inlineStr">
+        <is>
+          <t>[752.2481965142061, 703.0506964296383, 435.9551547361711, 576.5923459990546, 380.50644512588883]</t>
+        </is>
+      </c>
+      <c r="K199" t="inlineStr">
+        <is>
+          <t>[397.6241126671899, 235.61396797955666, 78.98250185240884, 506.423107834479, 274.5779178911442]</t>
+        </is>
+      </c>
     </row>
     <row r="200">
       <c r="A200" t="n">
@@ -8094,10 +9030,22 @@
           <t>GA</t>
         </is>
       </c>
-      <c r="H200" t="inlineStr"/>
-      <c r="I200" t="inlineStr"/>
-      <c r="J200" t="inlineStr"/>
-      <c r="K200" t="inlineStr"/>
+      <c r="H200" t="n">
+        <v>82522.68077474563</v>
+      </c>
+      <c r="I200" t="n">
+        <v>96.83849380739137</v>
+      </c>
+      <c r="J200" t="inlineStr">
+        <is>
+          <t>[922.66, 308.25, 400.61]</t>
+        </is>
+      </c>
+      <c r="K200" t="inlineStr">
+        <is>
+          <t>[313.9042021774021, 132.37386379261, 312.49721720402516]</t>
+        </is>
+      </c>
     </row>
     <row r="201">
       <c r="A201" t="n">
@@ -8125,10 +9073,22 @@
           <t>NM</t>
         </is>
       </c>
-      <c r="H201" t="inlineStr"/>
-      <c r="I201" t="inlineStr"/>
-      <c r="J201" t="inlineStr"/>
-      <c r="K201" t="inlineStr"/>
+      <c r="H201" t="n">
+        <v>166796.8490261748</v>
+      </c>
+      <c r="I201" t="n">
+        <v>86.24549420442395</v>
+      </c>
+      <c r="J201" t="inlineStr">
+        <is>
+          <t>[437.48358423516027, 674.7926468827422, 412.4752316542716]</t>
+        </is>
+      </c>
+      <c r="K201" t="inlineStr">
+        <is>
+          <t>[334.76644796638277, 378.8550013612699, 139.94668318649008]</t>
+        </is>
+      </c>
     </row>
     <row r="202">
       <c r="A202" t="n">
@@ -8156,10 +9116,22 @@
           <t>GA</t>
         </is>
       </c>
-      <c r="H202" t="inlineStr"/>
-      <c r="I202" t="inlineStr"/>
-      <c r="J202" t="inlineStr"/>
-      <c r="K202" t="inlineStr"/>
+      <c r="H202" t="n">
+        <v>126714.0722135414</v>
+      </c>
+      <c r="I202" t="n">
+        <v>96.53880644333833</v>
+      </c>
+      <c r="J202" t="inlineStr">
+        <is>
+          <t>[734.99, 760.67, 12.7, 391.71, 252.48, 964.27, 846.87, 13.29, 106.03, 913.62]</t>
+        </is>
+      </c>
+      <c r="K202" t="inlineStr">
+        <is>
+          <t>[149.0154884449624, 4.660716454419651, 10.728412538029051, 85.31706980702783, 201.03536470098499, 303.7150286941627, 415.4447950837081, 10.11793938884395, 55.55663258484411, 414.2149991764248]</t>
+        </is>
+      </c>
     </row>
     <row r="203">
       <c r="A203" t="n">
@@ -8187,10 +9159,22 @@
           <t>RD</t>
         </is>
       </c>
-      <c r="H203" t="inlineStr"/>
-      <c r="I203" t="inlineStr"/>
-      <c r="J203" t="inlineStr"/>
-      <c r="K203" t="inlineStr"/>
+      <c r="H203" t="n">
+        <v>176224.2869903135</v>
+      </c>
+      <c r="I203" t="n">
+        <v>87.28610840190935</v>
+      </c>
+      <c r="J203" t="inlineStr">
+        <is>
+          <t>[790.5887855437593, 800.9096848377313, 190.44057948509098, 997.5622926349059, 402.85381579147503]</t>
+        </is>
+      </c>
+      <c r="K203" t="inlineStr">
+        <is>
+          <t>[749.1609726891783, 563.4515840806988, 87.6338677012018, 600.2804478393554, 90.92369749869476]</t>
+        </is>
+      </c>
     </row>
     <row r="204">
       <c r="A204" t="n">
@@ -8218,10 +9202,22 @@
           <t>GA</t>
         </is>
       </c>
-      <c r="H204" t="inlineStr"/>
-      <c r="I204" t="inlineStr"/>
-      <c r="J204" t="inlineStr"/>
-      <c r="K204" t="inlineStr"/>
+      <c r="H204" t="n">
+        <v>174231.1634174731</v>
+      </c>
+      <c r="I204" t="n">
+        <v>87.26228471354526</v>
+      </c>
+      <c r="J204" t="inlineStr">
+        <is>
+          <t>[721.67, 714.16, 558.23, 554.66, 475.03]</t>
+        </is>
+      </c>
+      <c r="K204" t="inlineStr">
+        <is>
+          <t>[130.44992050324194, 210.59189317981279, 281.78466034185215, 438.1856119177617, 86.26160684354707]</t>
+        </is>
+      </c>
     </row>
     <row r="205">
       <c r="A205" t="n">
@@ -8249,10 +9245,22 @@
           <t>RD</t>
         </is>
       </c>
-      <c r="H205" t="inlineStr"/>
-      <c r="I205" t="inlineStr"/>
-      <c r="J205" t="inlineStr"/>
-      <c r="K205" t="inlineStr"/>
+      <c r="H205" t="n">
+        <v>132706.0742395704</v>
+      </c>
+      <c r="I205" t="n">
+        <v>92.07139399215592</v>
+      </c>
+      <c r="J205" t="inlineStr">
+        <is>
+          <t>[686.0055506102798, 670.5945541742468, 937.5179033840398, 487.5856518177386, 451.24659766626195]</t>
+        </is>
+      </c>
+      <c r="K205" t="inlineStr">
+        <is>
+          <t>[562.6762147062243, 626.0163077748169, 506.03595582773596, 436.3690554362404, 86.58928200257874]</t>
+        </is>
+      </c>
     </row>
     <row r="206">
       <c r="A206" t="n">
@@ -8280,10 +9288,22 @@
           <t>NM</t>
         </is>
       </c>
-      <c r="H206" t="inlineStr"/>
-      <c r="I206" t="inlineStr"/>
-      <c r="J206" t="inlineStr"/>
-      <c r="K206" t="inlineStr"/>
+      <c r="H206" t="n">
+        <v>90675.28356513054</v>
+      </c>
+      <c r="I206" t="n">
+        <v>99.83715501544043</v>
+      </c>
+      <c r="J206" t="inlineStr">
+        <is>
+          <t>[605.2870576571065, 543.3275400810671, 489.21224996223253, 416.7755163163381, 551.2774496085416, 554.3792003105132, 530.9806840047116, 478.9787981700762, 457.43910502145116, 539.9225669641468]</t>
+        </is>
+      </c>
+      <c r="K206" t="inlineStr">
+        <is>
+          <t>[263.87800410518224, 277.28880977937087, 197.2856585791388, 196.9492693219462, 154.2279127453764, 182.41680153041233, 334.05514388142905, 225.01959729940646, 210.49121128388725, 285.9968498438218]</t>
+        </is>
+      </c>
     </row>
     <row r="207">
       <c r="A207" t="n">
@@ -8311,10 +9331,22 @@
           <t>RD</t>
         </is>
       </c>
-      <c r="H207" t="inlineStr"/>
-      <c r="I207" t="inlineStr"/>
-      <c r="J207" t="inlineStr"/>
-      <c r="K207" t="inlineStr"/>
+      <c r="H207" t="n">
+        <v>120367.7938116271</v>
+      </c>
+      <c r="I207" t="n">
+        <v>98.1210546086772</v>
+      </c>
+      <c r="J207" t="inlineStr">
+        <is>
+          <t>[956.2100771341417, 625.1265578829399, 749.3988509077586, 598.5059372905857, 385.27141257245347, 922.6652244296337, 320.71490803782945, 469.32867453840623, 513.9754658760144, 282.03381006687636]</t>
+        </is>
+      </c>
+      <c r="K207" t="inlineStr">
+        <is>
+          <t>[541.3470163211814, 561.2114258049781, 589.3001781130141, 3.880675566430031, 258.59586136019914, 581.6770011852811, 232.75784698382736, 329.4956563640027, 154.68762640218904, 158.86345647443102]</t>
+        </is>
+      </c>
     </row>
     <row r="208">
       <c r="A208" t="n">
@@ -8342,10 +9374,22 @@
           <t>RD</t>
         </is>
       </c>
-      <c r="H208" t="inlineStr"/>
-      <c r="I208" t="inlineStr"/>
-      <c r="J208" t="inlineStr"/>
-      <c r="K208" t="inlineStr"/>
+      <c r="H208" t="n">
+        <v>60280.19355920415</v>
+      </c>
+      <c r="I208" t="n">
+        <v>100</v>
+      </c>
+      <c r="J208" t="inlineStr">
+        <is>
+          <t>[812.8188495077818, 346.05743010465505, 974.8042457363554]</t>
+        </is>
+      </c>
+      <c r="K208" t="inlineStr">
+        <is>
+          <t>[695.6592303840271, 267.0440084082607, 923.9878602230986]</t>
+        </is>
+      </c>
     </row>
     <row r="209">
       <c r="A209" t="n">
@@ -8373,10 +9417,22 @@
           <t>ACO</t>
         </is>
       </c>
-      <c r="H209" t="inlineStr"/>
-      <c r="I209" t="inlineStr"/>
-      <c r="J209" t="inlineStr"/>
-      <c r="K209" t="inlineStr"/>
+      <c r="H209" t="n">
+        <v>130031.2417576788</v>
+      </c>
+      <c r="I209" t="n">
+        <v>90.85428466418765</v>
+      </c>
+      <c r="J209" t="inlineStr">
+        <is>
+          <t>[865.0, 575.0, 565.0]</t>
+        </is>
+      </c>
+      <c r="K209" t="inlineStr">
+        <is>
+          <t>[795.0, 530.0, 400.0]</t>
+        </is>
+      </c>
     </row>
     <row r="210">
       <c r="A210" t="n">
@@ -8404,10 +9460,22 @@
           <t>NM</t>
         </is>
       </c>
-      <c r="H210" t="inlineStr"/>
-      <c r="I210" t="inlineStr"/>
-      <c r="J210" t="inlineStr"/>
-      <c r="K210" t="inlineStr"/>
+      <c r="H210" t="n">
+        <v>67031.54276802122</v>
+      </c>
+      <c r="I210" t="n">
+        <v>99.18208229166184</v>
+      </c>
+      <c r="J210" t="inlineStr">
+        <is>
+          <t>[1140.225150947556, 830.6521602344233, 612.3536123262566, 651.9203700809707, 513.0032663598206]</t>
+        </is>
+      </c>
+      <c r="K210" t="inlineStr">
+        <is>
+          <t>[623.4440009092033, 518.0273910736616, 484.34583524760296, 280.74253090441374, 90.11964196291243]</t>
+        </is>
+      </c>
     </row>
     <row r="211">
       <c r="A211" t="n">
@@ -8435,10 +9503,22 @@
           <t>NM</t>
         </is>
       </c>
-      <c r="H211" t="inlineStr"/>
-      <c r="I211" t="inlineStr"/>
-      <c r="J211" t="inlineStr"/>
-      <c r="K211" t="inlineStr"/>
+      <c r="H211" t="n">
+        <v>114878.5056085976</v>
+      </c>
+      <c r="I211" t="n">
+        <v>99.45534575543464</v>
+      </c>
+      <c r="J211" t="inlineStr">
+        <is>
+          <t>[909.014825886579, 431.7249782347559, 709.6191678364947, 751.5331350487851, 588.4317705881176, 584.3961897341192, 1151.473602576705, 579.270558186068, 844.6976861044394, 605.5064060031914]</t>
+        </is>
+      </c>
+      <c r="K211" t="inlineStr">
+        <is>
+          <t>[493.0190397554676, 401.38208914759105, 355.7367438469059, 187.52390531454552, 187.78514218084234, 383.93052412215485, 716.587560660352, 433.4955927338692, 410.4781192426443, 376.3947586369451]</t>
+        </is>
+      </c>
     </row>
     <row r="212">
       <c r="A212" t="n">
@@ -8466,10 +9546,22 @@
           <t>ACO</t>
         </is>
       </c>
-      <c r="H212" t="inlineStr"/>
-      <c r="I212" t="inlineStr"/>
-      <c r="J212" t="inlineStr"/>
-      <c r="K212" t="inlineStr"/>
+      <c r="H212" t="n">
+        <v>121000.2901151282</v>
+      </c>
+      <c r="I212" t="n">
+        <v>97.63942925808213</v>
+      </c>
+      <c r="J212" t="inlineStr">
+        <is>
+          <t>[750.0, 540.0, 945.0, 470.0, 510.0, 570.0, 495.0, 100.0, 145.0, 535.0]</t>
+        </is>
+      </c>
+      <c r="K212" t="inlineStr">
+        <is>
+          <t>[500.0, 150.0, 770.0, 380.0, 310.0, 140.0, 65.0, 90.0, 145.0, 400.0]</t>
+        </is>
+      </c>
     </row>
     <row r="213">
       <c r="A213" t="n">
@@ -8497,10 +9589,22 @@
           <t>RD</t>
         </is>
       </c>
-      <c r="H213" t="inlineStr"/>
-      <c r="I213" t="inlineStr"/>
-      <c r="J213" t="inlineStr"/>
-      <c r="K213" t="inlineStr"/>
+      <c r="H213" t="n">
+        <v>123497.742148355</v>
+      </c>
+      <c r="I213" t="n">
+        <v>99.28677292085091</v>
+      </c>
+      <c r="J213" t="inlineStr">
+        <is>
+          <t>[981.7772142134094, 580.2900759525046, 881.2125577384364, 528.8826289496486, 809.2344247803289, 594.3714620465556, 129.18639608610593, 395.72943174060447, 794.9652070001968, 964.0382537814286]</t>
+        </is>
+      </c>
+      <c r="K213" t="inlineStr">
+        <is>
+          <t>[727.6825595507822, 457.81299493858586, 621.3929747020401, 139.65871853968594, 693.248980542105, 268.9725690139879, 90.2153638872577, 210.05111950521814, 640.1293017073531, 596.6166696933063]</t>
+        </is>
+      </c>
     </row>
     <row r="214">
       <c r="A214" t="n">
@@ -8528,10 +9632,22 @@
           <t>NM</t>
         </is>
       </c>
-      <c r="H214" t="inlineStr"/>
-      <c r="I214" t="inlineStr"/>
-      <c r="J214" t="inlineStr"/>
-      <c r="K214" t="inlineStr"/>
+      <c r="H214" t="n">
+        <v>90409.80205183061</v>
+      </c>
+      <c r="I214" t="n">
+        <v>99.95493556303869</v>
+      </c>
+      <c r="J214" t="inlineStr">
+        <is>
+          <t>[558.8401457367125, 452.1375451530661, 492.6865608248888, 606.2389640875892, 727.2690775747581, 488.76722387238317, 412.9729958575029, 468.38446396447597, 577.6849850538455, 529.0578262997604]</t>
+        </is>
+      </c>
+      <c r="K214" t="inlineStr">
+        <is>
+          <t>[245.27770984291715, 306.2334268476751, 252.55901387149697, 227.26439646216247, 417.98089202166415, 185.95183424983554, 197.4531888649342, 250.0836947119911, 277.3813543860443, 303.2706340102658]</t>
+        </is>
+      </c>
     </row>
     <row r="215">
       <c r="A215" t="n">
@@ -8559,10 +9675,22 @@
           <t>GA</t>
         </is>
       </c>
-      <c r="H215" t="inlineStr"/>
-      <c r="I215" t="inlineStr"/>
-      <c r="J215" t="inlineStr"/>
-      <c r="K215" t="inlineStr"/>
+      <c r="H215" t="n">
+        <v>94505.44225185475</v>
+      </c>
+      <c r="I215" t="n">
+        <v>93.85521984959685</v>
+      </c>
+      <c r="J215" t="inlineStr">
+        <is>
+          <t>[768.12, 104.69, 954.69]</t>
+        </is>
+      </c>
+      <c r="K215" t="inlineStr">
+        <is>
+          <t>[749.4885282512872, 65.2822024861751, 360.14238942393007]</t>
+        </is>
+      </c>
     </row>
     <row r="216">
       <c r="A216" t="n">
@@ -8590,10 +9718,22 @@
           <t>RD</t>
         </is>
       </c>
-      <c r="H216" t="inlineStr"/>
-      <c r="I216" t="inlineStr"/>
-      <c r="J216" t="inlineStr"/>
-      <c r="K216" t="inlineStr"/>
+      <c r="H216" t="n">
+        <v>171492.4612477649</v>
+      </c>
+      <c r="I216" t="n">
+        <v>87.17066973027595</v>
+      </c>
+      <c r="J216" t="inlineStr">
+        <is>
+          <t>[758.7127861925924, 534.6456152474493, 254.56517306680792, 584.3389185634694, 149.5615492477521]</t>
+        </is>
+      </c>
+      <c r="K216" t="inlineStr">
+        <is>
+          <t>[726.0636070453759, 483.3637828874525, 182.51019328656702, 572.5096003607695, 103.70868661381117]</t>
+        </is>
+      </c>
     </row>
     <row r="217">
       <c r="A217" t="n">
@@ -8621,10 +9761,22 @@
           <t>ACO</t>
         </is>
       </c>
-      <c r="H217" t="inlineStr"/>
-      <c r="I217" t="inlineStr"/>
-      <c r="J217" t="inlineStr"/>
-      <c r="K217" t="inlineStr"/>
+      <c r="H217" t="n">
+        <v>65253.7448260159</v>
+      </c>
+      <c r="I217" t="n">
+        <v>99.15685776500665</v>
+      </c>
+      <c r="J217" t="inlineStr">
+        <is>
+          <t>[615.0, 410.0, 985.0]</t>
+        </is>
+      </c>
+      <c r="K217" t="inlineStr">
+        <is>
+          <t>[480.0, 280.0, 890.0]</t>
+        </is>
+      </c>
     </row>
     <row r="218">
       <c r="A218" t="n">
@@ -8652,10 +9804,22 @@
           <t>GA</t>
         </is>
       </c>
-      <c r="H218" t="inlineStr"/>
-      <c r="I218" t="inlineStr"/>
-      <c r="J218" t="inlineStr"/>
-      <c r="K218" t="inlineStr"/>
+      <c r="H218" t="n">
+        <v>110468.8041522872</v>
+      </c>
+      <c r="I218" t="n">
+        <v>98.16367109321966</v>
+      </c>
+      <c r="J218" t="inlineStr">
+        <is>
+          <t>[645.34, 608.69, 407.17, 87.8, 150.91, 985.95, 924.27, 92.85, 514.21, 857.11]</t>
+        </is>
+      </c>
+      <c r="K218" t="inlineStr">
+        <is>
+          <t>[265.25338403418175, 341.49013586236566, 21.951012662260897, 25.736212497050953, 106.72463382847062, 403.86671694596276, 628.6605842529885, 24.100188474777184, 164.3635428424422, 447.89247470336693]</t>
+        </is>
+      </c>
     </row>
     <row r="219">
       <c r="A219" t="n">
@@ -8683,10 +9847,22 @@
           <t>RD</t>
         </is>
       </c>
-      <c r="H219" t="inlineStr"/>
-      <c r="I219" t="inlineStr"/>
-      <c r="J219" t="inlineStr"/>
-      <c r="K219" t="inlineStr"/>
+      <c r="H219" t="n">
+        <v>101993.1049683408</v>
+      </c>
+      <c r="I219" t="n">
+        <v>98.32019807665421</v>
+      </c>
+      <c r="J219" t="inlineStr">
+        <is>
+          <t>[730.1630236366179, 779.214965097233, 205.5740967313726, 85.57432642824492, 264.0054077510975, 220.87920848248655, 210.77294305169193, 944.3356504097338, 274.0059524612335, 338.5869836797573]</t>
+        </is>
+      </c>
+      <c r="K219" t="inlineStr">
+        <is>
+          <t>[727.7933076726653, 362.91383689622796, 56.44933123977667, 58.70298900868688, 79.70540789470508, 158.97631006881392, 123.22035110993221, 22.30980031497709, 128.67228559935035, 176.08684688137305]</t>
+        </is>
+      </c>
     </row>
     <row r="220">
       <c r="A220" t="n">
@@ -8714,10 +9890,22 @@
           <t>GA</t>
         </is>
       </c>
-      <c r="H220" t="inlineStr"/>
-      <c r="I220" t="inlineStr"/>
-      <c r="J220" t="inlineStr"/>
-      <c r="K220" t="inlineStr"/>
+      <c r="H220" t="n">
+        <v>118776.2475004168</v>
+      </c>
+      <c r="I220" t="n">
+        <v>95.33155154916699</v>
+      </c>
+      <c r="J220" t="inlineStr">
+        <is>
+          <t>[562.96, 955.33, 169.18, 807.93, 201.29]</t>
+        </is>
+      </c>
+      <c r="K220" t="inlineStr">
+        <is>
+          <t>[545.6648086631936, 825.7161897041703, 57.757420502949465, 395.5093167894346, 4.000506752750267]</t>
+        </is>
+      </c>
     </row>
     <row r="221">
       <c r="A221" t="n">
@@ -8745,10 +9933,22 @@
           <t>GA</t>
         </is>
       </c>
-      <c r="H221" t="inlineStr"/>
-      <c r="I221" t="inlineStr"/>
-      <c r="J221" t="inlineStr"/>
-      <c r="K221" t="inlineStr"/>
+      <c r="H221" t="n">
+        <v>247465.4696918559</v>
+      </c>
+      <c r="I221" t="n">
+        <v>78.72695944865919</v>
+      </c>
+      <c r="J221" t="inlineStr">
+        <is>
+          <t>[458.74, 820.85, 12.77]</t>
+        </is>
+      </c>
+      <c r="K221" t="inlineStr">
+        <is>
+          <t>[70.54418134049429, 765.9496283299392, 8.885817088795898]</t>
+        </is>
+      </c>
     </row>
     <row r="222">
       <c r="A222" t="n">
@@ -8776,10 +9976,22 @@
           <t>RD</t>
         </is>
       </c>
-      <c r="H222" t="inlineStr"/>
-      <c r="I222" t="inlineStr"/>
-      <c r="J222" t="inlineStr"/>
-      <c r="K222" t="inlineStr"/>
+      <c r="H222" t="n">
+        <v>165377.1769516602</v>
+      </c>
+      <c r="I222" t="n">
+        <v>93.29214980403813</v>
+      </c>
+      <c r="J222" t="inlineStr">
+        <is>
+          <t>[526.6684356664264, 446.11505658058206, 943.8430861849056, 119.89513131337537, 240.4572492031255, 905.9624257130678, 324.90435316732703, 73.88031291321883, 764.6488269484238, 939.9786299161524]</t>
+        </is>
+      </c>
+      <c r="K222" t="inlineStr">
+        <is>
+          <t>[386.9058739720204, 439.69192379604357, 900.4652464700199, 6.156763485296268, 131.6028741565683, 360.35859670985, 170.12510343169112, 50.99096089758156, 61.16741938928761, 400.9886492279171]</t>
+        </is>
+      </c>
     </row>
     <row r="223">
       <c r="A223" t="n">
@@ -8807,10 +10019,22 @@
           <t>ACO</t>
         </is>
       </c>
-      <c r="H223" t="inlineStr"/>
-      <c r="I223" t="inlineStr"/>
-      <c r="J223" t="inlineStr"/>
-      <c r="K223" t="inlineStr"/>
+      <c r="H223" t="n">
+        <v>110282.041856701</v>
+      </c>
+      <c r="I223" t="n">
+        <v>98.93365217283694</v>
+      </c>
+      <c r="J223" t="inlineStr">
+        <is>
+          <t>[545.0, 650.0, 805.0, 960.0, 745.0, 220.0, 225.0, 810.0, 145.0, 460.0]</t>
+        </is>
+      </c>
+      <c r="K223" t="inlineStr">
+        <is>
+          <t>[360.0, 625.0, 725.0, 820.0, 175.0, 65.0, 215.0, 275.0, 75.0, 140.0]</t>
+        </is>
+      </c>
     </row>
     <row r="224">
       <c r="A224" t="n">
@@ -8838,10 +10062,22 @@
           <t>ACO</t>
         </is>
       </c>
-      <c r="H224" t="inlineStr"/>
-      <c r="I224" t="inlineStr"/>
-      <c r="J224" t="inlineStr"/>
-      <c r="K224" t="inlineStr"/>
+      <c r="H224" t="n">
+        <v>63854.37661674502</v>
+      </c>
+      <c r="I224" t="n">
+        <v>98.23897382070959</v>
+      </c>
+      <c r="J224" t="inlineStr">
+        <is>
+          <t>[910.0, 505.0, 920.0]</t>
+        </is>
+      </c>
+      <c r="K224" t="inlineStr">
+        <is>
+          <t>[910.0, 235.0, 580.0]</t>
+        </is>
+      </c>
     </row>
     <row r="225">
       <c r="A225" t="n">
@@ -8869,10 +10105,22 @@
           <t>ACO</t>
         </is>
       </c>
-      <c r="H225" t="inlineStr"/>
-      <c r="I225" t="inlineStr"/>
-      <c r="J225" t="inlineStr"/>
-      <c r="K225" t="inlineStr"/>
+      <c r="H225" t="n">
+        <v>71461.42229062635</v>
+      </c>
+      <c r="I225" t="n">
+        <v>99.63789781409874</v>
+      </c>
+      <c r="J225" t="inlineStr">
+        <is>
+          <t>[930.0, 170.0, 925.0]</t>
+        </is>
+      </c>
+      <c r="K225" t="inlineStr">
+        <is>
+          <t>[820.0, 160.0, 815.0]</t>
+        </is>
+      </c>
     </row>
     <row r="226">
       <c r="A226" t="n">
@@ -8900,10 +10148,22 @@
           <t>GA</t>
         </is>
       </c>
-      <c r="H226" t="inlineStr"/>
-      <c r="I226" t="inlineStr"/>
-      <c r="J226" t="inlineStr"/>
-      <c r="K226" t="inlineStr"/>
+      <c r="H226" t="n">
+        <v>154842.6864327785</v>
+      </c>
+      <c r="I226" t="n">
+        <v>94.75504854257487</v>
+      </c>
+      <c r="J226" t="inlineStr">
+        <is>
+          <t>[191.94, 329.88, 883.24, 698.44, 980.64, 568.89, 369.12, 343.51, 717.02, 0.72]</t>
+        </is>
+      </c>
+      <c r="K226" t="inlineStr">
+        <is>
+          <t>[172.2830131853432, 56.2199808583368, 266.9762063286347, 677.8821602807378, 591.247446043785, 483.87423763107574, 189.73279178005382, 220.40682359593868, 112.21758222993907, 0.30793281184240845]</t>
+        </is>
+      </c>
     </row>
     <row r="227">
       <c r="A227" t="n">
@@ -8931,10 +10191,22 @@
           <t>NM</t>
         </is>
       </c>
-      <c r="H227" t="inlineStr"/>
-      <c r="I227" t="inlineStr"/>
-      <c r="J227" t="inlineStr"/>
-      <c r="K227" t="inlineStr"/>
+      <c r="H227" t="n">
+        <v>92912.18812620203</v>
+      </c>
+      <c r="I227" t="n">
+        <v>99.62455073089308</v>
+      </c>
+      <c r="J227" t="inlineStr">
+        <is>
+          <t>[495.40968564684556, 593.4838002223444, 286.98867103892525, 511.2532837141717, 446.7851807545225, 613.3123407372042, 719.5858560841458, 392.0684477939297, 412.1066539067739, 332.51345348655815]</t>
+        </is>
+      </c>
+      <c r="K227" t="inlineStr">
+        <is>
+          <t>[340.27455268660583, 315.6474641063501, 138.7182680012506, 235.58749026012933, 320.06736253499696, 263.31036657378513, 280.1360818885692, 287.1225030654107, 151.123452214465, 169.1191416367824]</t>
+        </is>
+      </c>
     </row>
     <row r="228">
       <c r="A228" t="n">
@@ -8962,10 +10234,22 @@
           <t>GA</t>
         </is>
       </c>
-      <c r="H228" t="inlineStr"/>
-      <c r="I228" t="inlineStr"/>
-      <c r="J228" t="inlineStr"/>
-      <c r="K228" t="inlineStr"/>
+      <c r="H228" t="n">
+        <v>216986.4168464962</v>
+      </c>
+      <c r="I228" t="n">
+        <v>83.09288702863243</v>
+      </c>
+      <c r="J228" t="inlineStr">
+        <is>
+          <t>[487.63, 405.6, 960.57, 796.01, 385.1]</t>
+        </is>
+      </c>
+      <c r="K228" t="inlineStr">
+        <is>
+          <t>[13.91302981670906, 180.29120200334467, 307.065204689915, 726.5039613397786, 136.77987830919014]</t>
+        </is>
+      </c>
     </row>
     <row r="229">
       <c r="A229" t="n">
@@ -8993,10 +10277,22 @@
           <t>NM</t>
         </is>
       </c>
-      <c r="H229" t="inlineStr"/>
-      <c r="I229" t="inlineStr"/>
-      <c r="J229" t="inlineStr"/>
-      <c r="K229" t="inlineStr"/>
+      <c r="H229" t="n">
+        <v>127959.2323924672</v>
+      </c>
+      <c r="I229" t="n">
+        <v>98.06385582867438</v>
+      </c>
+      <c r="J229" t="inlineStr">
+        <is>
+          <t>[773.4597043970614, 463.89230412276373, 729.6310517177094, 545.525583185251, 365.4061143954039, 393.99695149465134, 573.17619690915, 527.2521737217735, 458.349220349731, 480.1264743745708]</t>
+        </is>
+      </c>
+      <c r="K229" t="inlineStr">
+        <is>
+          <t>[444.3993096547188, 303.10759162260837, 267.76380555982826, 526.7777580726504, 189.91488771599046, 301.5838300845158, 275.28524239959336, 439.1553531219697, 389.7129403494209, 418.58402264640284]</t>
+        </is>
+      </c>
     </row>
     <row r="230">
       <c r="A230" t="n">
@@ -9024,10 +10320,22 @@
           <t>GA</t>
         </is>
       </c>
-      <c r="H230" t="inlineStr"/>
-      <c r="I230" t="inlineStr"/>
-      <c r="J230" t="inlineStr"/>
-      <c r="K230" t="inlineStr"/>
+      <c r="H230" t="n">
+        <v>159269.8817060408</v>
+      </c>
+      <c r="I230" t="n">
+        <v>86.58958488324889</v>
+      </c>
+      <c r="J230" t="inlineStr">
+        <is>
+          <t>[600.09, 629.58, 771.96]</t>
+        </is>
+      </c>
+      <c r="K230" t="inlineStr">
+        <is>
+          <t>[154.32186094442238, 623.7892233721573, 526.1163985903889]</t>
+        </is>
+      </c>
     </row>
     <row r="231">
       <c r="A231" t="n">
@@ -9055,10 +10363,22 @@
           <t>GA</t>
         </is>
       </c>
-      <c r="H231" t="inlineStr"/>
-      <c r="I231" t="inlineStr"/>
-      <c r="J231" t="inlineStr"/>
-      <c r="K231" t="inlineStr"/>
+      <c r="H231" t="n">
+        <v>90522.89217429723</v>
+      </c>
+      <c r="I231" t="n">
+        <v>95.38929951710232</v>
+      </c>
+      <c r="J231" t="inlineStr">
+        <is>
+          <t>[229.03, 153.25, 162.86]</t>
+        </is>
+      </c>
+      <c r="K231" t="inlineStr">
+        <is>
+          <t>[1.8870920446584556, 30.905494665279726, 124.70905768913411]</t>
+        </is>
+      </c>
     </row>
     <row r="232">
       <c r="A232" t="n">
@@ -9086,10 +10406,22 @@
           <t>ACO</t>
         </is>
       </c>
-      <c r="H232" t="inlineStr"/>
-      <c r="I232" t="inlineStr"/>
-      <c r="J232" t="inlineStr"/>
-      <c r="K232" t="inlineStr"/>
+      <c r="H232" t="n">
+        <v>144997.2094364017</v>
+      </c>
+      <c r="I232" t="n">
+        <v>90.25735079856267</v>
+      </c>
+      <c r="J232" t="inlineStr">
+        <is>
+          <t>[600.0, 465.0, 965.0]</t>
+        </is>
+      </c>
+      <c r="K232" t="inlineStr">
+        <is>
+          <t>[450.0, 375.0, 470.0]</t>
+        </is>
+      </c>
     </row>
     <row r="233">
       <c r="A233" t="n">
@@ -9117,10 +10449,22 @@
           <t>GA</t>
         </is>
       </c>
-      <c r="H233" t="inlineStr"/>
-      <c r="I233" t="inlineStr"/>
-      <c r="J233" t="inlineStr"/>
-      <c r="K233" t="inlineStr"/>
+      <c r="H233" t="n">
+        <v>103403.673677913</v>
+      </c>
+      <c r="I233" t="n">
+        <v>99.11751612546031</v>
+      </c>
+      <c r="J233" t="inlineStr">
+        <is>
+          <t>[277.09, 117.04, 213.45, 460.15, 403.26, 89.6, 864.71, 717.39, 517.82, 242.67]</t>
+        </is>
+      </c>
+      <c r="K233" t="inlineStr">
+        <is>
+          <t>[21.821565736785537, 108.96734801473193, 123.57911375700725, 330.3872903600902, 286.7621880537152, 69.92003227620559, 562.5996418025763, 659.2966191506131, 86.13336752763352, 109.09489767165717]</t>
+        </is>
+      </c>
     </row>
     <row r="234">
       <c r="A234" t="n">
@@ -9148,10 +10492,22 @@
           <t>GA</t>
         </is>
       </c>
-      <c r="H234" t="inlineStr"/>
-      <c r="I234" t="inlineStr"/>
-      <c r="J234" t="inlineStr"/>
-      <c r="K234" t="inlineStr"/>
+      <c r="H234" t="n">
+        <v>124837.2741792992</v>
+      </c>
+      <c r="I234" t="n">
+        <v>97.88410112759337</v>
+      </c>
+      <c r="J234" t="inlineStr">
+        <is>
+          <t>[546.46, 965.04, 983.73, 202.73, 709.61, 770.2, 355.42, 337.44, 651.29, 177.99]</t>
+        </is>
+      </c>
+      <c r="K234" t="inlineStr">
+        <is>
+          <t>[366.4478007115763, 784.0983054382218, 474.4795621592702, 20.080798133295232, 609.9171933476035, 21.874713682069064, 201.19589063299205, 203.95151810719506, 89.18688687304252, 62.00199570194627]</t>
+        </is>
+      </c>
     </row>
     <row r="235">
       <c r="A235" t="n">
@@ -9179,10 +10535,22 @@
           <t>RD</t>
         </is>
       </c>
-      <c r="H235" t="inlineStr"/>
-      <c r="I235" t="inlineStr"/>
-      <c r="J235" t="inlineStr"/>
-      <c r="K235" t="inlineStr"/>
+      <c r="H235" t="n">
+        <v>110514.6931007782</v>
+      </c>
+      <c r="I235" t="n">
+        <v>98.26847018266967</v>
+      </c>
+      <c r="J235" t="inlineStr">
+        <is>
+          <t>[422.6070751888925, 320.8083260221126, 514.3418381705042, 475.0161425884023, 182.0916047074127, 630.3512042400956, 363.8412716753213, 680.3406607898846, 638.6071985220254, 860.875713502923]</t>
+        </is>
+      </c>
+      <c r="K235" t="inlineStr">
+        <is>
+          <t>[64.6930047405781, 69.37115611474907, 237.0565464954847, 242.91093707085517, 131.42555914875336, 332.331489093609, 98.13465969119869, 634.1898533494092, 327.4088914520536, 515.9593921115693]</t>
+        </is>
+      </c>
     </row>
     <row r="236">
       <c r="A236" t="n">
@@ -9210,10 +10578,22 @@
           <t>NM</t>
         </is>
       </c>
-      <c r="H236" t="inlineStr"/>
-      <c r="I236" t="inlineStr"/>
-      <c r="J236" t="inlineStr"/>
-      <c r="K236" t="inlineStr"/>
+      <c r="H236" t="n">
+        <v>235618.0843191079</v>
+      </c>
+      <c r="I236" t="n">
+        <v>80.56286695323928</v>
+      </c>
+      <c r="J236" t="inlineStr">
+        <is>
+          <t>[391.86338256157313, 428.7746334002678, 605.7266586542565, 205.16295230898993, 572.9781840887048]</t>
+        </is>
+      </c>
+      <c r="K236" t="inlineStr">
+        <is>
+          <t>[365.4064097755885, 117.5236213226736, 595.1141542876568, 43.56585358908015, 396.81427460203423]</t>
+        </is>
+      </c>
     </row>
     <row r="237">
       <c r="A237" t="n">
@@ -9241,10 +10621,22 @@
           <t>NM</t>
         </is>
       </c>
-      <c r="H237" t="inlineStr"/>
-      <c r="I237" t="inlineStr"/>
-      <c r="J237" t="inlineStr"/>
-      <c r="K237" t="inlineStr"/>
+      <c r="H237" t="n">
+        <v>91063.87214523421</v>
+      </c>
+      <c r="I237" t="n">
+        <v>99.82358145820172</v>
+      </c>
+      <c r="J237" t="inlineStr">
+        <is>
+          <t>[819.3443578294655, 551.380599258378, 557.314451527659, 236.42287026609918, 777.3723830336085, 726.9657751382985, 176.55170234476856, 675.9708957983343, 133.89524267978, 275.7739531181005]</t>
+        </is>
+      </c>
+      <c r="K237" t="inlineStr">
+        <is>
+          <t>[554.6178489283154, 407.28283335882685, 318.66044806699426, 188.6111967402304, 392.6937883614934, 308.6372040576609, 17.109812150597747, 492.2869743217338, 10.65260108437635, 181.17828769153098]</t>
+        </is>
+      </c>
     </row>
     <row r="238">
       <c r="A238" t="n">
@@ -9272,10 +10664,22 @@
           <t>NM</t>
         </is>
       </c>
-      <c r="H238" t="inlineStr"/>
-      <c r="I238" t="inlineStr"/>
-      <c r="J238" t="inlineStr"/>
-      <c r="K238" t="inlineStr"/>
+      <c r="H238" t="n">
+        <v>162983.5492221554</v>
+      </c>
+      <c r="I238" t="n">
+        <v>89.58398247941174</v>
+      </c>
+      <c r="J238" t="inlineStr">
+        <is>
+          <t>[866.8100865645118, 787.3603429516731, 334.5798107364988, 595.4294921926695, 76.08959367437966]</t>
+        </is>
+      </c>
+      <c r="K238" t="inlineStr">
+        <is>
+          <t>[540.8787151565434, 390.16581888608454, 236.9818365377629, 360.6060120456816, 34.892604455544294]</t>
+        </is>
+      </c>
     </row>
     <row r="239">
       <c r="A239" t="n">
@@ -9303,10 +10707,22 @@
           <t>NM</t>
         </is>
       </c>
-      <c r="H239" t="inlineStr"/>
-      <c r="I239" t="inlineStr"/>
-      <c r="J239" t="inlineStr"/>
-      <c r="K239" t="inlineStr"/>
+      <c r="H239" t="n">
+        <v>162765.3949792639</v>
+      </c>
+      <c r="I239" t="n">
+        <v>90.36590154024816</v>
+      </c>
+      <c r="J239" t="inlineStr">
+        <is>
+          <t>[714.1001359667591, 510.3696064517285, 351.79489094020556, 509.05636091011115, 572.5856072322056, 47.21479397174724, 446.56733349860383, 267.00892667621747, 368.31205086053166, 284.31925360167867]</t>
+        </is>
+      </c>
+      <c r="K239" t="inlineStr">
+        <is>
+          <t>[501.08163433018234, 198.07510474067755, 294.12586079376626, 336.93951073879174, 55.59188632149211, 12.892272890569833, 207.18340836953868, 156.67731450785706, 245.42165866791203, 101.10576162105805]</t>
+        </is>
+      </c>
     </row>
     <row r="240">
       <c r="A240" t="n">
@@ -9334,10 +10750,22 @@
           <t>NM</t>
         </is>
       </c>
-      <c r="H240" t="inlineStr"/>
-      <c r="I240" t="inlineStr"/>
-      <c r="J240" t="inlineStr"/>
-      <c r="K240" t="inlineStr"/>
+      <c r="H240" t="n">
+        <v>79705.19823707092</v>
+      </c>
+      <c r="I240" t="n">
+        <v>98.50255880320677</v>
+      </c>
+      <c r="J240" t="inlineStr">
+        <is>
+          <t>[1393.122864178771, 723.9064330302881, 353.6256855487414, 406.2467270014325, 921.4678830753469]</t>
+        </is>
+      </c>
+      <c r="K240" t="inlineStr">
+        <is>
+          <t>[923.4501742443491, 125.29075350383062, 302.87979487550575, 144.47559803258753, 316.24231898397994]</t>
+        </is>
+      </c>
     </row>
     <row r="241">
       <c r="A241" t="n">
@@ -9365,10 +10793,22 @@
           <t>GA</t>
         </is>
       </c>
-      <c r="H241" t="inlineStr"/>
-      <c r="I241" t="inlineStr"/>
-      <c r="J241" t="inlineStr"/>
-      <c r="K241" t="inlineStr"/>
+      <c r="H241" t="n">
+        <v>73991.07160198897</v>
+      </c>
+      <c r="I241" t="n">
+        <v>97.15779382855352</v>
+      </c>
+      <c r="J241" t="inlineStr">
+        <is>
+          <t>[773.89, 305.18, 879.91]</t>
+        </is>
+      </c>
+      <c r="K241" t="inlineStr">
+        <is>
+          <t>[764.4640310450221, 25.956325275389606, 38.611768390213946]</t>
+        </is>
+      </c>
     </row>
     <row r="242">
       <c r="A242" t="n">
@@ -9396,10 +10836,22 @@
           <t>GA</t>
         </is>
       </c>
-      <c r="H242" t="inlineStr"/>
-      <c r="I242" t="inlineStr"/>
-      <c r="J242" t="inlineStr"/>
-      <c r="K242" t="inlineStr"/>
+      <c r="H242" t="n">
+        <v>147925.6336698337</v>
+      </c>
+      <c r="I242" t="n">
+        <v>95.55484705575809</v>
+      </c>
+      <c r="J242" t="inlineStr">
+        <is>
+          <t>[641.08, 293.88, 330.95, 502.36, 503.96, 740.67, 803.7, 987.37, 872.54, 379.54]</t>
+        </is>
+      </c>
+      <c r="K242" t="inlineStr">
+        <is>
+          <t>[22.20279538526812, 190.94496068117982, 140.72344221387803, 460.68414838177796, 211.78769057496987, 564.3171362587148, 618.5393383256381, 355.9197762505254, 302.4868607963946, 282.9809217952291]</t>
+        </is>
+      </c>
     </row>
     <row r="243">
       <c r="A243" t="n">
@@ -9427,10 +10879,22 @@
           <t>ACO</t>
         </is>
       </c>
-      <c r="H243" t="inlineStr"/>
-      <c r="I243" t="inlineStr"/>
-      <c r="J243" t="inlineStr"/>
-      <c r="K243" t="inlineStr"/>
+      <c r="H243" t="n">
+        <v>115149.4424206836</v>
+      </c>
+      <c r="I243" t="n">
+        <v>92.70913499852833</v>
+      </c>
+      <c r="J243" t="inlineStr">
+        <is>
+          <t>[535.0, 545.0, 885.0]</t>
+        </is>
+      </c>
+      <c r="K243" t="inlineStr">
+        <is>
+          <t>[220.0, 295.0, 840.0]</t>
+        </is>
+      </c>
     </row>
     <row r="244">
       <c r="A244" t="n">
@@ -9458,10 +10922,22 @@
           <t>RD</t>
         </is>
       </c>
-      <c r="H244" t="inlineStr"/>
-      <c r="I244" t="inlineStr"/>
-      <c r="J244" t="inlineStr"/>
-      <c r="K244" t="inlineStr"/>
+      <c r="H244" t="n">
+        <v>161193.6206255101</v>
+      </c>
+      <c r="I244" t="n">
+        <v>88.57634082499771</v>
+      </c>
+      <c r="J244" t="inlineStr">
+        <is>
+          <t>[619.8742568191803, 449.7713810765178, 996.269137889415]</t>
+        </is>
+      </c>
+      <c r="K244" t="inlineStr">
+        <is>
+          <t>[534.4830588589565, 334.9177144109039, 963.0100882407977]</t>
+        </is>
+      </c>
     </row>
     <row r="245">
       <c r="A245" t="n">
@@ -9489,10 +10965,22 @@
           <t>GA</t>
         </is>
       </c>
-      <c r="H245" t="inlineStr"/>
-      <c r="I245" t="inlineStr"/>
-      <c r="J245" t="inlineStr"/>
-      <c r="K245" t="inlineStr"/>
+      <c r="H245" t="n">
+        <v>102248.4692611587</v>
+      </c>
+      <c r="I245" t="n">
+        <v>96.13272575922008</v>
+      </c>
+      <c r="J245" t="inlineStr">
+        <is>
+          <t>[149.56, 836.0, 930.69, 727.49, 443.72]</t>
+        </is>
+      </c>
+      <c r="K245" t="inlineStr">
+        <is>
+          <t>[122.19373679137604, 742.5395212807367, 190.80195571015705, 684.3515599435457, 124.02931563267927]</t>
+        </is>
+      </c>
     </row>
     <row r="246">
       <c r="A246" t="n">
@@ -9520,10 +11008,22 @@
           <t>NM</t>
         </is>
       </c>
-      <c r="H246" t="inlineStr"/>
-      <c r="I246" t="inlineStr"/>
-      <c r="J246" t="inlineStr"/>
-      <c r="K246" t="inlineStr"/>
+      <c r="H246" t="n">
+        <v>55430.31445262156</v>
+      </c>
+      <c r="I246" t="n">
+        <v>99.92453330950917</v>
+      </c>
+      <c r="J246" t="inlineStr">
+        <is>
+          <t>[815.0185950303356, 984.2920728313146, 590.4991851799123]</t>
+        </is>
+      </c>
+      <c r="K246" t="inlineStr">
+        <is>
+          <t>[806.730107982726, 713.6192817593237, 245.99068362993995]</t>
+        </is>
+      </c>
     </row>
     <row r="247">
       <c r="A247" t="n">
@@ -9551,10 +11051,22 @@
           <t>GA</t>
         </is>
       </c>
-      <c r="H247" t="inlineStr"/>
-      <c r="I247" t="inlineStr"/>
-      <c r="J247" t="inlineStr"/>
-      <c r="K247" t="inlineStr"/>
+      <c r="H247" t="n">
+        <v>84724.76938176982</v>
+      </c>
+      <c r="I247" t="n">
+        <v>95.52384022139265</v>
+      </c>
+      <c r="J247" t="inlineStr">
+        <is>
+          <t>[712.76, 422.61, 38.27]</t>
+        </is>
+      </c>
+      <c r="K247" t="inlineStr">
+        <is>
+          <t>[49.9803679593096, 351.0821864432517, 27.537948594934814]</t>
+        </is>
+      </c>
     </row>
     <row r="248">
       <c r="A248" t="n">
@@ -9582,10 +11094,22 @@
           <t>ACO</t>
         </is>
       </c>
-      <c r="H248" t="inlineStr"/>
-      <c r="I248" t="inlineStr"/>
-      <c r="J248" t="inlineStr"/>
-      <c r="K248" t="inlineStr"/>
+      <c r="H248" t="n">
+        <v>114618.1204930095</v>
+      </c>
+      <c r="I248" t="n">
+        <v>99.49022423888719</v>
+      </c>
+      <c r="J248" t="inlineStr">
+        <is>
+          <t>[955.0, 880.0, 345.0, 735.0, 830.0, 335.0, 350.0, 505.0, 120.0, 675.0]</t>
+        </is>
+      </c>
+      <c r="K248" t="inlineStr">
+        <is>
+          <t>[775.0, 565.0, 175.0, 400.0, 735.0, 25.0, 255.0, 270.0, 75.0, 15.0]</t>
+        </is>
+      </c>
     </row>
     <row r="249">
       <c r="A249" t="n">
@@ -9613,10 +11137,22 @@
           <t>RD</t>
         </is>
       </c>
-      <c r="H249" t="inlineStr"/>
-      <c r="I249" t="inlineStr"/>
-      <c r="J249" t="inlineStr"/>
-      <c r="K249" t="inlineStr"/>
+      <c r="H249" t="n">
+        <v>97323.78647073259</v>
+      </c>
+      <c r="I249" t="n">
+        <v>97.11466207809842</v>
+      </c>
+      <c r="J249" t="inlineStr">
+        <is>
+          <t>[961.8122287755953, 980.52668569665, 560.657624032465, 501.5528188251687, 712.0405833482013]</t>
+        </is>
+      </c>
+      <c r="K249" t="inlineStr">
+        <is>
+          <t>[808.0804302967645, 681.8739748777175, 388.55369240440064, 178.85294854086408, 394.5819625610593]</t>
+        </is>
+      </c>
     </row>
     <row r="250">
       <c r="A250" t="n">
@@ -9644,10 +11180,22 @@
           <t>ACO</t>
         </is>
       </c>
-      <c r="H250" t="inlineStr"/>
-      <c r="I250" t="inlineStr"/>
-      <c r="J250" t="inlineStr"/>
-      <c r="K250" t="inlineStr"/>
+      <c r="H250" t="n">
+        <v>111584.3471592944</v>
+      </c>
+      <c r="I250" t="n">
+        <v>95.09301087311643</v>
+      </c>
+      <c r="J250" t="inlineStr">
+        <is>
+          <t>[280.0, 895.0, 905.0, 765.0, 720.0]</t>
+        </is>
+      </c>
+      <c r="K250" t="inlineStr">
+        <is>
+          <t>[220.0, 710.0, 515.0, 620.0, 570.0]</t>
+        </is>
+      </c>
     </row>
     <row r="251">
       <c r="A251" t="n">
@@ -9675,10 +11223,22 @@
           <t>ACO</t>
         </is>
       </c>
-      <c r="H251" t="inlineStr"/>
-      <c r="I251" t="inlineStr"/>
-      <c r="J251" t="inlineStr"/>
-      <c r="K251" t="inlineStr"/>
+      <c r="H251" t="n">
+        <v>108245.9351506893</v>
+      </c>
+      <c r="I251" t="n">
+        <v>94.53627120791629</v>
+      </c>
+      <c r="J251" t="inlineStr">
+        <is>
+          <t>[990.0, 620.0, 405.0, 630.0, 930.0]</t>
+        </is>
+      </c>
+      <c r="K251" t="inlineStr">
+        <is>
+          <t>[850.0, 285.0, 275.0, 450.0, 530.0]</t>
+        </is>
+      </c>
     </row>
     <row r="252">
       <c r="A252" t="n">
@@ -9706,10 +11266,22 @@
           <t>NM</t>
         </is>
       </c>
-      <c r="H252" t="inlineStr"/>
-      <c r="I252" t="inlineStr"/>
-      <c r="J252" t="inlineStr"/>
-      <c r="K252" t="inlineStr"/>
+      <c r="H252" t="n">
+        <v>64563.69031517948</v>
+      </c>
+      <c r="I252" t="n">
+        <v>99.67376563455001</v>
+      </c>
+      <c r="J252" t="inlineStr">
+        <is>
+          <t>[840.0546909895779, 486.4432017091241, 601.9838886704674, 689.464391871915, 693.7563574200814]</t>
+        </is>
+      </c>
+      <c r="K252" t="inlineStr">
+        <is>
+          <t>[575.4424370525371, 400.40018429401454, 332.7537166562403, 425.03296227273216, 335.0431606976371]</t>
+        </is>
+      </c>
     </row>
     <row r="253">
       <c r="A253" t="n">
@@ -9737,10 +11309,22 @@
           <t>ACO</t>
         </is>
       </c>
-      <c r="H253" t="inlineStr"/>
-      <c r="I253" t="inlineStr"/>
-      <c r="J253" t="inlineStr"/>
-      <c r="K253" t="inlineStr"/>
+      <c r="H253" t="n">
+        <v>80772.05519873921</v>
+      </c>
+      <c r="I253" t="n">
+        <v>98.47935491306461</v>
+      </c>
+      <c r="J253" t="inlineStr">
+        <is>
+          <t>[915.0, 880.0, 605.0, 315.0, 715.0]</t>
+        </is>
+      </c>
+      <c r="K253" t="inlineStr">
+        <is>
+          <t>[570.0, 345.0, 305.0, 260.0, 675.0]</t>
+        </is>
+      </c>
     </row>
     <row r="254">
       <c r="A254" t="n">
@@ -9768,10 +11352,22 @@
           <t>ACO</t>
         </is>
       </c>
-      <c r="H254" t="inlineStr"/>
-      <c r="I254" t="inlineStr"/>
-      <c r="J254" t="inlineStr"/>
-      <c r="K254" t="inlineStr"/>
+      <c r="H254" t="n">
+        <v>170165.7625114492</v>
+      </c>
+      <c r="I254" t="n">
+        <v>87.91868164271341</v>
+      </c>
+      <c r="J254" t="inlineStr">
+        <is>
+          <t>[570.0, 450.0, 745.0]</t>
+        </is>
+      </c>
+      <c r="K254" t="inlineStr">
+        <is>
+          <t>[560.0, 430.0, 720.0]</t>
+        </is>
+      </c>
     </row>
     <row r="255">
       <c r="A255" t="n">
@@ -9799,10 +11395,22 @@
           <t>ACO</t>
         </is>
       </c>
-      <c r="H255" t="inlineStr"/>
-      <c r="I255" t="inlineStr"/>
-      <c r="J255" t="inlineStr"/>
-      <c r="K255" t="inlineStr"/>
+      <c r="H255" t="n">
+        <v>239632.2878719744</v>
+      </c>
+      <c r="I255" t="n">
+        <v>80.26382537435653</v>
+      </c>
+      <c r="J255" t="inlineStr">
+        <is>
+          <t>[890.0, 970.0, 545.0]</t>
+        </is>
+      </c>
+      <c r="K255" t="inlineStr">
+        <is>
+          <t>[810.0, 630.0, 530.0]</t>
+        </is>
+      </c>
     </row>
     <row r="256">
       <c r="A256" t="n">
@@ -9830,10 +11438,22 @@
           <t>GA</t>
         </is>
       </c>
-      <c r="H256" t="inlineStr"/>
-      <c r="I256" t="inlineStr"/>
-      <c r="J256" t="inlineStr"/>
-      <c r="K256" t="inlineStr"/>
+      <c r="H256" t="n">
+        <v>137569.9293764712</v>
+      </c>
+      <c r="I256" t="n">
+        <v>92.14247332187698</v>
+      </c>
+      <c r="J256" t="inlineStr">
+        <is>
+          <t>[324.96, 500.5, 366.39, 9.89, 854.33]</t>
+        </is>
+      </c>
+      <c r="K256" t="inlineStr">
+        <is>
+          <t>[19.353159962926597, 441.73782086358005, 128.78974986549295, 2.743141586889284, 351.9377049821455]</t>
+        </is>
+      </c>
     </row>
     <row r="257">
       <c r="A257" t="n">
@@ -9861,10 +11481,22 @@
           <t>GA</t>
         </is>
       </c>
-      <c r="H257" t="inlineStr"/>
-      <c r="I257" t="inlineStr"/>
-      <c r="J257" t="inlineStr"/>
-      <c r="K257" t="inlineStr"/>
+      <c r="H257" t="n">
+        <v>231219.1833586391</v>
+      </c>
+      <c r="I257" t="n">
+        <v>79.84074341827504</v>
+      </c>
+      <c r="J257" t="inlineStr">
+        <is>
+          <t>[982.6, 225.8, 764.68]</t>
+        </is>
+      </c>
+      <c r="K257" t="inlineStr">
+        <is>
+          <t>[803.2372782422899, 93.87283271803375, 234.65885744097076]</t>
+        </is>
+      </c>
     </row>
     <row r="258">
       <c r="A258" t="n">
@@ -9892,10 +11524,22 @@
           <t>ACO</t>
         </is>
       </c>
-      <c r="H258" t="inlineStr"/>
-      <c r="I258" t="inlineStr"/>
-      <c r="J258" t="inlineStr"/>
-      <c r="K258" t="inlineStr"/>
+      <c r="H258" t="n">
+        <v>147991.5630437087</v>
+      </c>
+      <c r="I258" t="n">
+        <v>89.05832924970599</v>
+      </c>
+      <c r="J258" t="inlineStr">
+        <is>
+          <t>[780.0, 515.0, 940.0]</t>
+        </is>
+      </c>
+      <c r="K258" t="inlineStr">
+        <is>
+          <t>[590.0, 330.0, 875.0]</t>
+        </is>
+      </c>
     </row>
     <row r="259">
       <c r="A259" t="n">
@@ -9923,10 +11567,22 @@
           <t>GA</t>
         </is>
       </c>
-      <c r="H259" t="inlineStr"/>
-      <c r="I259" t="inlineStr"/>
-      <c r="J259" t="inlineStr"/>
-      <c r="K259" t="inlineStr"/>
+      <c r="H259" t="n">
+        <v>244637.0130251547</v>
+      </c>
+      <c r="I259" t="n">
+        <v>78.39728301586275</v>
+      </c>
+      <c r="J259" t="inlineStr">
+        <is>
+          <t>[478.02, 80.4, 414.27]</t>
+        </is>
+      </c>
+      <c r="K259" t="inlineStr">
+        <is>
+          <t>[387.0163927113766, 40.485468204032465, 303.282898894864]</t>
+        </is>
+      </c>
     </row>
     <row r="260">
       <c r="A260" t="n">
@@ -9954,10 +11610,22 @@
           <t>RD</t>
         </is>
       </c>
-      <c r="H260" t="inlineStr"/>
-      <c r="I260" t="inlineStr"/>
-      <c r="J260" t="inlineStr"/>
-      <c r="K260" t="inlineStr"/>
+      <c r="H260" t="n">
+        <v>149784.5807760722</v>
+      </c>
+      <c r="I260" t="n">
+        <v>91.58610680028914</v>
+      </c>
+      <c r="J260" t="inlineStr">
+        <is>
+          <t>[945.1352475979788, 784.8655072078246, 559.4662453496362, 122.92362621510034, 895.3722720337483]</t>
+        </is>
+      </c>
+      <c r="K260" t="inlineStr">
+        <is>
+          <t>[810.6203748213178, 702.6640531131864, 556.6476328789864, 21.22848389419517, 223.47821757559512]</t>
+        </is>
+      </c>
     </row>
     <row r="261">
       <c r="A261" t="n">
@@ -9985,10 +11653,22 @@
           <t>ACO</t>
         </is>
       </c>
-      <c r="H261" t="inlineStr"/>
-      <c r="I261" t="inlineStr"/>
-      <c r="J261" t="inlineStr"/>
-      <c r="K261" t="inlineStr"/>
+      <c r="H261" t="n">
+        <v>131191.2570870197</v>
+      </c>
+      <c r="I261" t="n">
+        <v>97.66474202325954</v>
+      </c>
+      <c r="J261" t="inlineStr">
+        <is>
+          <t>[960.0, 815.0, 210.0, 155.0, 600.0, 170.0, 75.0, 460.0, 265.0, 975.0]</t>
+        </is>
+      </c>
+      <c r="K261" t="inlineStr">
+        <is>
+          <t>[745.0, 630.0, 175.0, 100.0, 185.0, 95.0, 35.0, 360.0, 200.0, 305.0]</t>
+        </is>
+      </c>
     </row>
     <row r="262">
       <c r="A262" t="n">
@@ -10016,10 +11696,22 @@
           <t>RD</t>
         </is>
       </c>
-      <c r="H262" t="inlineStr"/>
-      <c r="I262" t="inlineStr"/>
-      <c r="J262" t="inlineStr"/>
-      <c r="K262" t="inlineStr"/>
+      <c r="H262" t="n">
+        <v>203259.6141623874</v>
+      </c>
+      <c r="I262" t="n">
+        <v>83.50312761512771</v>
+      </c>
+      <c r="J262" t="inlineStr">
+        <is>
+          <t>[962.3193827787644, 919.796585496836, 666.9139866220557]</t>
+        </is>
+      </c>
+      <c r="K262" t="inlineStr">
+        <is>
+          <t>[823.5514348438118, 819.4714502783279, 272.7245396668168]</t>
+        </is>
+      </c>
     </row>
     <row r="263">
       <c r="A263" t="n">
@@ -10047,10 +11739,22 @@
           <t>RD</t>
         </is>
       </c>
-      <c r="H263" t="inlineStr"/>
-      <c r="I263" t="inlineStr"/>
-      <c r="J263" t="inlineStr"/>
-      <c r="K263" t="inlineStr"/>
+      <c r="H263" t="n">
+        <v>88072.92409269144</v>
+      </c>
+      <c r="I263" t="n">
+        <v>94.83418593125683</v>
+      </c>
+      <c r="J263" t="inlineStr">
+        <is>
+          <t>[927.8938042816001, 649.6774975756426, 339.07125138397066]</t>
+        </is>
+      </c>
+      <c r="K263" t="inlineStr">
+        <is>
+          <t>[724.3221845663536, 363.98669032521866, 204.89122543293033]</t>
+        </is>
+      </c>
     </row>
     <row r="264">
       <c r="A264" t="n">
@@ -10078,10 +11782,22 @@
           <t>ACO</t>
         </is>
       </c>
-      <c r="H264" t="inlineStr"/>
-      <c r="I264" t="inlineStr"/>
-      <c r="J264" t="inlineStr"/>
-      <c r="K264" t="inlineStr"/>
+      <c r="H264" t="n">
+        <v>174145.422292859</v>
+      </c>
+      <c r="I264" t="n">
+        <v>89.22715152710779</v>
+      </c>
+      <c r="J264" t="inlineStr">
+        <is>
+          <t>[880.0, 845.0, 835.0, 650.0, 425.0]</t>
+        </is>
+      </c>
+      <c r="K264" t="inlineStr">
+        <is>
+          <t>[880.0, 840.0, 610.0, 510.0, 400.0]</t>
+        </is>
+      </c>
     </row>
     <row r="265">
       <c r="A265" t="n">
@@ -10109,10 +11825,22 @@
           <t>NM</t>
         </is>
       </c>
-      <c r="H265" t="inlineStr"/>
-      <c r="I265" t="inlineStr"/>
-      <c r="J265" t="inlineStr"/>
-      <c r="K265" t="inlineStr"/>
+      <c r="H265" t="n">
+        <v>111832.1384464034</v>
+      </c>
+      <c r="I265" t="n">
+        <v>99.93066440456802</v>
+      </c>
+      <c r="J265" t="inlineStr">
+        <is>
+          <t>[1169.67614665175, 623.2550515706212, 488.7481428838592, 682.8057680833552, 844.5438495909485, 477.1814763635053, 513.5186287197931, 423.11049532371896, 696.3268712417068, 696.8468337403234]</t>
+        </is>
+      </c>
+      <c r="K265" t="inlineStr">
+        <is>
+          <t>[495.1654862768236, 585.5038008922036, 377.1716195939874, 438.700308952171, 545.3293612658583, 462.6637377869196, 285.15291084344057, 250.12476263085645, 477.94155924643405, 213.40198757550513]</t>
+        </is>
+      </c>
     </row>
     <row r="266">
       <c r="A266" t="n">
@@ -10140,10 +11868,22 @@
           <t>GA</t>
         </is>
       </c>
-      <c r="H266" t="inlineStr"/>
-      <c r="I266" t="inlineStr"/>
-      <c r="J266" t="inlineStr"/>
-      <c r="K266" t="inlineStr"/>
+      <c r="H266" t="n">
+        <v>128828.4498552609</v>
+      </c>
+      <c r="I266" t="n">
+        <v>92.44669207068095</v>
+      </c>
+      <c r="J266" t="inlineStr">
+        <is>
+          <t>[375.63, 933.69, 815.27, 972.51, 48.88]</t>
+        </is>
+      </c>
+      <c r="K266" t="inlineStr">
+        <is>
+          <t>[112.25993324609202, 866.6673254597049, 641.7889132398526, 775.2810884111389, 8.288760791013773]</t>
+        </is>
+      </c>
     </row>
     <row r="267">
       <c r="A267" t="n">
@@ -10171,10 +11911,22 @@
           <t>RD</t>
         </is>
       </c>
-      <c r="H267" t="inlineStr"/>
-      <c r="I267" t="inlineStr"/>
-      <c r="J267" t="inlineStr"/>
-      <c r="K267" t="inlineStr"/>
+      <c r="H267" t="n">
+        <v>127411.4266141228</v>
+      </c>
+      <c r="I267" t="n">
+        <v>99.61692893364801</v>
+      </c>
+      <c r="J267" t="inlineStr">
+        <is>
+          <t>[891.1175720256423, 143.32699463286147, 898.720778778526, 585.547765440629, 825.8905317660467, 243.99049602482427, 534.4640838112476, 842.1548361795833, 112.09587837442025, 500.01266243531217]</t>
+        </is>
+      </c>
+      <c r="K267" t="inlineStr">
+        <is>
+          <t>[781.9639064852679, 119.33996089452708, 724.4453797255836, 544.3550848928713, 689.6143764811244, 44.75096608981319, 159.10344593413444, 407.4048467224586, 7.658457814654763, 423.56785925059813]</t>
+        </is>
+      </c>
     </row>
     <row r="268">
       <c r="A268" t="n">
@@ -10202,10 +11954,22 @@
           <t>NM</t>
         </is>
       </c>
-      <c r="H268" t="inlineStr"/>
-      <c r="I268" t="inlineStr"/>
-      <c r="J268" t="inlineStr"/>
-      <c r="K268" t="inlineStr"/>
+      <c r="H268" t="n">
+        <v>175489.9018726109</v>
+      </c>
+      <c r="I268" t="n">
+        <v>89.21424520579379</v>
+      </c>
+      <c r="J268" t="inlineStr">
+        <is>
+          <t>[564.7712887016812, 503.41384579313495, 579.1296160109426, 1017.9663115944301, 204.1068275055047, 344.09045424909567, 118.24347186561508, 87.06832480607669, 270.4302026304934, 829.8702429965557]</t>
+        </is>
+      </c>
+      <c r="K268" t="inlineStr">
+        <is>
+          <t>[322.3187676440719, 339.19812160329167, 443.87947790025044, 208.0456746118947, 116.81393834232698, 73.72754592051963, 55.473352762023495, 48.04763524432822, 124.05176722122722, 279.64294123857695]</t>
+        </is>
+      </c>
     </row>
     <row r="269">
       <c r="A269" t="n">
@@ -10233,10 +11997,22 @@
           <t>RD</t>
         </is>
       </c>
-      <c r="H269" t="inlineStr"/>
-      <c r="I269" t="inlineStr"/>
-      <c r="J269" t="inlineStr"/>
-      <c r="K269" t="inlineStr"/>
+      <c r="H269" t="n">
+        <v>71404.75928426669</v>
+      </c>
+      <c r="I269" t="n">
+        <v>97.15779939796863</v>
+      </c>
+      <c r="J269" t="inlineStr">
+        <is>
+          <t>[949.9813244053744, 671.4689113773255, 746.8508218004649]</t>
+        </is>
+      </c>
+      <c r="K269" t="inlineStr">
+        <is>
+          <t>[509.42772954039225, 269.9758147029026, 548.7130376314831]</t>
+        </is>
+      </c>
     </row>
     <row r="270">
       <c r="A270" t="n">
@@ -10264,10 +12040,22 @@
           <t>GA</t>
         </is>
       </c>
-      <c r="H270" t="inlineStr"/>
-      <c r="I270" t="inlineStr"/>
-      <c r="J270" t="inlineStr"/>
-      <c r="K270" t="inlineStr"/>
+      <c r="H270" t="n">
+        <v>137859.7959469255</v>
+      </c>
+      <c r="I270" t="n">
+        <v>96.00526415268494</v>
+      </c>
+      <c r="J270" t="inlineStr">
+        <is>
+          <t>[509.64, 602.06, 677.55, 189.92, 918.27, 791.28, 546.35, 15.31, 519.34, 230.23]</t>
+        </is>
+      </c>
+      <c r="K270" t="inlineStr">
+        <is>
+          <t>[327.78598603338844, 192.59507990701744, 189.50681624107622, 142.86449191055948, 645.5220632080343, 595.9153649245684, 422.7359356745842, 8.828711652608348, 310.7836361992125, 33.21071559774238]</t>
+        </is>
+      </c>
     </row>
     <row r="271">
       <c r="A271" t="n">
@@ -10295,10 +12083,22 @@
           <t>NM</t>
         </is>
       </c>
-      <c r="H271" t="inlineStr"/>
-      <c r="I271" t="inlineStr"/>
-      <c r="J271" t="inlineStr"/>
-      <c r="K271" t="inlineStr"/>
+      <c r="H271" t="n">
+        <v>201407.8531508983</v>
+      </c>
+      <c r="I271" t="n">
+        <v>82.96254899515864</v>
+      </c>
+      <c r="J271" t="inlineStr">
+        <is>
+          <t>[556.4217875968673, 153.9375354137695, 270.6233008977463]</t>
+        </is>
+      </c>
+      <c r="K271" t="inlineStr">
+        <is>
+          <t>[291.2795309452514, 55.88291188601098, 80.33018080897587]</t>
+        </is>
+      </c>
     </row>
     <row r="272">
       <c r="A272" t="n">
@@ -10326,10 +12126,22 @@
           <t>ACO</t>
         </is>
       </c>
-      <c r="H272" t="inlineStr"/>
-      <c r="I272" t="inlineStr"/>
-      <c r="J272" t="inlineStr"/>
-      <c r="K272" t="inlineStr"/>
+      <c r="H272" t="n">
+        <v>118486.0151029392</v>
+      </c>
+      <c r="I272" t="n">
+        <v>98.09948100203172</v>
+      </c>
+      <c r="J272" t="inlineStr">
+        <is>
+          <t>[405.0, 655.0, 640.0, 515.0, 985.0, 800.0, 240.0, 375.0, 765.0, 400.0]</t>
+        </is>
+      </c>
+      <c r="K272" t="inlineStr">
+        <is>
+          <t>[260.0, 410.0, 555.0, 245.0, 855.0, 210.0, 215.0, 160.0, 360.0, 380.0]</t>
+        </is>
+      </c>
     </row>
     <row r="273">
       <c r="A273" t="n">
@@ -10357,10 +12169,22 @@
           <t>GA</t>
         </is>
       </c>
-      <c r="H273" t="inlineStr"/>
-      <c r="I273" t="inlineStr"/>
-      <c r="J273" t="inlineStr"/>
-      <c r="K273" t="inlineStr"/>
+      <c r="H273" t="n">
+        <v>77385.73489918186</v>
+      </c>
+      <c r="I273" t="n">
+        <v>97.97735986757104</v>
+      </c>
+      <c r="J273" t="inlineStr">
+        <is>
+          <t>[976.77, 415.19, 447.23, 218.54, 894.07]</t>
+        </is>
+      </c>
+      <c r="K273" t="inlineStr">
+        <is>
+          <t>[680.9878871646284, 223.84323463393886, 221.79480377289275, 22.078841152808803, 748.8631488053246]</t>
+        </is>
+      </c>
     </row>
     <row r="274">
       <c r="A274" t="n">
@@ -10388,10 +12212,22 @@
           <t>ACO</t>
         </is>
       </c>
-      <c r="H274" t="inlineStr"/>
-      <c r="I274" t="inlineStr"/>
-      <c r="J274" t="inlineStr"/>
-      <c r="K274" t="inlineStr"/>
+      <c r="H274" t="n">
+        <v>132208.9398096397</v>
+      </c>
+      <c r="I274" t="n">
+        <v>96.84506362750808</v>
+      </c>
+      <c r="J274" t="inlineStr">
+        <is>
+          <t>[460.0, 290.0, 940.0, 315.0, 145.0, 575.0, 830.0, 140.0, 835.0, 860.0]</t>
+        </is>
+      </c>
+      <c r="K274" t="inlineStr">
+        <is>
+          <t>[390.0, 180.0, 275.0, 195.0, 120.0, 310.0, 695.0, 125.0, 810.0, 320.0]</t>
+        </is>
+      </c>
     </row>
     <row r="275">
       <c r="A275" t="n">
@@ -10419,10 +12255,22 @@
           <t>RD</t>
         </is>
       </c>
-      <c r="H275" t="inlineStr"/>
-      <c r="I275" t="inlineStr"/>
-      <c r="J275" t="inlineStr"/>
-      <c r="K275" t="inlineStr"/>
+      <c r="H275" t="n">
+        <v>133694.8704955087</v>
+      </c>
+      <c r="I275" t="n">
+        <v>90.69335918025328</v>
+      </c>
+      <c r="J275" t="inlineStr">
+        <is>
+          <t>[851.4230003218286, 544.1214202296934, 782.5261959678971]</t>
+        </is>
+      </c>
+      <c r="K275" t="inlineStr">
+        <is>
+          <t>[775.3201282460265, 317.1772014040993, 712.745485592786]</t>
+        </is>
+      </c>
     </row>
     <row r="276">
       <c r="A276" t="n">
@@ -10450,10 +12298,22 @@
           <t>ACO</t>
         </is>
       </c>
-      <c r="H276" t="inlineStr"/>
-      <c r="I276" t="inlineStr"/>
-      <c r="J276" t="inlineStr"/>
-      <c r="K276" t="inlineStr"/>
+      <c r="H276" t="n">
+        <v>101139.2337757992</v>
+      </c>
+      <c r="I276" t="n">
+        <v>98.47402353142297</v>
+      </c>
+      <c r="J276" t="inlineStr">
+        <is>
+          <t>[905.0, 155.0, 390.0, 420.0, 340.0, 195.0, 490.0, 300.0, 705.0, 285.0]</t>
+        </is>
+      </c>
+      <c r="K276" t="inlineStr">
+        <is>
+          <t>[620.0, 70.0, 190.0, 205.0, 155.0, 40.0, 195.0, 135.0, 410.0, 165.0]</t>
+        </is>
+      </c>
     </row>
     <row r="277">
       <c r="A277" t="n">
@@ -10481,10 +12341,22 @@
           <t>ACO</t>
         </is>
       </c>
-      <c r="H277" t="inlineStr"/>
-      <c r="I277" t="inlineStr"/>
-      <c r="J277" t="inlineStr"/>
-      <c r="K277" t="inlineStr"/>
+      <c r="H277" t="n">
+        <v>152852.9559352908</v>
+      </c>
+      <c r="I277" t="n">
+        <v>88.00472001193872</v>
+      </c>
+      <c r="J277" t="inlineStr">
+        <is>
+          <t>[775.0, 870.0, 695.0]</t>
+        </is>
+      </c>
+      <c r="K277" t="inlineStr">
+        <is>
+          <t>[270.0, 550.0, 580.0]</t>
+        </is>
+      </c>
     </row>
     <row r="278">
       <c r="A278" t="n">
@@ -10512,10 +12384,22 @@
           <t>ACO</t>
         </is>
       </c>
-      <c r="H278" t="inlineStr"/>
-      <c r="I278" t="inlineStr"/>
-      <c r="J278" t="inlineStr"/>
-      <c r="K278" t="inlineStr"/>
+      <c r="H278" t="n">
+        <v>62882.56248298073</v>
+      </c>
+      <c r="I278" t="n">
+        <v>99.16241198651851</v>
+      </c>
+      <c r="J278" t="inlineStr">
+        <is>
+          <t>[865.0, 720.0, 625.0]</t>
+        </is>
+      </c>
+      <c r="K278" t="inlineStr">
+        <is>
+          <t>[695.0, 560.0, 560.0]</t>
+        </is>
+      </c>
     </row>
     <row r="279">
       <c r="A279" t="n">
@@ -10543,10 +12427,22 @@
           <t>GA</t>
         </is>
       </c>
-      <c r="H279" t="inlineStr"/>
-      <c r="I279" t="inlineStr"/>
-      <c r="J279" t="inlineStr"/>
-      <c r="K279" t="inlineStr"/>
+      <c r="H279" t="n">
+        <v>147144.1580775607</v>
+      </c>
+      <c r="I279" t="n">
+        <v>94.51550018648575</v>
+      </c>
+      <c r="J279" t="inlineStr">
+        <is>
+          <t>[842.32, 651.06, 366.95, 98.84, 8.46, 241.48, 938.55, 743.43, 525.75, 977.66]</t>
+        </is>
+      </c>
+      <c r="K279" t="inlineStr">
+        <is>
+          <t>[609.1311214053719, 355.71882115933875, 340.33647438685097, 28.4211555279113, 5.045282518217189, 171.042606483688, 15.975857999374057, 255.93710423284915, 504.2278439790634, 114.84708790230657]</t>
+        </is>
+      </c>
     </row>
     <row r="280">
       <c r="A280" t="n">
@@ -10574,10 +12470,22 @@
           <t>RD</t>
         </is>
       </c>
-      <c r="H280" t="inlineStr"/>
-      <c r="I280" t="inlineStr"/>
-      <c r="J280" t="inlineStr"/>
-      <c r="K280" t="inlineStr"/>
+      <c r="H280" t="n">
+        <v>108938.8484174661</v>
+      </c>
+      <c r="I280" t="n">
+        <v>98.1391083210307</v>
+      </c>
+      <c r="J280" t="inlineStr">
+        <is>
+          <t>[837.0567896818645, 296.48813520842043, 881.0194301747326, 766.2942452345648, 417.4922871303974, 355.29638412732436, 327.2347962227089, 410.60939447984344, 809.6639885817677, 217.55759986900557]</t>
+        </is>
+      </c>
+      <c r="K280" t="inlineStr">
+        <is>
+          <t>[820.4950617034449, 234.97587021980507, 277.6245536825148, 391.66101120039156, 240.3571374888442, 34.66413049996484, 236.57130018821996, 111.13600152322836, 609.3923675286836, 162.08647757554485]</t>
+        </is>
+      </c>
     </row>
     <row r="281">
       <c r="A281" t="n">
@@ -10605,10 +12513,22 @@
           <t>RD</t>
         </is>
       </c>
-      <c r="H281" t="inlineStr"/>
-      <c r="I281" t="inlineStr"/>
-      <c r="J281" t="inlineStr"/>
-      <c r="K281" t="inlineStr"/>
+      <c r="H281" t="n">
+        <v>69573.0111853608</v>
+      </c>
+      <c r="I281" t="n">
+        <v>99.8712404970457</v>
+      </c>
+      <c r="J281" t="inlineStr">
+        <is>
+          <t>[975.4725815260196, 618.5738457288369, 719.0880060124607]</t>
+        </is>
+      </c>
+      <c r="K281" t="inlineStr">
+        <is>
+          <t>[797.5131847398137, 614.9256448971397, 565.9710952663522]</t>
+        </is>
+      </c>
     </row>
     <row r="282">
       <c r="A282" t="n">
@@ -10636,10 +12556,22 @@
           <t>GA</t>
         </is>
       </c>
-      <c r="H282" t="inlineStr"/>
-      <c r="I282" t="inlineStr"/>
-      <c r="J282" t="inlineStr"/>
-      <c r="K282" t="inlineStr"/>
+      <c r="H282" t="n">
+        <v>248957.6004753222</v>
+      </c>
+      <c r="I282" t="n">
+        <v>79.18973501173974</v>
+      </c>
+      <c r="J282" t="inlineStr">
+        <is>
+          <t>[943.51, 43.82, 428.26, 53.57, 322.14]</t>
+        </is>
+      </c>
+      <c r="K282" t="inlineStr">
+        <is>
+          <t>[787.3621548845297, 21.627493333319936, 9.852864530816394, 38.83556009364357, 274.90108652388545]</t>
+        </is>
+      </c>
     </row>
     <row r="283">
       <c r="A283" t="n">
@@ -10667,10 +12599,22 @@
           <t>NM</t>
         </is>
       </c>
-      <c r="H283" t="inlineStr"/>
-      <c r="I283" t="inlineStr"/>
-      <c r="J283" t="inlineStr"/>
-      <c r="K283" t="inlineStr"/>
+      <c r="H283" t="n">
+        <v>154402.6659361348</v>
+      </c>
+      <c r="I283" t="n">
+        <v>89.1085280052778</v>
+      </c>
+      <c r="J283" t="inlineStr">
+        <is>
+          <t>[1052.4901196662659, 67.21576635390608, 357.6085645337742]</t>
+        </is>
+      </c>
+      <c r="K283" t="inlineStr">
+        <is>
+          <t>[899.6795030187681, 50.76161109643234, 51.462300630101915]</t>
+        </is>
+      </c>
     </row>
     <row r="284">
       <c r="A284" t="n">
@@ -10698,10 +12642,22 @@
           <t>NM</t>
         </is>
       </c>
-      <c r="H284" t="inlineStr"/>
-      <c r="I284" t="inlineStr"/>
-      <c r="J284" t="inlineStr"/>
-      <c r="K284" t="inlineStr"/>
+      <c r="H284" t="n">
+        <v>138543.0088495065</v>
+      </c>
+      <c r="I284" t="n">
+        <v>95.23776678371357</v>
+      </c>
+      <c r="J284" t="inlineStr">
+        <is>
+          <t>[712.4538911886694, 755.7809772165668, 636.8337174536616, 323.19405489691945, 659.0453261084773, 286.50635853987245, 432.694399484131, 753.5329161377091, 353.2555995216408, 544.2305220556416]</t>
+        </is>
+      </c>
+      <c r="K284" t="inlineStr">
+        <is>
+          <t>[426.35924946083014, 323.96659480522317, 178.62760836977358, 267.919864220387, 561.0981058510647, 144.483988483544, 208.66739777248688, 222.46990837971038, 93.31693474173377, 215.080715965522]</t>
+        </is>
+      </c>
     </row>
     <row r="285">
       <c r="A285" t="n">
@@ -10729,10 +12685,22 @@
           <t>RD</t>
         </is>
       </c>
-      <c r="H285" t="inlineStr"/>
-      <c r="I285" t="inlineStr"/>
-      <c r="J285" t="inlineStr"/>
-      <c r="K285" t="inlineStr"/>
+      <c r="H285" t="n">
+        <v>125015.3516455662</v>
+      </c>
+      <c r="I285" t="n">
+        <v>97.70443930765337</v>
+      </c>
+      <c r="J285" t="inlineStr">
+        <is>
+          <t>[717.5496846065898, 159.4983393725069, 623.3452827557136, 193.94464802240563, 763.0576291190969, 371.51694943381864, 726.8795986172812, 539.6824969452783, 274.72548185093484, 139.6335783336352]</t>
+        </is>
+      </c>
+      <c r="K285" t="inlineStr">
+        <is>
+          <t>[622.3237216497823, 133.55668218222868, 420.1547520840229, 123.65275931903622, 567.1601834555903, 158.66982077555852, 564.766255602928, 282.3429978624338, 118.67491211251897, 94.39111322994873]</t>
+        </is>
+      </c>
     </row>
     <row r="286">
       <c r="A286" t="n">
@@ -10760,10 +12728,22 @@
           <t>NM</t>
         </is>
       </c>
-      <c r="H286" t="inlineStr"/>
-      <c r="I286" t="inlineStr"/>
-      <c r="J286" t="inlineStr"/>
-      <c r="K286" t="inlineStr"/>
+      <c r="H286" t="n">
+        <v>213715.03736801</v>
+      </c>
+      <c r="I286" t="n">
+        <v>84.15991269764382</v>
+      </c>
+      <c r="J286" t="inlineStr">
+        <is>
+          <t>[341.52510629114795, 242.67494476509717, 188.19247296683744, 774.9983591489549, 415.6441264909602]</t>
+        </is>
+      </c>
+      <c r="K286" t="inlineStr">
+        <is>
+          <t>[263.2780405280595, 242.67494307025575, 9.622077758703885, 460.3786073225227, 124.35616514316526]</t>
+        </is>
+      </c>
     </row>
     <row r="287">
       <c r="A287" t="n">
@@ -10791,10 +12771,22 @@
           <t>NM</t>
         </is>
       </c>
-      <c r="H287" t="inlineStr"/>
-      <c r="I287" t="inlineStr"/>
-      <c r="J287" t="inlineStr"/>
-      <c r="K287" t="inlineStr"/>
+      <c r="H287" t="n">
+        <v>194882.7407534087</v>
+      </c>
+      <c r="I287" t="n">
+        <v>85.22380370869685</v>
+      </c>
+      <c r="J287" t="inlineStr">
+        <is>
+          <t>[835.5946100550523, 591.0706937738735, 658.8629444559577, 804.291514958203, 408.0451576188164]</t>
+        </is>
+      </c>
+      <c r="K287" t="inlineStr">
+        <is>
+          <t>[549.7183903733169, 230.36947220133203, 524.7766008223648, 210.00921434764706, 80.64546281202692]</t>
+        </is>
+      </c>
     </row>
     <row r="288">
       <c r="A288" t="n">
@@ -10822,10 +12814,22 @@
           <t>GA</t>
         </is>
       </c>
-      <c r="H288" t="inlineStr"/>
-      <c r="I288" t="inlineStr"/>
-      <c r="J288" t="inlineStr"/>
-      <c r="K288" t="inlineStr"/>
+      <c r="H288" t="n">
+        <v>180254.279838979</v>
+      </c>
+      <c r="I288" t="n">
+        <v>87.751645662928</v>
+      </c>
+      <c r="J288" t="inlineStr">
+        <is>
+          <t>[322.17, 724.48, 852.93, 666.84, 679.26]</t>
+        </is>
+      </c>
+      <c r="K288" t="inlineStr">
+        <is>
+          <t>[244.48796848182747, 95.04711229349628, 228.02907965516133, 432.04030143470084, 53.272884803435616]</t>
+        </is>
+      </c>
     </row>
     <row r="289">
       <c r="A289" t="n">
@@ -10853,10 +12857,22 @@
           <t>NM</t>
         </is>
       </c>
-      <c r="H289" t="inlineStr"/>
-      <c r="I289" t="inlineStr"/>
-      <c r="J289" t="inlineStr"/>
-      <c r="K289" t="inlineStr"/>
+      <c r="H289" t="n">
+        <v>126420.139684067</v>
+      </c>
+      <c r="I289" t="n">
+        <v>93.64040873221761</v>
+      </c>
+      <c r="J289" t="inlineStr">
+        <is>
+          <t>[810.5710197157072, 655.9783668773819, 748.3980933602807, 994.5360258293589, 126.41851273596691]</t>
+        </is>
+      </c>
+      <c r="K289" t="inlineStr">
+        <is>
+          <t>[429.9422649834018, 383.934613314742, 485.33417316639583, 283.4958776915836, 126.29203447499256]</t>
+        </is>
+      </c>
     </row>
     <row r="290">
       <c r="A290" t="n">
@@ -10884,10 +12900,22 @@
           <t>ACO</t>
         </is>
       </c>
-      <c r="H290" t="inlineStr"/>
-      <c r="I290" t="inlineStr"/>
-      <c r="J290" t="inlineStr"/>
-      <c r="K290" t="inlineStr"/>
+      <c r="H290" t="n">
+        <v>213088.4948270037</v>
+      </c>
+      <c r="I290" t="n">
+        <v>82.76302959211671</v>
+      </c>
+      <c r="J290" t="inlineStr">
+        <is>
+          <t>[940.0, 960.0, 500.0]</t>
+        </is>
+      </c>
+      <c r="K290" t="inlineStr">
+        <is>
+          <t>[750.0, 845.0, 465.0]</t>
+        </is>
+      </c>
     </row>
     <row r="291">
       <c r="A291" t="n">
@@ -10915,10 +12943,22 @@
           <t>NM</t>
         </is>
       </c>
-      <c r="H291" t="inlineStr"/>
-      <c r="I291" t="inlineStr"/>
-      <c r="J291" t="inlineStr"/>
-      <c r="K291" t="inlineStr"/>
+      <c r="H291" t="n">
+        <v>108371.2406284238</v>
+      </c>
+      <c r="I291" t="n">
+        <v>99.27792687095426</v>
+      </c>
+      <c r="J291" t="inlineStr">
+        <is>
+          <t>[1005.0188951259992, 525.6734435894501, 442.55018428518906, 638.2056556787929, 781.4973014022795, 661.7206739783487, 484.03509944965816, 796.2047656280248, 673.8272919107134, 891.6551117139819]</t>
+        </is>
+      </c>
+      <c r="K291" t="inlineStr">
+        <is>
+          <t>[810.2859641267119, 294.5183944122279, 287.34178421556646, 234.49937672614095, 544.8744759508421, 503.66912846076957, 369.7567783315036, 90.58781495838225, 563.0497213398479, 389.8049634308455]</t>
+        </is>
+      </c>
     </row>
     <row r="292">
       <c r="A292" t="n">
@@ -10946,10 +12986,22 @@
           <t>ACO</t>
         </is>
       </c>
-      <c r="H292" t="inlineStr"/>
-      <c r="I292" t="inlineStr"/>
-      <c r="J292" t="inlineStr"/>
-      <c r="K292" t="inlineStr"/>
+      <c r="H292" t="n">
+        <v>136862.0447639791</v>
+      </c>
+      <c r="I292" t="n">
+        <v>96.39300117280342</v>
+      </c>
+      <c r="J292" t="inlineStr">
+        <is>
+          <t>[510.0, 725.0, 330.0, 375.0, 755.0, 545.0, 980.0, 885.0, 860.0, 915.0]</t>
+        </is>
+      </c>
+      <c r="K292" t="inlineStr">
+        <is>
+          <t>[20.0, 300.0, 210.0, 250.0, 340.0, 65.0, 790.0, 510.0, 750.0, 410.0]</t>
+        </is>
+      </c>
     </row>
     <row r="293">
       <c r="A293" t="n">
@@ -10977,10 +13029,22 @@
           <t>NM</t>
         </is>
       </c>
-      <c r="H293" t="inlineStr"/>
-      <c r="I293" t="inlineStr"/>
-      <c r="J293" t="inlineStr"/>
-      <c r="K293" t="inlineStr"/>
+      <c r="H293" t="n">
+        <v>85894.75469266472</v>
+      </c>
+      <c r="I293" t="n">
+        <v>96.06863731791103</v>
+      </c>
+      <c r="J293" t="inlineStr">
+        <is>
+          <t>[641.9647035620792, 221.87731481140682, 831.0172970409689]</t>
+        </is>
+      </c>
+      <c r="K293" t="inlineStr">
+        <is>
+          <t>[253.10283862241238, 212.11567547890408, 727.3155572949207]</t>
+        </is>
+      </c>
     </row>
     <row r="294">
       <c r="A294" t="n">
@@ -11008,10 +13072,22 @@
           <t>RD</t>
         </is>
       </c>
-      <c r="H294" t="inlineStr"/>
-      <c r="I294" t="inlineStr"/>
-      <c r="J294" t="inlineStr"/>
-      <c r="K294" t="inlineStr"/>
+      <c r="H294" t="n">
+        <v>106021.4159217456</v>
+      </c>
+      <c r="I294" t="n">
+        <v>99.97965449170927</v>
+      </c>
+      <c r="J294" t="inlineStr">
+        <is>
+          <t>[425.4119594091454, 334.7609961027638, 389.33294266386866, 499.5197782171228, 631.5397868276527, 306.46635780835675, 401.5466453590011, 721.8773568382337, 450.29418979273083, 973.5638140027596]</t>
+        </is>
+      </c>
+      <c r="K294" t="inlineStr">
+        <is>
+          <t>[408.85781200799397, 193.67233691812777, 295.54831079433444, 397.5758432310244, 392.2564723572717, 239.33498451939374, 306.69372451673985, 534.0152609889429, 164.13002882365882, 351.3076217338351]</t>
+        </is>
+      </c>
     </row>
     <row r="295">
       <c r="A295" t="n">
@@ -11039,10 +13115,22 @@
           <t>ACO</t>
         </is>
       </c>
-      <c r="H295" t="inlineStr"/>
-      <c r="I295" t="inlineStr"/>
-      <c r="J295" t="inlineStr"/>
-      <c r="K295" t="inlineStr"/>
+      <c r="H295" t="n">
+        <v>191602.2498227831</v>
+      </c>
+      <c r="I295" t="n">
+        <v>84.1801707294391</v>
+      </c>
+      <c r="J295" t="inlineStr">
+        <is>
+          <t>[665.0, 955.0, 515.0]</t>
+        </is>
+      </c>
+      <c r="K295" t="inlineStr">
+        <is>
+          <t>[660.0, 535.0, 350.0]</t>
+        </is>
+      </c>
     </row>
     <row r="296">
       <c r="A296" t="n">
@@ -11070,10 +13158,22 @@
           <t>NM</t>
         </is>
       </c>
-      <c r="H296" t="inlineStr"/>
-      <c r="I296" t="inlineStr"/>
-      <c r="J296" t="inlineStr"/>
-      <c r="K296" t="inlineStr"/>
+      <c r="H296" t="n">
+        <v>108208.6611220566</v>
+      </c>
+      <c r="I296" t="n">
+        <v>99.44517003437761</v>
+      </c>
+      <c r="J296" t="inlineStr">
+        <is>
+          <t>[713.8854285514014, 515.8066813044974, 778.9367761419124, 460.32981446858116, 561.6853457450682, 632.7455945338241, 508.90749344696303, 726.5541367657268, 665.4902424541086, 816.4775936036027]</t>
+        </is>
+      </c>
+      <c r="K296" t="inlineStr">
+        <is>
+          <t>[399.28221238928785, 339.5001523968527, 604.853674477737, 327.97809254621546, 393.0797607746704, 487.4098205284564, 169.09608194148112, 473.7021884325318, 354.0745208553362, 539.1739345985667]</t>
+        </is>
+      </c>
     </row>
     <row r="297">
       <c r="A297" t="n">
@@ -11101,10 +13201,22 @@
           <t>RD</t>
         </is>
       </c>
-      <c r="H297" t="inlineStr"/>
-      <c r="I297" t="inlineStr"/>
-      <c r="J297" t="inlineStr"/>
-      <c r="K297" t="inlineStr"/>
+      <c r="H297" t="n">
+        <v>139306.1494463279</v>
+      </c>
+      <c r="I297" t="n">
+        <v>90.27117300760773</v>
+      </c>
+      <c r="J297" t="inlineStr">
+        <is>
+          <t>[880.3082931668893, 784.2485929941203, 862.7097568957596]</t>
+        </is>
+      </c>
+      <c r="K297" t="inlineStr">
+        <is>
+          <t>[863.34293281469, 496.08371258509703, 629.4316116770125]</t>
+        </is>
+      </c>
     </row>
     <row r="298">
       <c r="A298" t="n">
@@ -11132,10 +13244,22 @@
           <t>ACO</t>
         </is>
       </c>
-      <c r="H298" t="inlineStr"/>
-      <c r="I298" t="inlineStr"/>
-      <c r="J298" t="inlineStr"/>
-      <c r="K298" t="inlineStr"/>
+      <c r="H298" t="n">
+        <v>150284.9806461724</v>
+      </c>
+      <c r="I298" t="n">
+        <v>89.53946805293972</v>
+      </c>
+      <c r="J298" t="inlineStr">
+        <is>
+          <t>[915.0, 990.0, 875.0]</t>
+        </is>
+      </c>
+      <c r="K298" t="inlineStr">
+        <is>
+          <t>[895.0, 890.0, 245.0]</t>
+        </is>
+      </c>
     </row>
     <row r="299">
       <c r="A299" t="n">
@@ -11163,10 +13287,22 @@
           <t>NM</t>
         </is>
       </c>
-      <c r="H299" t="inlineStr"/>
-      <c r="I299" t="inlineStr"/>
-      <c r="J299" t="inlineStr"/>
-      <c r="K299" t="inlineStr"/>
+      <c r="H299" t="n">
+        <v>109395.8676983357</v>
+      </c>
+      <c r="I299" t="n">
+        <v>93.22131619629035</v>
+      </c>
+      <c r="J299" t="inlineStr">
+        <is>
+          <t>[795.5389048597921, 791.0478368120974, 603.4802012996938]</t>
+        </is>
+      </c>
+      <c r="K299" t="inlineStr">
+        <is>
+          <t>[786.7851814431012, 434.57596995953145, 357.19909070768756]</t>
+        </is>
+      </c>
     </row>
     <row r="300">
       <c r="A300" t="n">
@@ -11194,10 +13330,22 @@
           <t>ACO</t>
         </is>
       </c>
-      <c r="H300" t="inlineStr"/>
-      <c r="I300" t="inlineStr"/>
-      <c r="J300" t="inlineStr"/>
-      <c r="K300" t="inlineStr"/>
+      <c r="H300" t="n">
+        <v>135693.9560896278</v>
+      </c>
+      <c r="I300" t="n">
+        <v>97.45176410975451</v>
+      </c>
+      <c r="J300" t="inlineStr">
+        <is>
+          <t>[870.0, 900.0, 775.0, 890.0, 345.0, 990.0, 945.0, 640.0, 845.0, 385.0]</t>
+        </is>
+      </c>
+      <c r="K300" t="inlineStr">
+        <is>
+          <t>[735.0, 365.0, 295.0, 680.0, 50.0, 160.0, 895.0, 175.0, 200.0, 135.0]</t>
+        </is>
+      </c>
     </row>
     <row r="301">
       <c r="A301" t="n">
@@ -11225,10 +13373,22 @@
           <t>RD</t>
         </is>
       </c>
-      <c r="H301" t="inlineStr"/>
-      <c r="I301" t="inlineStr"/>
-      <c r="J301" t="inlineStr"/>
-      <c r="K301" t="inlineStr"/>
+      <c r="H301" t="n">
+        <v>65485.31408074807</v>
+      </c>
+      <c r="I301" t="n">
+        <v>99.28927467403459</v>
+      </c>
+      <c r="J301" t="inlineStr">
+        <is>
+          <t>[444.20974630953924, 688.4750334305404, 774.4531650542929]</t>
+        </is>
+      </c>
+      <c r="K301" t="inlineStr">
+        <is>
+          <t>[386.58017196828155, 464.42775528361597, 770.6804903533312]</t>
+        </is>
+      </c>
     </row>
     <row r="302">
       <c r="A302" t="n">

--- a/DoE/DoE - Results.xlsx
+++ b/DoE/DoE - Results.xlsx
@@ -13416,10 +13416,22 @@
           <t>RD</t>
         </is>
       </c>
-      <c r="H302" t="inlineStr"/>
-      <c r="I302" t="inlineStr"/>
-      <c r="J302" t="inlineStr"/>
-      <c r="K302" t="inlineStr"/>
+      <c r="H302" t="n">
+        <v>155179.3351406897</v>
+      </c>
+      <c r="I302" t="n">
+        <v>88.43510930668944</v>
+      </c>
+      <c r="J302" t="inlineStr">
+        <is>
+          <t>[993.1828751787513, 602.0248933488853, 788.5074644292664]</t>
+        </is>
+      </c>
+      <c r="K302" t="inlineStr">
+        <is>
+          <t>[863.680549835848, 221.6187593139637, 671.3104914149728]</t>
+        </is>
+      </c>
     </row>
     <row r="303">
       <c r="A303" t="n">
@@ -13447,10 +13459,22 @@
           <t>GA</t>
         </is>
       </c>
-      <c r="H303" t="inlineStr"/>
-      <c r="I303" t="inlineStr"/>
-      <c r="J303" t="inlineStr"/>
-      <c r="K303" t="inlineStr"/>
+      <c r="H303" t="n">
+        <v>87807.78969545708</v>
+      </c>
+      <c r="I303" t="n">
+        <v>95.55548169107212</v>
+      </c>
+      <c r="J303" t="inlineStr">
+        <is>
+          <t>[856.27, 271.4, 288.16]</t>
+        </is>
+      </c>
+      <c r="K303" t="inlineStr">
+        <is>
+          <t>[567.9805259734316, 118.42915839565437, 215.98252206518316]</t>
+        </is>
+      </c>
     </row>
     <row r="304">
       <c r="A304" t="n">
@@ -13478,10 +13502,22 @@
           <t>ACO</t>
         </is>
       </c>
-      <c r="H304" t="inlineStr"/>
-      <c r="I304" t="inlineStr"/>
-      <c r="J304" t="inlineStr"/>
-      <c r="K304" t="inlineStr"/>
+      <c r="H304" t="n">
+        <v>73834.01628993927</v>
+      </c>
+      <c r="I304" t="n">
+        <v>99.97646900631976</v>
+      </c>
+      <c r="J304" t="inlineStr">
+        <is>
+          <t>[515.0, 370.0, 230.0, 540.0, 545.0]</t>
+        </is>
+      </c>
+      <c r="K304" t="inlineStr">
+        <is>
+          <t>[405.0, 270.0, 170.0, 495.0, 545.0]</t>
+        </is>
+      </c>
     </row>
     <row r="305">
       <c r="A305" t="n">
@@ -13509,10 +13545,22 @@
           <t>GA</t>
         </is>
       </c>
-      <c r="H305" t="inlineStr"/>
-      <c r="I305" t="inlineStr"/>
-      <c r="J305" t="inlineStr"/>
-      <c r="K305" t="inlineStr"/>
+      <c r="H305" t="n">
+        <v>114877.2722246507</v>
+      </c>
+      <c r="I305" t="n">
+        <v>94.09262068563474</v>
+      </c>
+      <c r="J305" t="inlineStr">
+        <is>
+          <t>[787.86, 543.95, 480.02, 766.65, 376.36]</t>
+        </is>
+      </c>
+      <c r="K305" t="inlineStr">
+        <is>
+          <t>[444.41428102448816, 528.0565975940349, 152.07788725812125, 183.90486134663433, 42.89555842438072]</t>
+        </is>
+      </c>
     </row>
     <row r="306">
       <c r="A306" t="n">
@@ -13540,10 +13588,22 @@
           <t>ACO</t>
         </is>
       </c>
-      <c r="H306" t="inlineStr"/>
-      <c r="I306" t="inlineStr"/>
-      <c r="J306" t="inlineStr"/>
-      <c r="K306" t="inlineStr"/>
+      <c r="H306" t="n">
+        <v>151213.0248808036</v>
+      </c>
+      <c r="I306" t="n">
+        <v>90.78287373100756</v>
+      </c>
+      <c r="J306" t="inlineStr">
+        <is>
+          <t>[845.0, 850.0, 905.0, 825.0, 505.0]</t>
+        </is>
+      </c>
+      <c r="K306" t="inlineStr">
+        <is>
+          <t>[90.0, 600.0, 330.0, 655.0, 130.0]</t>
+        </is>
+      </c>
     </row>
     <row r="307">
       <c r="A307" t="n">
@@ -13571,10 +13631,22 @@
           <t>ACO</t>
         </is>
       </c>
-      <c r="H307" t="inlineStr"/>
-      <c r="I307" t="inlineStr"/>
-      <c r="J307" t="inlineStr"/>
-      <c r="K307" t="inlineStr"/>
+      <c r="H307" t="n">
+        <v>112765.7483956003</v>
+      </c>
+      <c r="I307" t="n">
+        <v>95.59183748444188</v>
+      </c>
+      <c r="J307" t="inlineStr">
+        <is>
+          <t>[985.0, 860.0, 845.0, 270.0, 565.0]</t>
+        </is>
+      </c>
+      <c r="K307" t="inlineStr">
+        <is>
+          <t>[750.0, 860.0, 695.0, 105.0, 525.0]</t>
+        </is>
+      </c>
     </row>
     <row r="308">
       <c r="A308" t="n">
@@ -13602,10 +13674,22 @@
           <t>GA</t>
         </is>
       </c>
-      <c r="H308" t="inlineStr"/>
-      <c r="I308" t="inlineStr"/>
-      <c r="J308" t="inlineStr"/>
-      <c r="K308" t="inlineStr"/>
+      <c r="H308" t="n">
+        <v>65633.01346305246</v>
+      </c>
+      <c r="I308" t="n">
+        <v>98.10918994125949</v>
+      </c>
+      <c r="J308" t="inlineStr">
+        <is>
+          <t>[358.48, 840.84, 202.74]</t>
+        </is>
+      </c>
+      <c r="K308" t="inlineStr">
+        <is>
+          <t>[140.55508852874712, 439.72515638156074, 134.98265325550577]</t>
+        </is>
+      </c>
     </row>
     <row r="309">
       <c r="A309" t="n">
@@ -13633,10 +13717,22 @@
           <t>NM</t>
         </is>
       </c>
-      <c r="H309" t="inlineStr"/>
-      <c r="I309" t="inlineStr"/>
-      <c r="J309" t="inlineStr"/>
-      <c r="K309" t="inlineStr"/>
+      <c r="H309" t="n">
+        <v>97732.11920773832</v>
+      </c>
+      <c r="I309" t="n">
+        <v>97.78267962113487</v>
+      </c>
+      <c r="J309" t="inlineStr">
+        <is>
+          <t>[840.2495853563206, 1391.3049224379502, 243.5921832066103, 735.421767263878, 269.67293652000933]</t>
+        </is>
+      </c>
+      <c r="K309" t="inlineStr">
+        <is>
+          <t>[430.8272799969967, 1266.686424989987, 230.66540853328968, 649.1029054379328, 165.15615646099388]</t>
+        </is>
+      </c>
     </row>
     <row r="310">
       <c r="A310" t="n">
@@ -13664,10 +13760,22 @@
           <t>RD</t>
         </is>
       </c>
-      <c r="H310" t="inlineStr"/>
-      <c r="I310" t="inlineStr"/>
-      <c r="J310" t="inlineStr"/>
-      <c r="K310" t="inlineStr"/>
+      <c r="H310" t="n">
+        <v>78915.72337398781</v>
+      </c>
+      <c r="I310" t="n">
+        <v>99.54636014518344</v>
+      </c>
+      <c r="J310" t="inlineStr">
+        <is>
+          <t>[883.9481933303377, 715.1515201551375, 984.2744287050067, 458.0493837967603, 370.6397582471779]</t>
+        </is>
+      </c>
+      <c r="K310" t="inlineStr">
+        <is>
+          <t>[484.55108762610223, 535.1057224719057, 756.8701501596875, 311.6352603316406, 276.1296963844308]</t>
+        </is>
+      </c>
     </row>
     <row r="311">
       <c r="A311" t="n">
@@ -13695,10 +13803,22 @@
           <t>ACO</t>
         </is>
       </c>
-      <c r="H311" t="inlineStr"/>
-      <c r="I311" t="inlineStr"/>
-      <c r="J311" t="inlineStr"/>
-      <c r="K311" t="inlineStr"/>
+      <c r="H311" t="n">
+        <v>110007.9713181617</v>
+      </c>
+      <c r="I311" t="n">
+        <v>98.71578003087856</v>
+      </c>
+      <c r="J311" t="inlineStr">
+        <is>
+          <t>[305.0, 790.0, 790.0, 775.0, 630.0, 345.0, 715.0, 290.0, 190.0, 635.0]</t>
+        </is>
+      </c>
+      <c r="K311" t="inlineStr">
+        <is>
+          <t>[30.0, 465.0, 395.0, 335.0, 360.0, 200.0, 405.0, 165.0, 160.0, 225.0]</t>
+        </is>
+      </c>
     </row>
     <row r="312">
       <c r="A312" t="n">
@@ -13726,10 +13846,22 @@
           <t>GA</t>
         </is>
       </c>
-      <c r="H312" t="inlineStr"/>
-      <c r="I312" t="inlineStr"/>
-      <c r="J312" t="inlineStr"/>
-      <c r="K312" t="inlineStr"/>
+      <c r="H312" t="n">
+        <v>113735.1331309388</v>
+      </c>
+      <c r="I312" t="n">
+        <v>94.25214478726348</v>
+      </c>
+      <c r="J312" t="inlineStr">
+        <is>
+          <t>[698.58, 549.7, 951.78, 435.29, 54.37]</t>
+        </is>
+      </c>
+      <c r="K312" t="inlineStr">
+        <is>
+          <t>[618.6073768415233, 494.92050657478654, 197.16381354713454, 402.30365547738694, 36.505245676656834]</t>
+        </is>
+      </c>
     </row>
     <row r="313">
       <c r="A313" t="n">
@@ -13757,10 +13889,22 @@
           <t>RD</t>
         </is>
       </c>
-      <c r="H313" t="inlineStr"/>
-      <c r="I313" t="inlineStr"/>
-      <c r="J313" t="inlineStr"/>
-      <c r="K313" t="inlineStr"/>
+      <c r="H313" t="n">
+        <v>202677.7603093854</v>
+      </c>
+      <c r="I313" t="n">
+        <v>85.65375245489903</v>
+      </c>
+      <c r="J313" t="inlineStr">
+        <is>
+          <t>[988.5166299018659, 801.0497475999023, 972.5786761858219, 463.6017324721055, 948.664515690393]</t>
+        </is>
+      </c>
+      <c r="K313" t="inlineStr">
+        <is>
+          <t>[780.651399870968, 616.2435168965937, 821.1998610298368, 373.2996648433678, 372.3411796500679]</t>
+        </is>
+      </c>
     </row>
     <row r="314">
       <c r="A314" t="n">
@@ -13788,10 +13932,22 @@
           <t>ACO</t>
         </is>
       </c>
-      <c r="H314" t="inlineStr"/>
-      <c r="I314" t="inlineStr"/>
-      <c r="J314" t="inlineStr"/>
-      <c r="K314" t="inlineStr"/>
+      <c r="H314" t="n">
+        <v>113015.5193922114</v>
+      </c>
+      <c r="I314" t="n">
+        <v>98.2234702450679</v>
+      </c>
+      <c r="J314" t="inlineStr">
+        <is>
+          <t>[420.0, 585.0, 730.0, 955.0, 515.0, 750.0, 885.0, 245.0, 645.0, 595.0]</t>
+        </is>
+      </c>
+      <c r="K314" t="inlineStr">
+        <is>
+          <t>[75.0, 130.0, 630.0, 875.0, 335.0, 285.0, 475.0, 165.0, 520.0, 75.0]</t>
+        </is>
+      </c>
     </row>
     <row r="315">
       <c r="A315" t="n">
@@ -13819,10 +13975,22 @@
           <t>NM</t>
         </is>
       </c>
-      <c r="H315" t="inlineStr"/>
-      <c r="I315" t="inlineStr"/>
-      <c r="J315" t="inlineStr"/>
-      <c r="K315" t="inlineStr"/>
+      <c r="H315" t="n">
+        <v>92532.81025962943</v>
+      </c>
+      <c r="I315" t="n">
+        <v>99.80110315653253</v>
+      </c>
+      <c r="J315" t="inlineStr">
+        <is>
+          <t>[579.4443357230097, 528.8851933134671, 600.7729216748893, 466.52917881563457, 644.8747534127754, 521.9557563215157, 328.6624385743819, 347.196183532897, 494.9018856792568, 602.9101838339833]</t>
+        </is>
+      </c>
+      <c r="K315" t="inlineStr">
+        <is>
+          <t>[300.3680230618627, 218.00062885208473, 371.209762950265, 207.74775031296687, 391.6525437840917, 258.0846373930214, 233.2021707057512, 169.5884936578334, 262.1429508843002, 420.8349800179757]</t>
+        </is>
+      </c>
     </row>
     <row r="316">
       <c r="A316" t="n">
@@ -13850,10 +14018,22 @@
           <t>ACO</t>
         </is>
       </c>
-      <c r="H316" t="inlineStr"/>
-      <c r="I316" t="inlineStr"/>
-      <c r="J316" t="inlineStr"/>
-      <c r="K316" t="inlineStr"/>
+      <c r="H316" t="n">
+        <v>84680.13221133291</v>
+      </c>
+      <c r="I316" t="n">
+        <v>96.90437111031166</v>
+      </c>
+      <c r="J316" t="inlineStr">
+        <is>
+          <t>[925.0, 745.0, 960.0]</t>
+        </is>
+      </c>
+      <c r="K316" t="inlineStr">
+        <is>
+          <t>[870.0, 695.0, 570.0]</t>
+        </is>
+      </c>
     </row>
     <row r="317">
       <c r="A317" t="n">
@@ -13881,10 +14061,22 @@
           <t>GA</t>
         </is>
       </c>
-      <c r="H317" t="inlineStr"/>
-      <c r="I317" t="inlineStr"/>
-      <c r="J317" t="inlineStr"/>
-      <c r="K317" t="inlineStr"/>
+      <c r="H317" t="n">
+        <v>107707.8425070125</v>
+      </c>
+      <c r="I317" t="n">
+        <v>93.87795822005164</v>
+      </c>
+      <c r="J317" t="inlineStr">
+        <is>
+          <t>[104.99, 641.7, 998.4]</t>
+        </is>
+      </c>
+      <c r="K317" t="inlineStr">
+        <is>
+          <t>[63.98433778907836, 222.35772992171877, 250.31412810354075]</t>
+        </is>
+      </c>
     </row>
     <row r="318">
       <c r="A318" t="n">
@@ -13912,10 +14104,22 @@
           <t>NM</t>
         </is>
       </c>
-      <c r="H318" t="inlineStr"/>
-      <c r="I318" t="inlineStr"/>
-      <c r="J318" t="inlineStr"/>
-      <c r="K318" t="inlineStr"/>
+      <c r="H318" t="n">
+        <v>120831.0311549306</v>
+      </c>
+      <c r="I318" t="n">
+        <v>95.63119524661184</v>
+      </c>
+      <c r="J318" t="inlineStr">
+        <is>
+          <t>[540.5770779836447, 421.2510575580776, 417.0123307511112, 502.2591538683972, 395.2105679731135, 534.6001294647712, 396.02509483255045, 502.25312779684555, 730.3591447295573, 293.55653200124544]</t>
+        </is>
+      </c>
+      <c r="K318" t="inlineStr">
+        <is>
+          <t>[307.45496036395326, 320.64388933778577, 197.12340269798784, 220.27041244635146, 293.02149956949495, 340.5041885041931, 203.17837717882952, 358.97212076940355, 460.86509969199216, 105.52334810019435]</t>
+        </is>
+      </c>
     </row>
     <row r="319">
       <c r="A319" t="n">
@@ -13943,10 +14147,22 @@
           <t>ACO</t>
         </is>
       </c>
-      <c r="H319" t="inlineStr"/>
-      <c r="I319" t="inlineStr"/>
-      <c r="J319" t="inlineStr"/>
-      <c r="K319" t="inlineStr"/>
+      <c r="H319" t="n">
+        <v>122319.5869829163</v>
+      </c>
+      <c r="I319" t="n">
+        <v>93.70402861311224</v>
+      </c>
+      <c r="J319" t="inlineStr">
+        <is>
+          <t>[910.0, 995.0, 890.0, 330.0, 270.0]</t>
+        </is>
+      </c>
+      <c r="K319" t="inlineStr">
+        <is>
+          <t>[635.0, 735.0, 685.0, 85.0, 265.0]</t>
+        </is>
+      </c>
     </row>
     <row r="320">
       <c r="A320" t="n">
@@ -13974,10 +14190,22 @@
           <t>NM</t>
         </is>
       </c>
-      <c r="H320" t="inlineStr"/>
-      <c r="I320" t="inlineStr"/>
-      <c r="J320" t="inlineStr"/>
-      <c r="K320" t="inlineStr"/>
+      <c r="H320" t="n">
+        <v>97022.10878544002</v>
+      </c>
+      <c r="I320" t="n">
+        <v>99.480756868897</v>
+      </c>
+      <c r="J320" t="inlineStr">
+        <is>
+          <t>[552.62890137816, 635.4565105180155, 368.87847475218933, 693.5388511870192, 608.2455868119293, 473.67218752510115, 636.5798169904573, 569.0639861542235, 676.4036483025591, 382.5520246262116]</t>
+        </is>
+      </c>
+      <c r="K320" t="inlineStr">
+        <is>
+          <t>[290.76429197336637, 483.12738655064, 213.41564666934917, 546.0126446246675, 360.8588846865746, 333.97828716933117, 245.91542153995218, 276.06832263881984, 315.79780700486555, 258.48651126455616]</t>
+        </is>
+      </c>
     </row>
     <row r="321">
       <c r="A321" t="n">
@@ -14005,10 +14233,22 @@
           <t>NM</t>
         </is>
       </c>
-      <c r="H321" t="inlineStr"/>
-      <c r="I321" t="inlineStr"/>
-      <c r="J321" t="inlineStr"/>
-      <c r="K321" t="inlineStr"/>
+      <c r="H321" t="n">
+        <v>82378.97351515123</v>
+      </c>
+      <c r="I321" t="n">
+        <v>99.70431340910895</v>
+      </c>
+      <c r="J321" t="inlineStr">
+        <is>
+          <t>[968.9374621161651, 745.6835102901298, 946.6510405779635, 996.7930974841504, 1339.1487426353854]</t>
+        </is>
+      </c>
+      <c r="K321" t="inlineStr">
+        <is>
+          <t>[250.3546672061529, 260.5245347629867, 488.39807205144496, 611.0486974676057, 980.3523957854346]</t>
+        </is>
+      </c>
     </row>
     <row r="322">
       <c r="A322" t="n">
@@ -14036,10 +14276,22 @@
           <t>NM</t>
         </is>
       </c>
-      <c r="H322" t="inlineStr"/>
-      <c r="I322" t="inlineStr"/>
-      <c r="J322" t="inlineStr"/>
-      <c r="K322" t="inlineStr"/>
+      <c r="H322" t="n">
+        <v>258321.7607404969</v>
+      </c>
+      <c r="I322" t="n">
+        <v>76.68117249389029</v>
+      </c>
+      <c r="J322" t="inlineStr">
+        <is>
+          <t>[579.0019313959602, 134.54607292670852, 554.2860123782721]</t>
+        </is>
+      </c>
+      <c r="K322" t="inlineStr">
+        <is>
+          <t>[312.8945567430566, 80.97812602839407, 218.7258124819316]</t>
+        </is>
+      </c>
     </row>
     <row r="323">
       <c r="A323" t="n">
@@ -14067,10 +14319,22 @@
           <t>ACO</t>
         </is>
       </c>
-      <c r="H323" t="inlineStr"/>
-      <c r="I323" t="inlineStr"/>
-      <c r="J323" t="inlineStr"/>
-      <c r="K323" t="inlineStr"/>
+      <c r="H323" t="n">
+        <v>109647.3736119858</v>
+      </c>
+      <c r="I323" t="n">
+        <v>99.1651880654569</v>
+      </c>
+      <c r="J323" t="inlineStr">
+        <is>
+          <t>[385.0, 335.0, 945.0, 145.0, 300.0, 635.0, 605.0, 910.0, 920.0, 385.0]</t>
+        </is>
+      </c>
+      <c r="K323" t="inlineStr">
+        <is>
+          <t>[160.0, 300.0, 75.0, 60.0, 235.0, 210.0, 300.0, 875.0, 780.0, 210.0]</t>
+        </is>
+      </c>
     </row>
     <row r="324">
       <c r="A324" t="n">
@@ -14098,10 +14362,22 @@
           <t>ACO</t>
         </is>
       </c>
-      <c r="H324" t="inlineStr"/>
-      <c r="I324" t="inlineStr"/>
-      <c r="J324" t="inlineStr"/>
-      <c r="K324" t="inlineStr"/>
+      <c r="H324" t="n">
+        <v>105210.289373106</v>
+      </c>
+      <c r="I324" t="n">
+        <v>98.36150645279247</v>
+      </c>
+      <c r="J324" t="inlineStr">
+        <is>
+          <t>[670.0, 140.0, 470.0, 240.0, 390.0, 185.0, 595.0, 145.0, 430.0, 240.0]</t>
+        </is>
+      </c>
+      <c r="K324" t="inlineStr">
+        <is>
+          <t>[615.0, 30.0, 245.0, 160.0, 90.0, 65.0, 500.0, 120.0, 150.0, 215.0]</t>
+        </is>
+      </c>
     </row>
     <row r="325">
       <c r="A325" t="n">
@@ -14129,10 +14405,22 @@
           <t>ACO</t>
         </is>
       </c>
-      <c r="H325" t="inlineStr"/>
-      <c r="I325" t="inlineStr"/>
-      <c r="J325" t="inlineStr"/>
-      <c r="K325" t="inlineStr"/>
+      <c r="H325" t="n">
+        <v>114965.7758250094</v>
+      </c>
+      <c r="I325" t="n">
+        <v>94.74181649572238</v>
+      </c>
+      <c r="J325" t="inlineStr">
+        <is>
+          <t>[445.0, 560.0, 840.0, 225.0, 705.0]</t>
+        </is>
+      </c>
+      <c r="K325" t="inlineStr">
+        <is>
+          <t>[345.0, 380.0, 840.0, 150.0, 40.0]</t>
+        </is>
+      </c>
     </row>
     <row r="326">
       <c r="A326" t="n">
@@ -14160,10 +14448,22 @@
           <t>GA</t>
         </is>
       </c>
-      <c r="H326" t="inlineStr"/>
-      <c r="I326" t="inlineStr"/>
-      <c r="J326" t="inlineStr"/>
-      <c r="K326" t="inlineStr"/>
+      <c r="H326" t="n">
+        <v>220154.6287507513</v>
+      </c>
+      <c r="I326" t="n">
+        <v>84.12632901950126</v>
+      </c>
+      <c r="J326" t="inlineStr">
+        <is>
+          <t>[940.36, 867.84, 457.11, 242.06, 900.23]</t>
+        </is>
+      </c>
+      <c r="K326" t="inlineStr">
+        <is>
+          <t>[448.2865423936555, 480.396400479655, 199.0222263735632, 29.84155821300739, 60.61484314005719]</t>
+        </is>
+      </c>
     </row>
     <row r="327">
       <c r="A327" t="n">
@@ -14191,10 +14491,22 @@
           <t>RD</t>
         </is>
       </c>
-      <c r="H327" t="inlineStr"/>
-      <c r="I327" t="inlineStr"/>
-      <c r="J327" t="inlineStr"/>
-      <c r="K327" t="inlineStr"/>
+      <c r="H327" t="n">
+        <v>80887.41851030207</v>
+      </c>
+      <c r="I327" t="n">
+        <v>98.20845738369316</v>
+      </c>
+      <c r="J327" t="inlineStr">
+        <is>
+          <t>[544.9665128401892, 663.6926912263962, 836.5874531213778, 711.3520718563482, 745.9978306556386]</t>
+        </is>
+      </c>
+      <c r="K327" t="inlineStr">
+        <is>
+          <t>[296.1536042573168, 191.82642454325568, 568.1224057361337, 433.13051739534427, 658.3138552840502]</t>
+        </is>
+      </c>
     </row>
     <row r="328">
       <c r="A328" t="n">
@@ -14222,10 +14534,22 @@
           <t>RD</t>
         </is>
       </c>
-      <c r="H328" t="inlineStr"/>
-      <c r="I328" t="inlineStr"/>
-      <c r="J328" t="inlineStr"/>
-      <c r="K328" t="inlineStr"/>
+      <c r="H328" t="n">
+        <v>130544.591654224</v>
+      </c>
+      <c r="I328" t="n">
+        <v>92.02398023291995</v>
+      </c>
+      <c r="J328" t="inlineStr">
+        <is>
+          <t>[733.5325788473004, 803.7736132252503, 741.9343837524858]</t>
+        </is>
+      </c>
+      <c r="K328" t="inlineStr">
+        <is>
+          <t>[561.9695355412438, 554.594047259913, 546.1130911597044]</t>
+        </is>
+      </c>
     </row>
     <row r="329">
       <c r="A329" t="n">
@@ -14253,10 +14577,22 @@
           <t>NM</t>
         </is>
       </c>
-      <c r="H329" t="inlineStr"/>
-      <c r="I329" t="inlineStr"/>
-      <c r="J329" t="inlineStr"/>
-      <c r="K329" t="inlineStr"/>
+      <c r="H329" t="n">
+        <v>179726.4093929953</v>
+      </c>
+      <c r="I329" t="n">
+        <v>84.84019515214541</v>
+      </c>
+      <c r="J329" t="inlineStr">
+        <is>
+          <t>[231.64933671302202, 579.0516929823592, 586.1961738377612]</t>
+        </is>
+      </c>
+      <c r="K329" t="inlineStr">
+        <is>
+          <t>[106.04708526261088, 353.94030908744514, 262.8015409161503]</t>
+        </is>
+      </c>
     </row>
     <row r="330">
       <c r="A330" t="n">
@@ -14284,10 +14620,22 @@
           <t>RD</t>
         </is>
       </c>
-      <c r="H330" t="inlineStr"/>
-      <c r="I330" t="inlineStr"/>
-      <c r="J330" t="inlineStr"/>
-      <c r="K330" t="inlineStr"/>
+      <c r="H330" t="n">
+        <v>119123.2476113018</v>
+      </c>
+      <c r="I330" t="n">
+        <v>98.13451267596245</v>
+      </c>
+      <c r="J330" t="inlineStr">
+        <is>
+          <t>[991.3319532759557, 217.15949643947408, 639.5746419348367, 484.5596506258129, 324.63668949144886, 504.0792230111899, 551.5895507172183, 596.5461677102613, 610.600738356112, 69.13113064099285]</t>
+        </is>
+      </c>
+      <c r="K330" t="inlineStr">
+        <is>
+          <t>[858.3669278911641, 111.77414149337893, 569.7531556173659, 323.0918225683833, 299.6604712715764, 129.03345758891663, 407.55640697005595, 132.8921099920474, 514.876993128732, 18.273995093454356]</t>
+        </is>
+      </c>
     </row>
     <row r="331">
       <c r="A331" t="n">
@@ -14315,10 +14663,22 @@
           <t>ACO</t>
         </is>
       </c>
-      <c r="H331" t="inlineStr"/>
-      <c r="I331" t="inlineStr"/>
-      <c r="J331" t="inlineStr"/>
-      <c r="K331" t="inlineStr"/>
+      <c r="H331" t="n">
+        <v>67564.32846105489</v>
+      </c>
+      <c r="I331" t="n">
+        <v>99.28517229148822</v>
+      </c>
+      <c r="J331" t="inlineStr">
+        <is>
+          <t>[900.0, 785.0, 485.0]</t>
+        </is>
+      </c>
+      <c r="K331" t="inlineStr">
+        <is>
+          <t>[765.0, 655.0, 290.0]</t>
+        </is>
+      </c>
     </row>
     <row r="332">
       <c r="A332" t="n">
@@ -14346,10 +14706,22 @@
           <t>RD</t>
         </is>
       </c>
-      <c r="H332" t="inlineStr"/>
-      <c r="I332" t="inlineStr"/>
-      <c r="J332" t="inlineStr"/>
-      <c r="K332" t="inlineStr"/>
+      <c r="H332" t="n">
+        <v>103525.4370343817</v>
+      </c>
+      <c r="I332" t="n">
+        <v>99.35812729332628</v>
+      </c>
+      <c r="J332" t="inlineStr">
+        <is>
+          <t>[712.412099781506, 473.96178426253164, 848.3195549654907, 327.2418650273681, 179.60613350115128, 365.54316511095664, 607.4270075734562, 363.5429159664344, 134.052643630866, 918.6425790124338]</t>
+        </is>
+      </c>
+      <c r="K332" t="inlineStr">
+        <is>
+          <t>[485.03385118289367, 359.7439672093747, 727.9676668806358, 84.0622404161308, 97.26646328901523, 58.35328141096897, 254.58503241203434, 350.725616202166, 53.94008922458089, 494.58131696226974]</t>
+        </is>
+      </c>
     </row>
     <row r="333">
       <c r="A333" t="n">
@@ -14377,10 +14749,22 @@
           <t>RD</t>
         </is>
       </c>
-      <c r="H333" t="inlineStr"/>
-      <c r="I333" t="inlineStr"/>
-      <c r="J333" t="inlineStr"/>
-      <c r="K333" t="inlineStr"/>
+      <c r="H333" t="n">
+        <v>94537.69311335625</v>
+      </c>
+      <c r="I333" t="n">
+        <v>99.28618946972909</v>
+      </c>
+      <c r="J333" t="inlineStr">
+        <is>
+          <t>[835.4239745107604, 363.37448494336013, 648.742709458319, 201.42405726767166, 397.8899846335251, 558.9540507597839, 189.50840944398172, 52.2997447954654, 108.9404542951119, 307.00838243785057]</t>
+        </is>
+      </c>
+      <c r="K333" t="inlineStr">
+        <is>
+          <t>[817.4412359379261, 229.72031144757224, 541.3098536947145, 82.91531348306762, 105.77669763019527, 245.00517169205054, 171.27431462590724, 33.31937160579754, 19.839188607704244, 218.9635177028632]</t>
+        </is>
+      </c>
     </row>
     <row r="334">
       <c r="A334" t="n">
@@ -14408,10 +14792,22 @@
           <t>NM</t>
         </is>
       </c>
-      <c r="H334" t="inlineStr"/>
-      <c r="I334" t="inlineStr"/>
-      <c r="J334" t="inlineStr"/>
-      <c r="K334" t="inlineStr"/>
+      <c r="H334" t="n">
+        <v>90253.80779897288</v>
+      </c>
+      <c r="I334" t="n">
+        <v>99.90191587088536</v>
+      </c>
+      <c r="J334" t="inlineStr">
+        <is>
+          <t>[575.8447737711967, 549.7501465949007, 446.75270968703694, 660.6215015738173, 466.96252489052665, 739.7384644313801, 559.3209038403505, 537.8933565590993, 343.0746097324749, 569.5363869203851]</t>
+        </is>
+      </c>
+      <c r="K334" t="inlineStr">
+        <is>
+          <t>[203.64102311420362, 156.15592000419556, 222.58610399000386, 297.08647744043407, 232.65384187769806, 433.8941179468697, 218.85158242857943, 293.14891807408077, 193.49643833387762, 376.4335494789327]</t>
+        </is>
+      </c>
     </row>
     <row r="335">
       <c r="A335" t="n">
@@ -14439,10 +14835,22 @@
           <t>RD</t>
         </is>
       </c>
-      <c r="H335" t="inlineStr"/>
-      <c r="I335" t="inlineStr"/>
-      <c r="J335" t="inlineStr"/>
-      <c r="K335" t="inlineStr"/>
+      <c r="H335" t="n">
+        <v>128524.4456077138</v>
+      </c>
+      <c r="I335" t="n">
+        <v>93.17767823013689</v>
+      </c>
+      <c r="J335" t="inlineStr">
+        <is>
+          <t>[875.875494330122, 978.6023489598257, 432.13855690563344, 364.51065799164076, 982.0744354069989]</t>
+        </is>
+      </c>
+      <c r="K335" t="inlineStr">
+        <is>
+          <t>[726.5542962338023, 738.2615143940551, 139.6540658559277, 357.7405510074925, 605.8191507695841]</t>
+        </is>
+      </c>
     </row>
     <row r="336">
       <c r="A336" t="n">
@@ -14470,10 +14878,22 @@
           <t>NM</t>
         </is>
       </c>
-      <c r="H336" t="inlineStr"/>
-      <c r="I336" t="inlineStr"/>
-      <c r="J336" t="inlineStr"/>
-      <c r="K336" t="inlineStr"/>
+      <c r="H336" t="n">
+        <v>74633.89328061057</v>
+      </c>
+      <c r="I336" t="n">
+        <v>97.51395841483101</v>
+      </c>
+      <c r="J336" t="inlineStr">
+        <is>
+          <t>[426.03998153321646, 391.3942937055147, 382.7106927419142, 621.2275187061438, 423.0936546442867]</t>
+        </is>
+      </c>
+      <c r="K336" t="inlineStr">
+        <is>
+          <t>[242.799643668827, 139.968529055142, 142.0315107633654, 396.2257809761032, 229.41198060670678]</t>
+        </is>
+      </c>
     </row>
     <row r="337">
       <c r="A337" t="n">
@@ -14501,10 +14921,22 @@
           <t>NM</t>
         </is>
       </c>
-      <c r="H337" t="inlineStr"/>
-      <c r="I337" t="inlineStr"/>
-      <c r="J337" t="inlineStr"/>
-      <c r="K337" t="inlineStr"/>
+      <c r="H337" t="n">
+        <v>96961.40152868594</v>
+      </c>
+      <c r="I337" t="n">
+        <v>99.54216081670677</v>
+      </c>
+      <c r="J337" t="inlineStr">
+        <is>
+          <t>[573.9342518718632, 690.5680671504563, 752.096642608833, 686.6488361083254, 459.1256531896438, 571.9066624238742, 662.4307383068161, 534.4716981423458, 548.2686984514406, 369.03283537532974]</t>
+        </is>
+      </c>
+      <c r="K337" t="inlineStr">
+        <is>
+          <t>[257.26564833299324, 333.65137944484485, 563.9791434008305, 350.1784724691792, 170.15595335892857, 319.10797102708403, 428.30260821448513, 321.61986924270525, 242.76252442198836, 215.8374575886856]</t>
+        </is>
+      </c>
     </row>
     <row r="338">
       <c r="A338" t="n">
@@ -14532,10 +14964,22 @@
           <t>ACO</t>
         </is>
       </c>
-      <c r="H338" t="inlineStr"/>
-      <c r="I338" t="inlineStr"/>
-      <c r="J338" t="inlineStr"/>
-      <c r="K338" t="inlineStr"/>
+      <c r="H338" t="n">
+        <v>129010.9600675498</v>
+      </c>
+      <c r="I338" t="n">
+        <v>93.25450808523631</v>
+      </c>
+      <c r="J338" t="inlineStr">
+        <is>
+          <t>[950.0, 710.0, 270.0, 365.0, 790.0]</t>
+        </is>
+      </c>
+      <c r="K338" t="inlineStr">
+        <is>
+          <t>[870.0, 615.0, 75.0, 175.0, 730.0]</t>
+        </is>
+      </c>
     </row>
     <row r="339">
       <c r="A339" t="n">
@@ -14563,10 +15007,22 @@
           <t>RD</t>
         </is>
       </c>
-      <c r="H339" t="inlineStr"/>
-      <c r="I339" t="inlineStr"/>
-      <c r="J339" t="inlineStr"/>
-      <c r="K339" t="inlineStr"/>
+      <c r="H339" t="n">
+        <v>72687.17837096269</v>
+      </c>
+      <c r="I339" t="n">
+        <v>98.81528523185955</v>
+      </c>
+      <c r="J339" t="inlineStr">
+        <is>
+          <t>[548.5254840025191, 833.1927029662264, 712.3306138360709, 615.9258583994585, 357.9030501342976]</t>
+        </is>
+      </c>
+      <c r="K339" t="inlineStr">
+        <is>
+          <t>[451.31959427397726, 635.1128001744083, 439.096307462147, 337.36822233890115, 106.80133772516508]</t>
+        </is>
+      </c>
     </row>
     <row r="340">
       <c r="A340" t="n">
@@ -14594,10 +15050,22 @@
           <t>NM</t>
         </is>
       </c>
-      <c r="H340" t="inlineStr"/>
-      <c r="I340" t="inlineStr"/>
-      <c r="J340" t="inlineStr"/>
-      <c r="K340" t="inlineStr"/>
+      <c r="H340" t="n">
+        <v>205843.0240135711</v>
+      </c>
+      <c r="I340" t="n">
+        <v>83.75025080595071</v>
+      </c>
+      <c r="J340" t="inlineStr">
+        <is>
+          <t>[423.0224656923084, 961.5970942753827, 272.6156066344302]</t>
+        </is>
+      </c>
+      <c r="K340" t="inlineStr">
+        <is>
+          <t>[113.53210847186595, 886.9020311698081, 106.25006633836118]</t>
+        </is>
+      </c>
     </row>
     <row r="341">
       <c r="A341" t="n">
@@ -14625,10 +15093,22 @@
           <t>RD</t>
         </is>
       </c>
-      <c r="H341" t="inlineStr"/>
-      <c r="I341" t="inlineStr"/>
-      <c r="J341" t="inlineStr"/>
-      <c r="K341" t="inlineStr"/>
+      <c r="H341" t="n">
+        <v>108591.8633703617</v>
+      </c>
+      <c r="I341" t="n">
+        <v>99.20922922889997</v>
+      </c>
+      <c r="J341" t="inlineStr">
+        <is>
+          <t>[783.2720420714671, 989.232238885974, 552.444433660937, 528.1593557492561, 334.9873627208935, 205.50310030306463, 522.8325508511435, 974.7394274488352, 312.0372398070489, 222.1826810012766]</t>
+        </is>
+      </c>
+      <c r="K341" t="inlineStr">
+        <is>
+          <t>[570.8818865064969, 966.1135633646294, 324.30617066019823, 345.1263067659583, 183.77853374558532, 50.27817071352581, 168.20227603804275, 823.2565763787527, 80.01686910637243, 5.5424999131423185]</t>
+        </is>
+      </c>
     </row>
     <row r="342">
       <c r="A342" t="n">
@@ -14656,10 +15136,22 @@
           <t>RD</t>
         </is>
       </c>
-      <c r="H342" t="inlineStr"/>
-      <c r="I342" t="inlineStr"/>
-      <c r="J342" t="inlineStr"/>
-      <c r="K342" t="inlineStr"/>
+      <c r="H342" t="n">
+        <v>70994.8464761521</v>
+      </c>
+      <c r="I342" t="n">
+        <v>98.34077665991342</v>
+      </c>
+      <c r="J342" t="inlineStr">
+        <is>
+          <t>[806.3546866662354, 633.1740128791416, 576.1687148576578]</t>
+        </is>
+      </c>
+      <c r="K342" t="inlineStr">
+        <is>
+          <t>[773.3519140030587, 458.7809330553213, 369.5520652271097]</t>
+        </is>
+      </c>
     </row>
     <row r="343">
       <c r="A343" t="n">
@@ -14687,10 +15179,22 @@
           <t>NM</t>
         </is>
       </c>
-      <c r="H343" t="inlineStr"/>
-      <c r="I343" t="inlineStr"/>
-      <c r="J343" t="inlineStr"/>
-      <c r="K343" t="inlineStr"/>
+      <c r="H343" t="n">
+        <v>115777.121753755</v>
+      </c>
+      <c r="I343" t="n">
+        <v>93.3445801149449</v>
+      </c>
+      <c r="J343" t="inlineStr">
+        <is>
+          <t>[868.1454304551513, 708.2629984578975, 1175.735060067022]</t>
+        </is>
+      </c>
+      <c r="K343" t="inlineStr">
+        <is>
+          <t>[757.6768788698187, 611.7008378727035, 618.3731369030423]</t>
+        </is>
+      </c>
     </row>
     <row r="344">
       <c r="A344" t="n">
@@ -14718,10 +15222,22 @@
           <t>NM</t>
         </is>
       </c>
-      <c r="H344" t="inlineStr"/>
-      <c r="I344" t="inlineStr"/>
-      <c r="J344" t="inlineStr"/>
-      <c r="K344" t="inlineStr"/>
+      <c r="H344" t="n">
+        <v>86663.98088870711</v>
+      </c>
+      <c r="I344" t="n">
+        <v>99.97428842454143</v>
+      </c>
+      <c r="J344" t="inlineStr">
+        <is>
+          <t>[567.4791359796347, 531.4616209842437, 542.1204773530221, 444.8877443980891, 437.0057625586677, 686.3583179997576, 493.21075456028535, 443.26801502809826, 344.12744138812144, 589.1806795057364]</t>
+        </is>
+      </c>
+      <c r="K344" t="inlineStr">
+        <is>
+          <t>[237.53550150752784, 297.84218247707975, 154.0469878361017, 209.58882941068467, 247.66176561356838, 307.3791645880545, 224.03008364934536, 174.0895619876597, 205.0857752650228, 337.51675326193174]</t>
+        </is>
+      </c>
     </row>
     <row r="345">
       <c r="A345" t="n">
@@ -14749,10 +15265,22 @@
           <t>GA</t>
         </is>
       </c>
-      <c r="H345" t="inlineStr"/>
-      <c r="I345" t="inlineStr"/>
-      <c r="J345" t="inlineStr"/>
-      <c r="K345" t="inlineStr"/>
+      <c r="H345" t="n">
+        <v>94088.73004210457</v>
+      </c>
+      <c r="I345" t="n">
+        <v>94.20758824016121</v>
+      </c>
+      <c r="J345" t="inlineStr">
+        <is>
+          <t>[653.99, 30.89, 293.38]</t>
+        </is>
+      </c>
+      <c r="K345" t="inlineStr">
+        <is>
+          <t>[274.4556306242129, 15.6236070034276, 140.77742523394897]</t>
+        </is>
+      </c>
     </row>
     <row r="346">
       <c r="A346" t="n">
@@ -14780,10 +15308,22 @@
           <t>ACO</t>
         </is>
       </c>
-      <c r="H346" t="inlineStr"/>
-      <c r="I346" t="inlineStr"/>
-      <c r="J346" t="inlineStr"/>
-      <c r="K346" t="inlineStr"/>
+      <c r="H346" t="n">
+        <v>111585.4440337171</v>
+      </c>
+      <c r="I346" t="n">
+        <v>99.88755012686893</v>
+      </c>
+      <c r="J346" t="inlineStr">
+        <is>
+          <t>[600.0, 380.0, 625.0, 530.0, 430.0, 955.0, 400.0, 75.0, 490.0, 840.0]</t>
+        </is>
+      </c>
+      <c r="K346" t="inlineStr">
+        <is>
+          <t>[275.0, 280.0, 335.0, 120.0, 405.0, 815.0, 375.0, 40.0, 285.0, 245.0]</t>
+        </is>
+      </c>
     </row>
     <row r="347">
       <c r="A347" t="n">
@@ -14811,10 +15351,22 @@
           <t>NM</t>
         </is>
       </c>
-      <c r="H347" t="inlineStr"/>
-      <c r="I347" t="inlineStr"/>
-      <c r="J347" t="inlineStr"/>
-      <c r="K347" t="inlineStr"/>
+      <c r="H347" t="n">
+        <v>112346.8082194168</v>
+      </c>
+      <c r="I347" t="n">
+        <v>94.54785909990657</v>
+      </c>
+      <c r="J347" t="inlineStr">
+        <is>
+          <t>[1472.9292810756092, 1006.1639212994062, 1204.098000740516]</t>
+        </is>
+      </c>
+      <c r="K347" t="inlineStr">
+        <is>
+          <t>[926.2523332179502, 996.7453032360029, 411.9134208012242]</t>
+        </is>
+      </c>
     </row>
     <row r="348">
       <c r="A348" t="n">
@@ -14842,10 +15394,22 @@
           <t>NM</t>
         </is>
       </c>
-      <c r="H348" t="inlineStr"/>
-      <c r="I348" t="inlineStr"/>
-      <c r="J348" t="inlineStr"/>
-      <c r="K348" t="inlineStr"/>
+      <c r="H348" t="n">
+        <v>149906.6325473688</v>
+      </c>
+      <c r="I348" t="n">
+        <v>89.61397697700279</v>
+      </c>
+      <c r="J348" t="inlineStr">
+        <is>
+          <t>[978.8298100926603, 689.2937570117404, 442.0068664428521, 190.08785724456416, 645.3287614738803]</t>
+        </is>
+      </c>
+      <c r="K348" t="inlineStr">
+        <is>
+          <t>[805.0015403977523, 184.2582777093765, 208.01965357348712, 81.52456534404024, 169.53618826317674]</t>
+        </is>
+      </c>
     </row>
     <row r="349">
       <c r="A349" t="n">
@@ -14873,10 +15437,22 @@
           <t>NM</t>
         </is>
       </c>
-      <c r="H349" t="inlineStr"/>
-      <c r="I349" t="inlineStr"/>
-      <c r="J349" t="inlineStr"/>
-      <c r="K349" t="inlineStr"/>
+      <c r="H349" t="n">
+        <v>154558.2798406866</v>
+      </c>
+      <c r="I349" t="n">
+        <v>91.73762769258337</v>
+      </c>
+      <c r="J349" t="inlineStr">
+        <is>
+          <t>[356.47701329970937, 563.2131690073626, 660.9009778814005, 379.0715514867819, 353.48944198892553, 738.8980135191906, 577.3189518996072, 332.869285925284, 542.5501827906955, 552.1240900405961]</t>
+        </is>
+      </c>
+      <c r="K349" t="inlineStr">
+        <is>
+          <t>[203.7626243035349, 233.58661876251364, 288.2972895623973, 169.89707474819323, 163.851745790788, 285.4285223725449, 337.8668226350249, 175.90048835917344, 212.9002503138435, 249.10654311433808]</t>
+        </is>
+      </c>
     </row>
     <row r="350">
       <c r="A350" t="n">
@@ -14904,10 +15480,22 @@
           <t>RD</t>
         </is>
       </c>
-      <c r="H350" t="inlineStr"/>
-      <c r="I350" t="inlineStr"/>
-      <c r="J350" t="inlineStr"/>
-      <c r="K350" t="inlineStr"/>
+      <c r="H350" t="n">
+        <v>113960.8277999354</v>
+      </c>
+      <c r="I350" t="n">
+        <v>95.00743989007044</v>
+      </c>
+      <c r="J350" t="inlineStr">
+        <is>
+          <t>[896.3506606269503, 837.4570764490085, 994.3737968266083]</t>
+        </is>
+      </c>
+      <c r="K350" t="inlineStr">
+        <is>
+          <t>[799.2604008544963, 723.486309616458, 943.6847036331864]</t>
+        </is>
+      </c>
     </row>
     <row r="351">
       <c r="A351" t="n">
@@ -14935,10 +15523,22 @@
           <t>RD</t>
         </is>
       </c>
-      <c r="H351" t="inlineStr"/>
-      <c r="I351" t="inlineStr"/>
-      <c r="J351" t="inlineStr"/>
-      <c r="K351" t="inlineStr"/>
+      <c r="H351" t="n">
+        <v>117281.4430254873</v>
+      </c>
+      <c r="I351" t="n">
+        <v>97.39941074579171</v>
+      </c>
+      <c r="J351" t="inlineStr">
+        <is>
+          <t>[750.3138675363563, 896.2602318847415, 386.45533247685216, 241.86594012414443, 739.2951648136111, 887.0248708023084, 290.3322468390286, 893.784771172116, 516.1410068581017, 765.7062951268158]</t>
+        </is>
+      </c>
+      <c r="K351" t="inlineStr">
+        <is>
+          <t>[249.8189339205584, 731.5976244220639, 166.17201936332862, 124.27131676879723, 452.25383347790006, 585.3275603654185, 158.29245259748316, 570.8293985410079, 274.3013200339228, 313.33925357466364]</t>
+        </is>
+      </c>
     </row>
     <row r="352">
       <c r="A352" t="n">
@@ -14966,10 +15566,22 @@
           <t>RD</t>
         </is>
       </c>
-      <c r="H352" t="inlineStr"/>
-      <c r="I352" t="inlineStr"/>
-      <c r="J352" t="inlineStr"/>
-      <c r="K352" t="inlineStr"/>
+      <c r="H352" t="n">
+        <v>129404.5594928653</v>
+      </c>
+      <c r="I352" t="n">
+        <v>91.30916421669572</v>
+      </c>
+      <c r="J352" t="inlineStr">
+        <is>
+          <t>[890.2547662163238, 361.984794702961, 891.2246188849199]</t>
+        </is>
+      </c>
+      <c r="K352" t="inlineStr">
+        <is>
+          <t>[843.7594532647586, 232.43994023836964, 812.1425126821332]</t>
+        </is>
+      </c>
     </row>
     <row r="353">
       <c r="A353" t="n">
@@ -14997,10 +15609,22 @@
           <t>NM</t>
         </is>
       </c>
-      <c r="H353" t="inlineStr"/>
-      <c r="I353" t="inlineStr"/>
-      <c r="J353" t="inlineStr"/>
-      <c r="K353" t="inlineStr"/>
+      <c r="H353" t="n">
+        <v>87110.44529273186</v>
+      </c>
+      <c r="I353" t="n">
+        <v>97.13198497895173</v>
+      </c>
+      <c r="J353" t="inlineStr">
+        <is>
+          <t>[463.3248915095212, 943.5207070142667, 209.91237898136643]</t>
+        </is>
+      </c>
+      <c r="K353" t="inlineStr">
+        <is>
+          <t>[368.79208517546095, 563.9012321535495, 165.63189772160263]</t>
+        </is>
+      </c>
     </row>
     <row r="354">
       <c r="A354" t="n">
@@ -15028,10 +15652,22 @@
           <t>RD</t>
         </is>
       </c>
-      <c r="H354" t="inlineStr"/>
-      <c r="I354" t="inlineStr"/>
-      <c r="J354" t="inlineStr"/>
-      <c r="K354" t="inlineStr"/>
+      <c r="H354" t="n">
+        <v>101138.964600336</v>
+      </c>
+      <c r="I354" t="n">
+        <v>99.17473093043282</v>
+      </c>
+      <c r="J354" t="inlineStr">
+        <is>
+          <t>[782.9588807457254, 776.9033606051878, 340.13306384030517, 815.0791614842891, 794.4448131118385, 162.98285442190553, 108.66766130281336, 292.5439918682736, 100.87731842488911, 133.7044432186154]</t>
+        </is>
+      </c>
+      <c r="K354" t="inlineStr">
+        <is>
+          <t>[675.0552897741454, 292.2162577081376, 96.53385895498585, 527.0136594593594, 638.3025111119879, 34.81926862403018, 19.721743880217385, 183.23565379248163, 18.773834061972863, 20.172961276025163]</t>
+        </is>
+      </c>
     </row>
     <row r="355">
       <c r="A355" t="n">
@@ -15059,10 +15695,22 @@
           <t>ACO</t>
         </is>
       </c>
-      <c r="H355" t="inlineStr"/>
-      <c r="I355" t="inlineStr"/>
-      <c r="J355" t="inlineStr"/>
-      <c r="K355" t="inlineStr"/>
+      <c r="H355" t="n">
+        <v>107217.2838325449</v>
+      </c>
+      <c r="I355" t="n">
+        <v>99.31543650327851</v>
+      </c>
+      <c r="J355" t="inlineStr">
+        <is>
+          <t>[945.0, 740.0, 490.0, 310.0, 265.0, 315.0, 875.0, 280.0, 65.0, 725.0]</t>
+        </is>
+      </c>
+      <c r="K355" t="inlineStr">
+        <is>
+          <t>[780.0, 715.0, 30.0, 190.0, 155.0, 315.0, 275.0, 240.0, 10.0, 20.0]</t>
+        </is>
+      </c>
     </row>
     <row r="356">
       <c r="A356" t="n">
@@ -15090,10 +15738,22 @@
           <t>NM</t>
         </is>
       </c>
-      <c r="H356" t="inlineStr"/>
-      <c r="I356" t="inlineStr"/>
-      <c r="J356" t="inlineStr"/>
-      <c r="K356" t="inlineStr"/>
+      <c r="H356" t="n">
+        <v>94998.35461933208</v>
+      </c>
+      <c r="I356" t="n">
+        <v>99.55435942983192</v>
+      </c>
+      <c r="J356" t="inlineStr">
+        <is>
+          <t>[583.2771304823451, 694.3277816911971, 314.4435364785394, 579.8935182910859, 477.30305810574873, 624.1222483047865, 392.0594490279079, 489.4040426056705, 637.9239145808604, 543.402740715913]</t>
+        </is>
+      </c>
+      <c r="K356" t="inlineStr">
+        <is>
+          <t>[311.7655751091768, 448.7301359687958, 100.13663755040481, 379.32701135014366, 306.7947697417406, 313.3109986140831, 192.6872022762812, 309.91867476940143, 413.7440241178791, 317.90579717931206]</t>
+        </is>
+      </c>
     </row>
     <row r="357">
       <c r="A357" t="n">
@@ -15121,10 +15781,22 @@
           <t>NM</t>
         </is>
       </c>
-      <c r="H357" t="inlineStr"/>
-      <c r="I357" t="inlineStr"/>
-      <c r="J357" t="inlineStr"/>
-      <c r="K357" t="inlineStr"/>
+      <c r="H357" t="n">
+        <v>59288.31291666973</v>
+      </c>
+      <c r="I357" t="n">
+        <v>99.88406176998957</v>
+      </c>
+      <c r="J357" t="inlineStr">
+        <is>
+          <t>[918.3275924974107, 589.266781693615, 1223.0891302319985]</t>
+        </is>
+      </c>
+      <c r="K357" t="inlineStr">
+        <is>
+          <t>[710.1270648720412, 386.2503070889556, 1088.4932901699533]</t>
+        </is>
+      </c>
     </row>
     <row r="358">
       <c r="A358" t="n">
@@ -15152,10 +15824,22 @@
           <t>NM</t>
         </is>
       </c>
-      <c r="H358" t="inlineStr"/>
-      <c r="I358" t="inlineStr"/>
-      <c r="J358" t="inlineStr"/>
-      <c r="K358" t="inlineStr"/>
+      <c r="H358" t="n">
+        <v>61355.91434404998</v>
+      </c>
+      <c r="I358" t="n">
+        <v>98.93559532968429</v>
+      </c>
+      <c r="J358" t="inlineStr">
+        <is>
+          <t>[1464.5905655359356, 878.1882490510554, 147.2104509064556]</t>
+        </is>
+      </c>
+      <c r="K358" t="inlineStr">
+        <is>
+          <t>[843.7840030347082, 562.1517694585336, 142.844995249113]</t>
+        </is>
+      </c>
     </row>
     <row r="359">
       <c r="A359" t="n">
@@ -15183,10 +15867,22 @@
           <t>ACO</t>
         </is>
       </c>
-      <c r="H359" t="inlineStr"/>
-      <c r="I359" t="inlineStr"/>
-      <c r="J359" t="inlineStr"/>
-      <c r="K359" t="inlineStr"/>
+      <c r="H359" t="n">
+        <v>235395.1306085632</v>
+      </c>
+      <c r="I359" t="n">
+        <v>80.06501014057457</v>
+      </c>
+      <c r="J359" t="inlineStr">
+        <is>
+          <t>[875.0, 925.0, 865.0]</t>
+        </is>
+      </c>
+      <c r="K359" t="inlineStr">
+        <is>
+          <t>[860.0, 650.0, 585.0]</t>
+        </is>
+      </c>
     </row>
     <row r="360">
       <c r="A360" t="n">
@@ -15214,10 +15910,22 @@
           <t>ACO</t>
         </is>
       </c>
-      <c r="H360" t="inlineStr"/>
-      <c r="I360" t="inlineStr"/>
-      <c r="J360" t="inlineStr"/>
-      <c r="K360" t="inlineStr"/>
+      <c r="H360" t="n">
+        <v>116049.6488286503</v>
+      </c>
+      <c r="I360" t="n">
+        <v>93.88564479259983</v>
+      </c>
+      <c r="J360" t="inlineStr">
+        <is>
+          <t>[890.0, 770.0, 315.0, 300.0, 250.0]</t>
+        </is>
+      </c>
+      <c r="K360" t="inlineStr">
+        <is>
+          <t>[350.0, 640.0, 245.0, 215.0, 185.0]</t>
+        </is>
+      </c>
     </row>
     <row r="361">
       <c r="A361" t="n">
@@ -15245,10 +15953,22 @@
           <t>GA</t>
         </is>
       </c>
-      <c r="H361" t="inlineStr"/>
-      <c r="I361" t="inlineStr"/>
-      <c r="J361" t="inlineStr"/>
-      <c r="K361" t="inlineStr"/>
+      <c r="H361" t="n">
+        <v>127997.8806582558</v>
+      </c>
+      <c r="I361" t="n">
+        <v>99.842465888349</v>
+      </c>
+      <c r="J361" t="inlineStr">
+        <is>
+          <t>[538.23, 381.72, 603.23, 409.71, 960.76, 931.53, 693.47, 922.29, 729.63, 388.59]</t>
+        </is>
+      </c>
+      <c r="K361" t="inlineStr">
+        <is>
+          <t>[495.76782240220115, 313.57284845428285, 510.2476620104374, 266.0365491652892, 41.00239003473705, 51.73626303944456, 342.5173023945865, 318.9415556981169, 395.8646747040255, 61.06267859352897]</t>
+        </is>
+      </c>
     </row>
     <row r="362">
       <c r="A362" t="n">
@@ -15276,10 +15996,22 @@
           <t>NM</t>
         </is>
       </c>
-      <c r="H362" t="inlineStr"/>
-      <c r="I362" t="inlineStr"/>
-      <c r="J362" t="inlineStr"/>
-      <c r="K362" t="inlineStr"/>
+      <c r="H362" t="n">
+        <v>158983.7055663622</v>
+      </c>
+      <c r="I362" t="n">
+        <v>88.19279461945094</v>
+      </c>
+      <c r="J362" t="inlineStr">
+        <is>
+          <t>[680.8786269612185, 449.1146865282462, 515.9754376977851, 592.5588168939778, 421.1517747041589]</t>
+        </is>
+      </c>
+      <c r="K362" t="inlineStr">
+        <is>
+          <t>[496.3861949188512, 324.42781824741786, 253.43115174769065, 131.90819555234788, 125.22388201923927]</t>
+        </is>
+      </c>
     </row>
     <row r="363">
       <c r="A363" t="n">
@@ -15307,10 +16039,22 @@
           <t>ACO</t>
         </is>
       </c>
-      <c r="H363" t="inlineStr"/>
-      <c r="I363" t="inlineStr"/>
-      <c r="J363" t="inlineStr"/>
-      <c r="K363" t="inlineStr"/>
+      <c r="H363" t="n">
+        <v>109331.8584728844</v>
+      </c>
+      <c r="I363" t="n">
+        <v>98.26095576463368</v>
+      </c>
+      <c r="J363" t="inlineStr">
+        <is>
+          <t>[290.0, 275.0, 925.0, 365.0, 620.0, 295.0, 445.0, 630.0, 580.0, 760.0]</t>
+        </is>
+      </c>
+      <c r="K363" t="inlineStr">
+        <is>
+          <t>[140.0, 255.0, 490.0, 105.0, 295.0, 60.0, 385.0, 265.0, 550.0, 280.0]</t>
+        </is>
+      </c>
     </row>
     <row r="364">
       <c r="A364" t="n">
@@ -15338,10 +16082,22 @@
           <t>ACO</t>
         </is>
       </c>
-      <c r="H364" t="inlineStr"/>
-      <c r="I364" t="inlineStr"/>
-      <c r="J364" t="inlineStr"/>
-      <c r="K364" t="inlineStr"/>
+      <c r="H364" t="n">
+        <v>74411.53450897147</v>
+      </c>
+      <c r="I364" t="n">
+        <v>97.60907661144618</v>
+      </c>
+      <c r="J364" t="inlineStr">
+        <is>
+          <t>[920.0, 715.0, 135.0]</t>
+        </is>
+      </c>
+      <c r="K364" t="inlineStr">
+        <is>
+          <t>[700.0, 410.0, 110.0]</t>
+        </is>
+      </c>
     </row>
     <row r="365">
       <c r="A365" t="n">
@@ -15369,10 +16125,22 @@
           <t>GA</t>
         </is>
       </c>
-      <c r="H365" t="inlineStr"/>
-      <c r="I365" t="inlineStr"/>
-      <c r="J365" t="inlineStr"/>
-      <c r="K365" t="inlineStr"/>
+      <c r="H365" t="n">
+        <v>113833.745441119</v>
+      </c>
+      <c r="I365" t="n">
+        <v>100</v>
+      </c>
+      <c r="J365" t="inlineStr">
+        <is>
+          <t>[825.46, 274.21, 566.96, 113.04, 578.32, 347.58, 839.66, 630.55, 737.14, 901.16]</t>
+        </is>
+      </c>
+      <c r="K365" t="inlineStr">
+        <is>
+          <t>[319.9267040904972, 89.43590080692385, 542.3358327294526, 31.71366239922402, 70.60750382388356, 67.4453034078332, 364.1131979129611, 3.507208830450418, 587.3112946580882, 700.5284827460849]</t>
+        </is>
+      </c>
     </row>
     <row r="366">
       <c r="A366" t="n">
@@ -15400,10 +16168,22 @@
           <t>NM</t>
         </is>
       </c>
-      <c r="H366" t="inlineStr"/>
-      <c r="I366" t="inlineStr"/>
-      <c r="J366" t="inlineStr"/>
-      <c r="K366" t="inlineStr"/>
+      <c r="H366" t="n">
+        <v>158166.4457967166</v>
+      </c>
+      <c r="I366" t="n">
+        <v>87.46098728261993</v>
+      </c>
+      <c r="J366" t="inlineStr">
+        <is>
+          <t>[298.6656518662981, 354.06857323853615, 268.8934526608701]</t>
+        </is>
+      </c>
+      <c r="K366" t="inlineStr">
+        <is>
+          <t>[109.96035517597427, 221.92957857532184, 33.42479774320958]</t>
+        </is>
+      </c>
     </row>
     <row r="367">
       <c r="A367" t="n">
@@ -15431,10 +16211,22 @@
           <t>RD</t>
         </is>
       </c>
-      <c r="H367" t="inlineStr"/>
-      <c r="I367" t="inlineStr"/>
-      <c r="J367" t="inlineStr"/>
-      <c r="K367" t="inlineStr"/>
+      <c r="H367" t="n">
+        <v>103420.5679278754</v>
+      </c>
+      <c r="I367" t="n">
+        <v>99.03859121715757</v>
+      </c>
+      <c r="J367" t="inlineStr">
+        <is>
+          <t>[559.3096923975052, 315.2626971401518, 202.74411473066812, 648.3112742906022, 372.34754163776927, 447.1620602188795, 309.52963775058817, 951.1405259942426, 482.9788332023328, 443.0638774701982]</t>
+        </is>
+      </c>
+      <c r="K367" t="inlineStr">
+        <is>
+          <t>[398.3306265277771, 77.34296979600131, 158.23694325428883, 598.6502059903463, 205.13201189850213, 224.85198116793248, 204.30527461296313, 860.6075707501345, 233.5949186492596, 274.15301272470583]</t>
+        </is>
+      </c>
     </row>
     <row r="368">
       <c r="A368" t="n">
@@ -15462,10 +16254,22 @@
           <t>RD</t>
         </is>
       </c>
-      <c r="H368" t="inlineStr"/>
-      <c r="I368" t="inlineStr"/>
-      <c r="J368" t="inlineStr"/>
-      <c r="K368" t="inlineStr"/>
+      <c r="H368" t="n">
+        <v>172164.8281354707</v>
+      </c>
+      <c r="I368" t="n">
+        <v>86.76567052288954</v>
+      </c>
+      <c r="J368" t="inlineStr">
+        <is>
+          <t>[986.5591983483288, 815.9834703842777, 296.57099454123716]</t>
+        </is>
+      </c>
+      <c r="K368" t="inlineStr">
+        <is>
+          <t>[948.9531754420005, 551.6174624649052, 37.266782818905924]</t>
+        </is>
+      </c>
     </row>
     <row r="369">
       <c r="A369" t="n">
@@ -15493,10 +16297,22 @@
           <t>ACO</t>
         </is>
       </c>
-      <c r="H369" t="inlineStr"/>
-      <c r="I369" t="inlineStr"/>
-      <c r="J369" t="inlineStr"/>
-      <c r="K369" t="inlineStr"/>
+      <c r="H369" t="n">
+        <v>162450.7161889074</v>
+      </c>
+      <c r="I369" t="n">
+        <v>87.90236018781076</v>
+      </c>
+      <c r="J369" t="inlineStr">
+        <is>
+          <t>[995.0, 175.0, 205.0]</t>
+        </is>
+      </c>
+      <c r="K369" t="inlineStr">
+        <is>
+          <t>[990.0, 175.0, 140.0]</t>
+        </is>
+      </c>
     </row>
     <row r="370">
       <c r="A370" t="n">
@@ -15524,10 +16340,22 @@
           <t>NM</t>
         </is>
       </c>
-      <c r="H370" t="inlineStr"/>
-      <c r="I370" t="inlineStr"/>
-      <c r="J370" t="inlineStr"/>
-      <c r="K370" t="inlineStr"/>
+      <c r="H370" t="n">
+        <v>91552.71527245418</v>
+      </c>
+      <c r="I370" t="n">
+        <v>99.8833357912698</v>
+      </c>
+      <c r="J370" t="inlineStr">
+        <is>
+          <t>[573.8196066310647, 629.5031227409854, 460.6730545005538, 636.0113724001868, 635.8030016980074, 489.44436699464234, 446.7452092839714, 544.8518868430631, 703.3638331774378, 521.2619175918887]</t>
+        </is>
+      </c>
+      <c r="K370" t="inlineStr">
+        <is>
+          <t>[281.7125396247263, 309.5339208052447, 240.20493433686443, 324.8581253330611, 379.5677529312842, 215.49697444376739, 192.81031861641233, 173.6453503843661, 422.3836021617004, 247.92042204589714]</t>
+        </is>
+      </c>
     </row>
     <row r="371">
       <c r="A371" t="n">
@@ -15555,10 +16383,22 @@
           <t>ACO</t>
         </is>
       </c>
-      <c r="H371" t="inlineStr"/>
-      <c r="I371" t="inlineStr"/>
-      <c r="J371" t="inlineStr"/>
-      <c r="K371" t="inlineStr"/>
+      <c r="H371" t="n">
+        <v>118045.6578115943</v>
+      </c>
+      <c r="I371" t="n">
+        <v>98.50233598751031</v>
+      </c>
+      <c r="J371" t="inlineStr">
+        <is>
+          <t>[1000.0, 935.0, 520.0, 650.0, 380.0, 940.0, 590.0, 890.0, 520.0, 820.0]</t>
+        </is>
+      </c>
+      <c r="K371" t="inlineStr">
+        <is>
+          <t>[480.0, 260.0, 175.0, 455.0, 325.0, 655.0, 415.0, 680.0, 205.0, 565.0]</t>
+        </is>
+      </c>
     </row>
     <row r="372">
       <c r="A372" t="n">
@@ -15586,10 +16426,22 @@
           <t>NM</t>
         </is>
       </c>
-      <c r="H372" t="inlineStr"/>
-      <c r="I372" t="inlineStr"/>
-      <c r="J372" t="inlineStr"/>
-      <c r="K372" t="inlineStr"/>
+      <c r="H372" t="n">
+        <v>110956.7241499865</v>
+      </c>
+      <c r="I372" t="n">
+        <v>98.87300863523677</v>
+      </c>
+      <c r="J372" t="inlineStr">
+        <is>
+          <t>[910.6335512212909, 906.0070040904868, 479.43783090572225, 866.5911761873475, 533.1467946925425, 315.01469577970136, 486.6955493325429, 736.6401584782488, 433.2309877269486, 75.13574687471484]</t>
+        </is>
+      </c>
+      <c r="K372" t="inlineStr">
+        <is>
+          <t>[678.6439179588938, 605.4037813720054, 195.1971725523429, 668.7386035154535, 483.5093469226263, 140.5038125773687, 280.20529467477155, 497.77305524069556, 322.82579643383497, 21.233385214718034]</t>
+        </is>
+      </c>
     </row>
     <row r="373">
       <c r="A373" t="n">
@@ -15617,10 +16469,22 @@
           <t>NM</t>
         </is>
       </c>
-      <c r="H373" t="inlineStr"/>
-      <c r="I373" t="inlineStr"/>
-      <c r="J373" t="inlineStr"/>
-      <c r="K373" t="inlineStr"/>
+      <c r="H373" t="n">
+        <v>83467.98708471679</v>
+      </c>
+      <c r="I373" t="n">
+        <v>99.2732584832786</v>
+      </c>
+      <c r="J373" t="inlineStr">
+        <is>
+          <t>[436.6016017906619, 983.4660665758572, 698.0490130378499, 1184.7171087681918, 664.2706443618245]</t>
+        </is>
+      </c>
+      <c r="K373" t="inlineStr">
+        <is>
+          <t>[382.5477628635186, 796.3509400314165, 486.60933392442456, 321.3224298689159, 616.988375968976]</t>
+        </is>
+      </c>
     </row>
     <row r="374">
       <c r="A374" t="n">
@@ -15648,10 +16512,22 @@
           <t>RD</t>
         </is>
       </c>
-      <c r="H374" t="inlineStr"/>
-      <c r="I374" t="inlineStr"/>
-      <c r="J374" t="inlineStr"/>
-      <c r="K374" t="inlineStr"/>
+      <c r="H374" t="n">
+        <v>97057.48723939202</v>
+      </c>
+      <c r="I374" t="n">
+        <v>100</v>
+      </c>
+      <c r="J374" t="inlineStr">
+        <is>
+          <t>[953.392994508611, 535.661614976348, 216.13014754866379, 371.6155729603905, 466.7943293128206, 415.4485417418374, 353.8320115772097, 803.7006922542258, 649.2109334367539, 119.89066309325302]</t>
+        </is>
+      </c>
+      <c r="K374" t="inlineStr">
+        <is>
+          <t>[626.5336581332572, 472.42439715257296, 153.0978622459136, 169.83618078434506, 312.057208602038, 91.24330614936282, 71.9480030097897, 477.54935132260346, 280.71520450582153, 100.34956212268096]</t>
+        </is>
+      </c>
     </row>
     <row r="375">
       <c r="A375" t="n">
@@ -15679,10 +16555,22 @@
           <t>GA</t>
         </is>
       </c>
-      <c r="H375" t="inlineStr"/>
-      <c r="I375" t="inlineStr"/>
-      <c r="J375" t="inlineStr"/>
-      <c r="K375" t="inlineStr"/>
+      <c r="H375" t="n">
+        <v>104287.2535130958</v>
+      </c>
+      <c r="I375" t="n">
+        <v>99.17233112597125</v>
+      </c>
+      <c r="J375" t="inlineStr">
+        <is>
+          <t>[974.26, 991.18, 300.99, 980.73, 611.44, 899.94, 360.43, 602.04, 708.82, 313.12]</t>
+        </is>
+      </c>
+      <c r="K375" t="inlineStr">
+        <is>
+          <t>[36.814748769068395, 357.85070114744127, 257.16376898577636, 834.6315771657877, 498.5549840448138, 426.1875452418785, 19.995920785099823, 480.9434965952881, 378.4518418390108, 269.3524869733459]</t>
+        </is>
+      </c>
     </row>
     <row r="376">
       <c r="A376" t="n">
@@ -15710,10 +16598,22 @@
           <t>NM</t>
         </is>
       </c>
-      <c r="H376" t="inlineStr"/>
-      <c r="I376" t="inlineStr"/>
-      <c r="J376" t="inlineStr"/>
-      <c r="K376" t="inlineStr"/>
+      <c r="H376" t="n">
+        <v>87733.95125056502</v>
+      </c>
+      <c r="I376" t="n">
+        <v>98.47192985082086</v>
+      </c>
+      <c r="J376" t="inlineStr">
+        <is>
+          <t>[1861.4081768606036, 2239.8541326336863, 1507.8381905416566]</t>
+        </is>
+      </c>
+      <c r="K376" t="inlineStr">
+        <is>
+          <t>[1295.0165190715536, 999.9225062131138, 501.6443706528617]</t>
+        </is>
+      </c>
     </row>
     <row r="377">
       <c r="A377" t="n">
@@ -15741,10 +16641,22 @@
           <t>NM</t>
         </is>
       </c>
-      <c r="H377" t="inlineStr"/>
-      <c r="I377" t="inlineStr"/>
-      <c r="J377" t="inlineStr"/>
-      <c r="K377" t="inlineStr"/>
+      <c r="H377" t="n">
+        <v>105488.0367291167</v>
+      </c>
+      <c r="I377" t="n">
+        <v>99.99173116119691</v>
+      </c>
+      <c r="J377" t="inlineStr">
+        <is>
+          <t>[637.9876110022994, 420.8676421805162, 546.477368397581, 871.2133314037682, 675.9344683371975, 887.1924106050598, 760.8086792521242, 691.6855505424961, 419.52306933653506, 723.5099469574166]</t>
+        </is>
+      </c>
+      <c r="K377" t="inlineStr">
+        <is>
+          <t>[302.13763235887893, 244.0166842535131, 323.1635984876925, 446.4917983740265, 387.66360920804584, 548.3384149574636, 541.9831130337875, 369.83814824538274, 274.1865864466707, 375.6342242535335]</t>
+        </is>
+      </c>
     </row>
     <row r="378">
       <c r="A378" t="n">
@@ -15772,10 +16684,22 @@
           <t>RD</t>
         </is>
       </c>
-      <c r="H378" t="inlineStr"/>
-      <c r="I378" t="inlineStr"/>
-      <c r="J378" t="inlineStr"/>
-      <c r="K378" t="inlineStr"/>
+      <c r="H378" t="n">
+        <v>108968.3022516479</v>
+      </c>
+      <c r="I378" t="n">
+        <v>99.33358884588239</v>
+      </c>
+      <c r="J378" t="inlineStr">
+        <is>
+          <t>[100.4179621824124, 429.83998574319725, 398.28234221516965, 381.0239583037236, 777.0485611830283, 570.087313150117, 993.2541696624047, 863.6835228394456, 412.58320387007586, 660.4730375969297]</t>
+        </is>
+      </c>
+      <c r="K378" t="inlineStr">
+        <is>
+          <t>[48.21706987168253, 96.57332067649563, 269.48795063266715, 95.14928022449499, 381.36129377475646, 396.0720270917267, 871.4051019964697, 613.016927230371, 320.2626541675762, 367.870123546893]</t>
+        </is>
+      </c>
     </row>
     <row r="379">
       <c r="A379" t="n">
@@ -15803,10 +16727,22 @@
           <t>NM</t>
         </is>
       </c>
-      <c r="H379" t="inlineStr"/>
-      <c r="I379" t="inlineStr"/>
-      <c r="J379" t="inlineStr"/>
-      <c r="K379" t="inlineStr"/>
+      <c r="H379" t="n">
+        <v>90210.30543863506</v>
+      </c>
+      <c r="I379" t="n">
+        <v>99.45450145612284</v>
+      </c>
+      <c r="J379" t="inlineStr">
+        <is>
+          <t>[527.2697775805444, 433.59949245557067, 399.3655746222712, 573.0509659934664, 485.35251544222984, 413.1203126862151, 384.22891590501354, 498.1750431708166, 455.5995585079186, 667.5440452107943]</t>
+        </is>
+      </c>
+      <c r="K379" t="inlineStr">
+        <is>
+          <t>[343.41452067998944, 196.19816826812337, 245.24943464956294, 382.67346534979686, 221.68849300228672, 206.57405999421943, 128.34248844121515, 251.62011616846473, 245.0068210964004, 512.7918538479973]</t>
+        </is>
+      </c>
     </row>
     <row r="380">
       <c r="A380" t="n">
@@ -15834,10 +16770,22 @@
           <t>GA</t>
         </is>
       </c>
-      <c r="H380" t="inlineStr"/>
-      <c r="I380" t="inlineStr"/>
-      <c r="J380" t="inlineStr"/>
-      <c r="K380" t="inlineStr"/>
+      <c r="H380" t="n">
+        <v>98444.80623700032</v>
+      </c>
+      <c r="I380" t="n">
+        <v>99.26593647411795</v>
+      </c>
+      <c r="J380" t="inlineStr">
+        <is>
+          <t>[158.59, 233.16, 482.39, 619.44, 193.42, 419.72, 158.41, 320.52, 520.62, 313.99]</t>
+        </is>
+      </c>
+      <c r="K380" t="inlineStr">
+        <is>
+          <t>[27.98646758699491, 131.5526824123984, 454.4328264576537, 250.15542708045837, 89.22361979140716, 163.71870202917435, 149.5227097527983, 193.19258699513927, 232.01111277210316, 0.34903506684318564]</t>
+        </is>
+      </c>
     </row>
     <row r="381">
       <c r="A381" t="n">
@@ -15865,10 +16813,22 @@
           <t>GA</t>
         </is>
       </c>
-      <c r="H381" t="inlineStr"/>
-      <c r="I381" t="inlineStr"/>
-      <c r="J381" t="inlineStr"/>
-      <c r="K381" t="inlineStr"/>
+      <c r="H381" t="n">
+        <v>127801.9757039388</v>
+      </c>
+      <c r="I381" t="n">
+        <v>92.77375706378722</v>
+      </c>
+      <c r="J381" t="inlineStr">
+        <is>
+          <t>[501.65, 943.25, 471.33]</t>
+        </is>
+      </c>
+      <c r="K381" t="inlineStr">
+        <is>
+          <t>[58.5649320272352, 305.6391086335894, 242.60881502137562]</t>
+        </is>
+      </c>
     </row>
     <row r="382">
       <c r="A382" t="n">
@@ -15896,10 +16856,22 @@
           <t>GA</t>
         </is>
       </c>
-      <c r="H382" t="inlineStr"/>
-      <c r="I382" t="inlineStr"/>
-      <c r="J382" t="inlineStr"/>
-      <c r="K382" t="inlineStr"/>
+      <c r="H382" t="n">
+        <v>106929.9086234646</v>
+      </c>
+      <c r="I382" t="n">
+        <v>97.86619057532614</v>
+      </c>
+      <c r="J382" t="inlineStr">
+        <is>
+          <t>[638.53, 775.39, 146.37, 100.45, 118.81, 855.75, 682.56, 151.71, 42.41, 732.24]</t>
+        </is>
+      </c>
+      <c r="K382" t="inlineStr">
+        <is>
+          <t>[187.33709634335452, 566.526188069482, 42.22575675899132, 92.14684675692882, 90.10866260744034, 664.5908472747578, 176.28587581846156, 42.77135434148235, 26.117395160381903, 108.88372813968454]</t>
+        </is>
+      </c>
     </row>
     <row r="383">
       <c r="A383" t="n">
@@ -15927,10 +16899,22 @@
           <t>RD</t>
         </is>
       </c>
-      <c r="H383" t="inlineStr"/>
-      <c r="I383" t="inlineStr"/>
-      <c r="J383" t="inlineStr"/>
-      <c r="K383" t="inlineStr"/>
+      <c r="H383" t="n">
+        <v>108242.0399920698</v>
+      </c>
+      <c r="I383" t="n">
+        <v>96.79893859307157</v>
+      </c>
+      <c r="J383" t="inlineStr">
+        <is>
+          <t>[844.7506649476666, 711.1329265126699, 783.0328209035295, 793.5414859777551, 644.0257982311209]</t>
+        </is>
+      </c>
+      <c r="K383" t="inlineStr">
+        <is>
+          <t>[820.6330177548122, 375.9753485338858, 526.3045538062613, 592.2934292346872, 304.8912637052217]</t>
+        </is>
+      </c>
     </row>
     <row r="384">
       <c r="A384" t="n">
@@ -15958,10 +16942,22 @@
           <t>ACO</t>
         </is>
       </c>
-      <c r="H384" t="inlineStr"/>
-      <c r="I384" t="inlineStr"/>
-      <c r="J384" t="inlineStr"/>
-      <c r="K384" t="inlineStr"/>
+      <c r="H384" t="n">
+        <v>81512.94559520819</v>
+      </c>
+      <c r="I384" t="n">
+        <v>97.95154059727346</v>
+      </c>
+      <c r="J384" t="inlineStr">
+        <is>
+          <t>[910.0, 335.0, 220.0, 755.0, 885.0]</t>
+        </is>
+      </c>
+      <c r="K384" t="inlineStr">
+        <is>
+          <t>[740.0, 150.0, 185.0, 680.0, 265.0]</t>
+        </is>
+      </c>
     </row>
     <row r="385">
       <c r="A385" t="n">
@@ -15989,10 +16985,22 @@
           <t>RD</t>
         </is>
       </c>
-      <c r="H385" t="inlineStr"/>
-      <c r="I385" t="inlineStr"/>
-      <c r="J385" t="inlineStr"/>
-      <c r="K385" t="inlineStr"/>
+      <c r="H385" t="n">
+        <v>100256.4931014992</v>
+      </c>
+      <c r="I385" t="n">
+        <v>99.53117673387499</v>
+      </c>
+      <c r="J385" t="inlineStr">
+        <is>
+          <t>[626.9185388640756, 464.33608690705296, 303.21058455931495, 192.6034419989896, 475.598028831825, 683.5164530327434, 278.22413764728583, 694.9259372325528, 478.6729822892191, 616.424071209345]</t>
+        </is>
+      </c>
+      <c r="K385" t="inlineStr">
+        <is>
+          <t>[323.85300244149494, 282.62962920432886, 254.38736079546047, 94.74609311087464, 307.1083698625786, 184.49080108013092, 218.779233269025, 81.47963737584459, 218.49989788718577, 427.0864855343315]</t>
+        </is>
+      </c>
     </row>
     <row r="386">
       <c r="A386" t="n">
@@ -16020,10 +17028,22 @@
           <t>ACO</t>
         </is>
       </c>
-      <c r="H386" t="inlineStr"/>
-      <c r="I386" t="inlineStr"/>
-      <c r="J386" t="inlineStr"/>
-      <c r="K386" t="inlineStr"/>
+      <c r="H386" t="n">
+        <v>100633.6100323381</v>
+      </c>
+      <c r="I386" t="n">
+        <v>99.11347813829941</v>
+      </c>
+      <c r="J386" t="inlineStr">
+        <is>
+          <t>[235.0, 480.0, 405.0, 150.0, 370.0, 480.0, 770.0, 430.0, 690.0, 325.0]</t>
+        </is>
+      </c>
+      <c r="K386" t="inlineStr">
+        <is>
+          <t>[135.0, 415.0, 80.0, 80.0, 245.0, 415.0, 725.0, 160.0, 495.0, 250.0]</t>
+        </is>
+      </c>
     </row>
     <row r="387">
       <c r="A387" t="n">
@@ -16051,10 +17071,22 @@
           <t>ACO</t>
         </is>
       </c>
-      <c r="H387" t="inlineStr"/>
-      <c r="I387" t="inlineStr"/>
-      <c r="J387" t="inlineStr"/>
-      <c r="K387" t="inlineStr"/>
+      <c r="H387" t="n">
+        <v>141206.0601545486</v>
+      </c>
+      <c r="I387" t="n">
+        <v>92.55407497605232</v>
+      </c>
+      <c r="J387" t="inlineStr">
+        <is>
+          <t>[830.0, 980.0, 650.0, 830.0, 930.0]</t>
+        </is>
+      </c>
+      <c r="K387" t="inlineStr">
+        <is>
+          <t>[810.0, 970.0, 520.0, 675.0, 660.0]</t>
+        </is>
+      </c>
     </row>
     <row r="388">
       <c r="A388" t="n">
@@ -16082,10 +17114,22 @@
           <t>ACO</t>
         </is>
       </c>
-      <c r="H388" t="inlineStr"/>
-      <c r="I388" t="inlineStr"/>
-      <c r="J388" t="inlineStr"/>
-      <c r="K388" t="inlineStr"/>
+      <c r="H388" t="n">
+        <v>89094.1362844676</v>
+      </c>
+      <c r="I388" t="n">
+        <v>97.22541897754417</v>
+      </c>
+      <c r="J388" t="inlineStr">
+        <is>
+          <t>[905.0, 850.0, 610.0, 555.0, 185.0]</t>
+        </is>
+      </c>
+      <c r="K388" t="inlineStr">
+        <is>
+          <t>[620.0, 680.0, 305.0, 270.0, 180.0]</t>
+        </is>
+      </c>
     </row>
     <row r="389">
       <c r="A389" t="n">
@@ -16113,10 +17157,22 @@
           <t>RD</t>
         </is>
       </c>
-      <c r="H389" t="inlineStr"/>
-      <c r="I389" t="inlineStr"/>
-      <c r="J389" t="inlineStr"/>
-      <c r="K389" t="inlineStr"/>
+      <c r="H389" t="n">
+        <v>100849.5434039796</v>
+      </c>
+      <c r="I389" t="n">
+        <v>96.66779968592746</v>
+      </c>
+      <c r="J389" t="inlineStr">
+        <is>
+          <t>[305.298468756236, 930.8000494111217, 856.5690747979015, 706.9951636949619, 905.1779007817452]</t>
+        </is>
+      </c>
+      <c r="K389" t="inlineStr">
+        <is>
+          <t>[137.09971539417407, 822.0346747759937, 701.2437261173997, 414.2296258665185, 862.5037055881011]</t>
+        </is>
+      </c>
     </row>
     <row r="390">
       <c r="A390" t="n">
@@ -16144,10 +17200,22 @@
           <t>ACO</t>
         </is>
       </c>
-      <c r="H390" t="inlineStr"/>
-      <c r="I390" t="inlineStr"/>
-      <c r="J390" t="inlineStr"/>
-      <c r="K390" t="inlineStr"/>
+      <c r="H390" t="n">
+        <v>238651.0851283834</v>
+      </c>
+      <c r="I390" t="n">
+        <v>79.69978706443568</v>
+      </c>
+      <c r="J390" t="inlineStr">
+        <is>
+          <t>[965.0, 665.0, 750.0]</t>
+        </is>
+      </c>
+      <c r="K390" t="inlineStr">
+        <is>
+          <t>[870.0, 585.0, 265.0]</t>
+        </is>
+      </c>
     </row>
     <row r="391">
       <c r="A391" t="n">
@@ -16175,10 +17243,22 @@
           <t>NM</t>
         </is>
       </c>
-      <c r="H391" t="inlineStr"/>
-      <c r="I391" t="inlineStr"/>
-      <c r="J391" t="inlineStr"/>
-      <c r="K391" t="inlineStr"/>
+      <c r="H391" t="n">
+        <v>75312.45613569229</v>
+      </c>
+      <c r="I391" t="n">
+        <v>96.60477082318948</v>
+      </c>
+      <c r="J391" t="inlineStr">
+        <is>
+          <t>[771.0044210455878, 352.16333976487766, 928.7082372502381]</t>
+        </is>
+      </c>
+      <c r="K391" t="inlineStr">
+        <is>
+          <t>[287.85167018392207, 214.7391608387634, 568.4942065664599]</t>
+        </is>
+      </c>
     </row>
     <row r="392">
       <c r="A392" t="n">

--- a/DoE/DoE - Results.xlsx
+++ b/DoE/DoE - Results.xlsx
@@ -17286,10 +17286,22 @@
           <t>NM</t>
         </is>
       </c>
-      <c r="H392" t="inlineStr"/>
-      <c r="I392" t="inlineStr"/>
-      <c r="J392" t="inlineStr"/>
-      <c r="K392" t="inlineStr"/>
+      <c r="H392" t="n">
+        <v>259532.8554573989</v>
+      </c>
+      <c r="I392" t="n">
+        <v>76.5059574621238</v>
+      </c>
+      <c r="J392" t="inlineStr">
+        <is>
+          <t>[484.592080481992, 556.278314237014, 335.6974094455866]</t>
+        </is>
+      </c>
+      <c r="K392" t="inlineStr">
+        <is>
+          <t>[251.81948125839344, 375.9057161297917, 286.68304006780903]</t>
+        </is>
+      </c>
     </row>
     <row r="393">
       <c r="A393" t="n">
@@ -17317,10 +17329,22 @@
           <t>GA</t>
         </is>
       </c>
-      <c r="H393" t="inlineStr"/>
-      <c r="I393" t="inlineStr"/>
-      <c r="J393" t="inlineStr"/>
-      <c r="K393" t="inlineStr"/>
+      <c r="H393" t="n">
+        <v>99244.4181670228</v>
+      </c>
+      <c r="I393" t="n">
+        <v>96.56639314332246</v>
+      </c>
+      <c r="J393" t="inlineStr">
+        <is>
+          <t>[184.88, 688.21, 669.32, 585.26, 105.88]</t>
+        </is>
+      </c>
+      <c r="K393" t="inlineStr">
+        <is>
+          <t>[39.19879468096161, 631.1991468783132, 471.0395272850669, 97.44080587420474, 53.301048094564344]</t>
+        </is>
+      </c>
     </row>
     <row r="394">
       <c r="A394" t="n">
@@ -17348,10 +17372,22 @@
           <t>NM</t>
         </is>
       </c>
-      <c r="H394" t="inlineStr"/>
-      <c r="I394" t="inlineStr"/>
-      <c r="J394" t="inlineStr"/>
-      <c r="K394" t="inlineStr"/>
+      <c r="H394" t="n">
+        <v>196526.531645385</v>
+      </c>
+      <c r="I394" t="n">
+        <v>83.7681032607553</v>
+      </c>
+      <c r="J394" t="inlineStr">
+        <is>
+          <t>[315.0301255987797, 697.1793701044749, 221.1054856269235]</t>
+        </is>
+      </c>
+      <c r="K394" t="inlineStr">
+        <is>
+          <t>[260.6122549513704, 236.82155243168347, 195.00291890875533]</t>
+        </is>
+      </c>
     </row>
     <row r="395">
       <c r="A395" t="n">
@@ -17379,10 +17415,22 @@
           <t>ACO</t>
         </is>
       </c>
-      <c r="H395" t="inlineStr"/>
-      <c r="I395" t="inlineStr"/>
-      <c r="J395" t="inlineStr"/>
-      <c r="K395" t="inlineStr"/>
+      <c r="H395" t="n">
+        <v>110909.1664308991</v>
+      </c>
+      <c r="I395" t="n">
+        <v>98.91821519766415</v>
+      </c>
+      <c r="J395" t="inlineStr">
+        <is>
+          <t>[510.0, 740.0, 665.0, 980.0, 295.0, 195.0, 925.0, 965.0, 395.0, 365.0]</t>
+        </is>
+      </c>
+      <c r="K395" t="inlineStr">
+        <is>
+          <t>[220.0, 250.0, 620.0, 820.0, 185.0, 160.0, 115.0, 325.0, 275.0, 155.0]</t>
+        </is>
+      </c>
     </row>
     <row r="396">
       <c r="A396" t="n">
@@ -17410,10 +17458,22 @@
           <t>RD</t>
         </is>
       </c>
-      <c r="H396" t="inlineStr"/>
-      <c r="I396" t="inlineStr"/>
-      <c r="J396" t="inlineStr"/>
-      <c r="K396" t="inlineStr"/>
+      <c r="H396" t="n">
+        <v>105739.0071775843</v>
+      </c>
+      <c r="I396" t="n">
+        <v>99.03443368319262</v>
+      </c>
+      <c r="J396" t="inlineStr">
+        <is>
+          <t>[275.953442216478, 648.9907889854475, 414.3490779179567, 557.7583636955019, 338.565975630011, 92.30622172990088, 496.4766721174938, 451.82947514019287, 51.06747223896835, 462.006782227854]</t>
+        </is>
+      </c>
+      <c r="K396" t="inlineStr">
+        <is>
+          <t>[174.87118198218243, 440.79487694893703, 245.2821344452403, 309.001159144697, 295.36550004768543, 43.945785591605485, 54.20402640211732, 335.0877857300818, 12.465541388412754, 215.4316551128452]</t>
+        </is>
+      </c>
     </row>
     <row r="397">
       <c r="A397" t="n">
@@ -17441,10 +17501,22 @@
           <t>ACO</t>
         </is>
       </c>
-      <c r="H397" t="inlineStr"/>
-      <c r="I397" t="inlineStr"/>
-      <c r="J397" t="inlineStr"/>
-      <c r="K397" t="inlineStr"/>
+      <c r="H397" t="n">
+        <v>77447.33288061098</v>
+      </c>
+      <c r="I397" t="n">
+        <v>96.55463282730685</v>
+      </c>
+      <c r="J397" t="inlineStr">
+        <is>
+          <t>[765.0, 605.0, 665.0]</t>
+        </is>
+      </c>
+      <c r="K397" t="inlineStr">
+        <is>
+          <t>[440.0, 535.0, 660.0]</t>
+        </is>
+      </c>
     </row>
     <row r="398">
       <c r="A398" t="n">
@@ -17472,10 +17544,22 @@
           <t>ACO</t>
         </is>
       </c>
-      <c r="H398" t="inlineStr"/>
-      <c r="I398" t="inlineStr"/>
-      <c r="J398" t="inlineStr"/>
-      <c r="K398" t="inlineStr"/>
+      <c r="H398" t="n">
+        <v>74093.26092595189</v>
+      </c>
+      <c r="I398" t="n">
+        <v>99.73990944995666</v>
+      </c>
+      <c r="J398" t="inlineStr">
+        <is>
+          <t>[760.0, 515.0, 870.0, 615.0, 395.0]</t>
+        </is>
+      </c>
+      <c r="K398" t="inlineStr">
+        <is>
+          <t>[580.0, 410.0, 815.0, 160.0, 215.0]</t>
+        </is>
+      </c>
     </row>
     <row r="399">
       <c r="A399" t="n">
@@ -17503,10 +17587,22 @@
           <t>GA</t>
         </is>
       </c>
-      <c r="H399" t="inlineStr"/>
-      <c r="I399" t="inlineStr"/>
-      <c r="J399" t="inlineStr"/>
-      <c r="K399" t="inlineStr"/>
+      <c r="H399" t="n">
+        <v>104715.6885741432</v>
+      </c>
+      <c r="I399" t="n">
+        <v>99.21280454917949</v>
+      </c>
+      <c r="J399" t="inlineStr">
+        <is>
+          <t>[137.06, 940.0, 729.91, 351.37, 497.79, 495.91, 34.73, 69.26, 843.35, 162.23]</t>
+        </is>
+      </c>
+      <c r="K399" t="inlineStr">
+        <is>
+          <t>[70.57033918636789, 528.076263773272, 6.571764588842614, 51.213683381456576, 342.78478985122996, 485.8686422975922, 30.4175427719367, 12.174940005276781, 542.7829462133875, 132.86811240032344]</t>
+        </is>
+      </c>
     </row>
     <row r="400">
       <c r="A400" t="n">
@@ -17534,10 +17630,22 @@
           <t>RD</t>
         </is>
       </c>
-      <c r="H400" t="inlineStr"/>
-      <c r="I400" t="inlineStr"/>
-      <c r="J400" t="inlineStr"/>
-      <c r="K400" t="inlineStr"/>
+      <c r="H400" t="n">
+        <v>145963.2975167282</v>
+      </c>
+      <c r="I400" t="n">
+        <v>89.22474195838775</v>
+      </c>
+      <c r="J400" t="inlineStr">
+        <is>
+          <t>[956.5198265451229, 573.9128697087469, 713.1352751574113]</t>
+        </is>
+      </c>
+      <c r="K400" t="inlineStr">
+        <is>
+          <t>[933.4154218884902, 464.0863410520599, 389.4859892433422]</t>
+        </is>
+      </c>
     </row>
     <row r="401">
       <c r="A401" t="n">
@@ -17565,10 +17673,22 @@
           <t>NM</t>
         </is>
       </c>
-      <c r="H401" t="inlineStr"/>
-      <c r="I401" t="inlineStr"/>
-      <c r="J401" t="inlineStr"/>
-      <c r="K401" t="inlineStr"/>
+      <c r="H401" t="n">
+        <v>95921.84243708306</v>
+      </c>
+      <c r="I401" t="n">
+        <v>99.76888110882709</v>
+      </c>
+      <c r="J401" t="inlineStr">
+        <is>
+          <t>[688.2197832604089, 403.6892979189687, 352.79715825802833, 677.6868045133853, 397.2717651822817, 583.6152947525163, 669.3485651106521, 510.58988704078956, 401.36857025541497, 645.9759679284521]</t>
+        </is>
+      </c>
+      <c r="K401" t="inlineStr">
+        <is>
+          <t>[510.48490941120406, 207.08557540722686, 167.57446703834475, 366.9754478159663, 152.38857143062623, 419.1833057340505, 362.19148345368353, 283.5715923490182, 275.40125811434154, 342.19945473248794]</t>
+        </is>
+      </c>
     </row>
     <row r="402">
       <c r="A402" t="n">
@@ -17596,10 +17716,22 @@
           <t>GA</t>
         </is>
       </c>
-      <c r="H402" t="inlineStr"/>
-      <c r="I402" t="inlineStr"/>
-      <c r="J402" t="inlineStr"/>
-      <c r="K402" t="inlineStr"/>
+      <c r="H402" t="n">
+        <v>118213.1207483698</v>
+      </c>
+      <c r="I402" t="n">
+        <v>99.88620738302309</v>
+      </c>
+      <c r="J402" t="inlineStr">
+        <is>
+          <t>[700.33, 116.45, 634.36, 556.68, 658.87, 244.39, 274.32, 155.12, 815.82, 378.48]</t>
+        </is>
+      </c>
+      <c r="K402" t="inlineStr">
+        <is>
+          <t>[369.17485236582854, 73.33388702915477, 19.03084162097691, 305.0339807722404, 149.45756603200408, 36.73890004366707, 10.64874103108795, 74.54812469119307, 46.0841300907128, 301.9459646261429]</t>
+        </is>
+      </c>
     </row>
     <row r="403">
       <c r="A403" t="n">
@@ -17627,10 +17759,22 @@
           <t>RD</t>
         </is>
       </c>
-      <c r="H403" t="inlineStr"/>
-      <c r="I403" t="inlineStr"/>
-      <c r="J403" t="inlineStr"/>
-      <c r="K403" t="inlineStr"/>
+      <c r="H403" t="n">
+        <v>71558.88446159135</v>
+      </c>
+      <c r="I403" t="n">
+        <v>98.15611734824793</v>
+      </c>
+      <c r="J403" t="inlineStr">
+        <is>
+          <t>[930.0353171236715, 906.679934024681, 796.3106455935094]</t>
+        </is>
+      </c>
+      <c r="K403" t="inlineStr">
+        <is>
+          <t>[778.3702364418955, 387.3555464410302, 622.8885527389622]</t>
+        </is>
+      </c>
     </row>
     <row r="404">
       <c r="A404" t="n">
@@ -17658,10 +17802,22 @@
           <t>NM</t>
         </is>
       </c>
-      <c r="H404" t="inlineStr"/>
-      <c r="I404" t="inlineStr"/>
-      <c r="J404" t="inlineStr"/>
-      <c r="K404" t="inlineStr"/>
+      <c r="H404" t="n">
+        <v>72734.53467282373</v>
+      </c>
+      <c r="I404" t="n">
+        <v>98.59161462609784</v>
+      </c>
+      <c r="J404" t="inlineStr">
+        <is>
+          <t>[962.0204451537103, 1419.1446741012785, 904.3890291154817]</t>
+        </is>
+      </c>
+      <c r="K404" t="inlineStr">
+        <is>
+          <t>[948.8382045997319, 1041.7237444936122, 501.4538471397134]</t>
+        </is>
+      </c>
     </row>
     <row r="405">
       <c r="A405" t="n">
@@ -17689,10 +17845,22 @@
           <t>RD</t>
         </is>
       </c>
-      <c r="H405" t="inlineStr"/>
-      <c r="I405" t="inlineStr"/>
-      <c r="J405" t="inlineStr"/>
-      <c r="K405" t="inlineStr"/>
+      <c r="H405" t="n">
+        <v>63136.38398249246</v>
+      </c>
+      <c r="I405" t="n">
+        <v>98.70905229520912</v>
+      </c>
+      <c r="J405" t="inlineStr">
+        <is>
+          <t>[945.4595784959864, 960.2870926960852, 525.2647685695683]</t>
+        </is>
+      </c>
+      <c r="K405" t="inlineStr">
+        <is>
+          <t>[869.5539801034437, 757.3544792036671, 354.02643331773487]</t>
+        </is>
+      </c>
     </row>
     <row r="406">
       <c r="A406" t="n">
@@ -17720,10 +17888,22 @@
           <t>GA</t>
         </is>
       </c>
-      <c r="H406" t="inlineStr"/>
-      <c r="I406" t="inlineStr"/>
-      <c r="J406" t="inlineStr"/>
-      <c r="K406" t="inlineStr"/>
+      <c r="H406" t="n">
+        <v>83983.95122231967</v>
+      </c>
+      <c r="I406" t="n">
+        <v>98.06085194894504</v>
+      </c>
+      <c r="J406" t="inlineStr">
+        <is>
+          <t>[291.81, 181.32, 700.89, 633.68, 981.98]</t>
+        </is>
+      </c>
+      <c r="K406" t="inlineStr">
+        <is>
+          <t>[152.0086992492864, 171.83471202494562, 152.77854305440988, 157.40137871238164, 618.0563591974101]</t>
+        </is>
+      </c>
     </row>
     <row r="407">
       <c r="A407" t="n">
@@ -17751,10 +17931,22 @@
           <t>NM</t>
         </is>
       </c>
-      <c r="H407" t="inlineStr"/>
-      <c r="I407" t="inlineStr"/>
-      <c r="J407" t="inlineStr"/>
-      <c r="K407" t="inlineStr"/>
+      <c r="H407" t="n">
+        <v>53846.81433277362</v>
+      </c>
+      <c r="I407" t="n">
+        <v>100</v>
+      </c>
+      <c r="J407" t="inlineStr">
+        <is>
+          <t>[1117.6237816287576, 393.5380979010916, 317.0776720988754, 310.91132676088097, 283.41405347720917]</t>
+        </is>
+      </c>
+      <c r="K407" t="inlineStr">
+        <is>
+          <t>[702.8103104351726, 307.7157535920781, 212.01521652550494, 192.5096628770007, 93.99103868214627]</t>
+        </is>
+      </c>
     </row>
     <row r="408">
       <c r="A408" t="n">
@@ -17782,10 +17974,22 @@
           <t>ACO</t>
         </is>
       </c>
-      <c r="H408" t="inlineStr"/>
-      <c r="I408" t="inlineStr"/>
-      <c r="J408" t="inlineStr"/>
-      <c r="K408" t="inlineStr"/>
+      <c r="H408" t="n">
+        <v>115026.3629813673</v>
+      </c>
+      <c r="I408" t="n">
+        <v>98.46996187671296</v>
+      </c>
+      <c r="J408" t="inlineStr">
+        <is>
+          <t>[635.0, 965.0, 445.0, 525.0, 405.0, 100.0, 290.0, 795.0, 925.0, 730.0]</t>
+        </is>
+      </c>
+      <c r="K408" t="inlineStr">
+        <is>
+          <t>[505.0, 830.0, 85.0, 345.0, 275.0, 30.0, 130.0, 720.0, 520.0, 710.0]</t>
+        </is>
+      </c>
     </row>
     <row r="409">
       <c r="A409" t="n">
@@ -17813,10 +18017,22 @@
           <t>ACO</t>
         </is>
       </c>
-      <c r="H409" t="inlineStr"/>
-      <c r="I409" t="inlineStr"/>
-      <c r="J409" t="inlineStr"/>
-      <c r="K409" t="inlineStr"/>
+      <c r="H409" t="n">
+        <v>71434.13061705623</v>
+      </c>
+      <c r="I409" t="n">
+        <v>99.78962131837307</v>
+      </c>
+      <c r="J409" t="inlineStr">
+        <is>
+          <t>[665.0, 580.0, 710.0, 960.0, 475.0]</t>
+        </is>
+      </c>
+      <c r="K409" t="inlineStr">
+        <is>
+          <t>[225.0, 505.0, 475.0, 855.0, 285.0]</t>
+        </is>
+      </c>
     </row>
     <row r="410">
       <c r="A410" t="n">
@@ -17844,10 +18060,22 @@
           <t>ACO</t>
         </is>
       </c>
-      <c r="H410" t="inlineStr"/>
-      <c r="I410" t="inlineStr"/>
-      <c r="J410" t="inlineStr"/>
-      <c r="K410" t="inlineStr"/>
+      <c r="H410" t="n">
+        <v>223903.3225701627</v>
+      </c>
+      <c r="I410" t="n">
+        <v>80.40520240906096</v>
+      </c>
+      <c r="J410" t="inlineStr">
+        <is>
+          <t>[860.0, 435.0, 530.0]</t>
+        </is>
+      </c>
+      <c r="K410" t="inlineStr">
+        <is>
+          <t>[765.0, 355.0, 470.0]</t>
+        </is>
+      </c>
     </row>
     <row r="411">
       <c r="A411" t="n">
@@ -17875,10 +18103,22 @@
           <t>NM</t>
         </is>
       </c>
-      <c r="H411" t="inlineStr"/>
-      <c r="I411" t="inlineStr"/>
-      <c r="J411" t="inlineStr"/>
-      <c r="K411" t="inlineStr"/>
+      <c r="H411" t="n">
+        <v>72182.32144453301</v>
+      </c>
+      <c r="I411" t="n">
+        <v>96.82558338497073</v>
+      </c>
+      <c r="J411" t="inlineStr">
+        <is>
+          <t>[822.0450320062635, 381.57989216173866, 723.3756840186614]</t>
+        </is>
+      </c>
+      <c r="K411" t="inlineStr">
+        <is>
+          <t>[586.8052456639923, 169.70493694258914, 275.53574359301786]</t>
+        </is>
+      </c>
     </row>
     <row r="412">
       <c r="A412" t="n">
@@ -17906,10 +18146,22 @@
           <t>GA</t>
         </is>
       </c>
-      <c r="H412" t="inlineStr"/>
-      <c r="I412" t="inlineStr"/>
-      <c r="J412" t="inlineStr"/>
-      <c r="K412" t="inlineStr"/>
+      <c r="H412" t="n">
+        <v>257399.5802096936</v>
+      </c>
+      <c r="I412" t="n">
+        <v>77.16158920193176</v>
+      </c>
+      <c r="J412" t="inlineStr">
+        <is>
+          <t>[632.79, 631.69, 772.11]</t>
+        </is>
+      </c>
+      <c r="K412" t="inlineStr">
+        <is>
+          <t>[80.71764926915057, 287.615164049673, 687.2567640349907]</t>
+        </is>
+      </c>
     </row>
     <row r="413">
       <c r="A413" t="n">
@@ -17937,10 +18189,22 @@
           <t>RD</t>
         </is>
       </c>
-      <c r="H413" t="inlineStr"/>
-      <c r="I413" t="inlineStr"/>
-      <c r="J413" t="inlineStr"/>
-      <c r="K413" t="inlineStr"/>
+      <c r="H413" t="n">
+        <v>86298.58074379606</v>
+      </c>
+      <c r="I413" t="n">
+        <v>96.65920862679117</v>
+      </c>
+      <c r="J413" t="inlineStr">
+        <is>
+          <t>[613.0991381444203, 271.5002460467778, 147.79361922685152, 124.79710696580992, 266.68800725944476]</t>
+        </is>
+      </c>
+      <c r="K413" t="inlineStr">
+        <is>
+          <t>[548.7571229571748, 223.8033597223582, 107.57026144723153, 12.423951589228315, 185.11173448630055]</t>
+        </is>
+      </c>
     </row>
     <row r="414">
       <c r="A414" t="n">
@@ -17968,10 +18232,22 @@
           <t>NM</t>
         </is>
       </c>
-      <c r="H414" t="inlineStr"/>
-      <c r="I414" t="inlineStr"/>
-      <c r="J414" t="inlineStr"/>
-      <c r="K414" t="inlineStr"/>
+      <c r="H414" t="n">
+        <v>102007.2934714816</v>
+      </c>
+      <c r="I414" t="n">
+        <v>97.75438282831769</v>
+      </c>
+      <c r="J414" t="inlineStr">
+        <is>
+          <t>[743.8565295820795, 885.5775998038479, 348.5224243972688, 1201.4110979306622, 911.2269771859278]</t>
+        </is>
+      </c>
+      <c r="K414" t="inlineStr">
+        <is>
+          <t>[659.5349503162914, 381.116784873381, 320.1415090229961, 712.4641895871005, 520.0340375127389]</t>
+        </is>
+      </c>
     </row>
     <row r="415">
       <c r="A415" t="n">
@@ -17999,10 +18275,22 @@
           <t>RD</t>
         </is>
       </c>
-      <c r="H415" t="inlineStr"/>
-      <c r="I415" t="inlineStr"/>
-      <c r="J415" t="inlineStr"/>
-      <c r="K415" t="inlineStr"/>
+      <c r="H415" t="n">
+        <v>133018.6613561875</v>
+      </c>
+      <c r="I415" t="n">
+        <v>90.34761604738598</v>
+      </c>
+      <c r="J415" t="inlineStr">
+        <is>
+          <t>[872.1390619407211, 618.7790653619987, 536.8117834609287]</t>
+        </is>
+      </c>
+      <c r="K415" t="inlineStr">
+        <is>
+          <t>[703.50080942785, 553.1637982595976, 333.5610238768408]</t>
+        </is>
+      </c>
     </row>
     <row r="416">
       <c r="A416" t="n">
@@ -18030,10 +18318,22 @@
           <t>RD</t>
         </is>
       </c>
-      <c r="H416" t="inlineStr"/>
-      <c r="I416" t="inlineStr"/>
-      <c r="J416" t="inlineStr"/>
-      <c r="K416" t="inlineStr"/>
+      <c r="H416" t="n">
+        <v>151198.0853423239</v>
+      </c>
+      <c r="I416" t="n">
+        <v>94.52149562375021</v>
+      </c>
+      <c r="J416" t="inlineStr">
+        <is>
+          <t>[906.6837898921391, 493.9086174643973, 749.1495587249445, 863.6971028037741, 496.4713079071523, 448.63567622200617, 202.38979256058232, 186.78010481009056, 866.1168352823753, 671.6076289538262]</t>
+        </is>
+      </c>
+      <c r="K416" t="inlineStr">
+        <is>
+          <t>[750.8892595555542, 463.9221326505011, 212.52970683067574, 626.7238010369695, 326.8160907117709, 443.77469455004837, 193.8667482458952, 138.7391211985351, 377.4302798679642, 269.4098582165265]</t>
+        </is>
+      </c>
     </row>
     <row r="417">
       <c r="A417" t="n">
@@ -18061,10 +18361,22 @@
           <t>ACO</t>
         </is>
       </c>
-      <c r="H417" t="inlineStr"/>
-      <c r="I417" t="inlineStr"/>
-      <c r="J417" t="inlineStr"/>
-      <c r="K417" t="inlineStr"/>
+      <c r="H417" t="n">
+        <v>123193.9427979326</v>
+      </c>
+      <c r="I417" t="n">
+        <v>93.53881198650323</v>
+      </c>
+      <c r="J417" t="inlineStr">
+        <is>
+          <t>[835.0, 720.0, 505.0, 770.0, 120.0]</t>
+        </is>
+      </c>
+      <c r="K417" t="inlineStr">
+        <is>
+          <t>[730.0, 545.0, 160.0, 765.0, 35.0]</t>
+        </is>
+      </c>
     </row>
     <row r="418">
       <c r="A418" t="n">
@@ -18092,10 +18404,22 @@
           <t>NM</t>
         </is>
       </c>
-      <c r="H418" t="inlineStr"/>
-      <c r="I418" t="inlineStr"/>
-      <c r="J418" t="inlineStr"/>
-      <c r="K418" t="inlineStr"/>
+      <c r="H418" t="n">
+        <v>103419.0188883313</v>
+      </c>
+      <c r="I418" t="n">
+        <v>95.77781281327165</v>
+      </c>
+      <c r="J418" t="inlineStr">
+        <is>
+          <t>[1006.859775403659, 573.5528914315835, 884.4224584539475, 936.1429193920457, 115.7133605699456]</t>
+        </is>
+      </c>
+      <c r="K418" t="inlineStr">
+        <is>
+          <t>[962.1993842620925, 221.7331881763791, 409.3816140575278, 541.7491586289216, 67.08660669357812]</t>
+        </is>
+      </c>
     </row>
     <row r="419">
       <c r="A419" t="n">
@@ -18123,10 +18447,22 @@
           <t>GA</t>
         </is>
       </c>
-      <c r="H419" t="inlineStr"/>
-      <c r="I419" t="inlineStr"/>
-      <c r="J419" t="inlineStr"/>
-      <c r="K419" t="inlineStr"/>
+      <c r="H419" t="n">
+        <v>155926.2069855692</v>
+      </c>
+      <c r="I419" t="n">
+        <v>90.36509940223199</v>
+      </c>
+      <c r="J419" t="inlineStr">
+        <is>
+          <t>[581.51, 55.7, 291.48, 233.77, 214.3]</t>
+        </is>
+      </c>
+      <c r="K419" t="inlineStr">
+        <is>
+          <t>[58.78720576473614, 33.54098610114079, 199.2100993882241, 91.75693594440918, 141.90577885421465]</t>
+        </is>
+      </c>
     </row>
     <row r="420">
       <c r="A420" t="n">
@@ -18154,10 +18490,22 @@
           <t>GA</t>
         </is>
       </c>
-      <c r="H420" t="inlineStr"/>
-      <c r="I420" t="inlineStr"/>
-      <c r="J420" t="inlineStr"/>
-      <c r="K420" t="inlineStr"/>
+      <c r="H420" t="n">
+        <v>97504.03327987478</v>
+      </c>
+      <c r="I420" t="n">
+        <v>95.79593595562126</v>
+      </c>
+      <c r="J420" t="inlineStr">
+        <is>
+          <t>[277.04, 291.38, 468.06, 401.76, 621.96]</t>
+        </is>
+      </c>
+      <c r="K420" t="inlineStr">
+        <is>
+          <t>[140.26277208515384, 154.84260348908103, 221.6191101887533, 12.803434377708914, 420.60984014078366]</t>
+        </is>
+      </c>
     </row>
     <row r="421">
       <c r="A421" t="n">
@@ -18185,10 +18533,22 @@
           <t>GA</t>
         </is>
       </c>
-      <c r="H421" t="inlineStr"/>
-      <c r="I421" t="inlineStr"/>
-      <c r="J421" t="inlineStr"/>
-      <c r="K421" t="inlineStr"/>
+      <c r="H421" t="n">
+        <v>150716.6977730362</v>
+      </c>
+      <c r="I421" t="n">
+        <v>91.49679414173487</v>
+      </c>
+      <c r="J421" t="inlineStr">
+        <is>
+          <t>[354.05, 3.79, 42.47, 343.51, 942.37]</t>
+        </is>
+      </c>
+      <c r="K421" t="inlineStr">
+        <is>
+          <t>[253.8595817762163, 0.8789835748054489, 2.888178698881997, 294.8796539188817, 172.4131321628087]</t>
+        </is>
+      </c>
     </row>
     <row r="422">
       <c r="A422" t="n">
@@ -18216,10 +18576,22 @@
           <t>RD</t>
         </is>
       </c>
-      <c r="H422" t="inlineStr"/>
-      <c r="I422" t="inlineStr"/>
-      <c r="J422" t="inlineStr"/>
-      <c r="K422" t="inlineStr"/>
+      <c r="H422" t="n">
+        <v>123297.2072585602</v>
+      </c>
+      <c r="I422" t="n">
+        <v>98.04058082971751</v>
+      </c>
+      <c r="J422" t="inlineStr">
+        <is>
+          <t>[895.3063564757521, 785.3284506085247, 133.79344933147053, 560.2299298578267, 218.26805454584363, 117.5515706814313, 779.2886139694225, 29.449089302579278, 122.37063448719721, 231.21009169963037]</t>
+        </is>
+      </c>
+      <c r="K422" t="inlineStr">
+        <is>
+          <t>[782.6351578829715, 745.7819717139483, 9.341969452859747, 528.9933630413952, 151.6841648451028, 24.64122030776518, 448.1603640184611, 18.30711345731083, 14.687053768997782, 143.498203739913]</t>
+        </is>
+      </c>
     </row>
     <row r="423">
       <c r="A423" t="n">
@@ -18247,10 +18619,22 @@
           <t>NM</t>
         </is>
       </c>
-      <c r="H423" t="inlineStr"/>
-      <c r="I423" t="inlineStr"/>
-      <c r="J423" t="inlineStr"/>
-      <c r="K423" t="inlineStr"/>
+      <c r="H423" t="n">
+        <v>280000.5834333512</v>
+      </c>
+      <c r="I423" t="n">
+        <v>74.76419569943117</v>
+      </c>
+      <c r="J423" t="inlineStr">
+        <is>
+          <t>[398.46079797770926, 433.4970528367626, 385.92933837071314]</t>
+        </is>
+      </c>
+      <c r="K423" t="inlineStr">
+        <is>
+          <t>[215.930829187035, 267.8155514283039, 211.19305270003454]</t>
+        </is>
+      </c>
     </row>
     <row r="424">
       <c r="A424" t="n">
@@ -18278,10 +18662,22 @@
           <t>GA</t>
         </is>
       </c>
-      <c r="H424" t="inlineStr"/>
-      <c r="I424" t="inlineStr"/>
-      <c r="J424" t="inlineStr"/>
-      <c r="K424" t="inlineStr"/>
+      <c r="H424" t="n">
+        <v>76467.3538573824</v>
+      </c>
+      <c r="I424" t="n">
+        <v>98.23778187062561</v>
+      </c>
+      <c r="J424" t="inlineStr">
+        <is>
+          <t>[406.72, 651.6, 864.18, 791.0, 583.02]</t>
+        </is>
+      </c>
+      <c r="K424" t="inlineStr">
+        <is>
+          <t>[253.4998906894893, 132.42040278441402, 789.1931341747054, 373.6486133127125, 318.5270236405896]</t>
+        </is>
+      </c>
     </row>
     <row r="425">
       <c r="A425" t="n">
@@ -18309,10 +18705,22 @@
           <t>RD</t>
         </is>
       </c>
-      <c r="H425" t="inlineStr"/>
-      <c r="I425" t="inlineStr"/>
-      <c r="J425" t="inlineStr"/>
-      <c r="K425" t="inlineStr"/>
+      <c r="H425" t="n">
+        <v>157679.0098445205</v>
+      </c>
+      <c r="I425" t="n">
+        <v>90.92062793345228</v>
+      </c>
+      <c r="J425" t="inlineStr">
+        <is>
+          <t>[964.0631238456, 393.2636091128737, 933.3282602064306, 978.2887373792316, 968.6437287655149]</t>
+        </is>
+      </c>
+      <c r="K425" t="inlineStr">
+        <is>
+          <t>[785.0961064372907, 217.8336765369081, 694.3214427096235, 959.2535035060433, 761.9510917495287]</t>
+        </is>
+      </c>
     </row>
     <row r="426">
       <c r="A426" t="n">
@@ -18340,10 +18748,22 @@
           <t>GA</t>
         </is>
       </c>
-      <c r="H426" t="inlineStr"/>
-      <c r="I426" t="inlineStr"/>
-      <c r="J426" t="inlineStr"/>
-      <c r="K426" t="inlineStr"/>
+      <c r="H426" t="n">
+        <v>130359.5118295575</v>
+      </c>
+      <c r="I426" t="n">
+        <v>90.33903446960903</v>
+      </c>
+      <c r="J426" t="inlineStr">
+        <is>
+          <t>[965.31, 91.7, 155.01]</t>
+        </is>
+      </c>
+      <c r="K426" t="inlineStr">
+        <is>
+          <t>[822.2585517158822, 8.165133886255191, 11.624277967579486]</t>
+        </is>
+      </c>
     </row>
     <row r="427">
       <c r="A427" t="n">
@@ -18371,10 +18791,22 @@
           <t>GA</t>
         </is>
       </c>
-      <c r="H427" t="inlineStr"/>
-      <c r="I427" t="inlineStr"/>
-      <c r="J427" t="inlineStr"/>
-      <c r="K427" t="inlineStr"/>
+      <c r="H427" t="n">
+        <v>151086.4355974422</v>
+      </c>
+      <c r="I427" t="n">
+        <v>90.7111515331526</v>
+      </c>
+      <c r="J427" t="inlineStr">
+        <is>
+          <t>[389.25, 70.36, 317.73, 495.98, 229.1]</t>
+        </is>
+      </c>
+      <c r="K427" t="inlineStr">
+        <is>
+          <t>[354.88345225351327, 50.87526482800281, 76.56891663019236, 291.80827539227954, 156.5743983218107]</t>
+        </is>
+      </c>
     </row>
     <row r="428">
       <c r="A428" t="n">
@@ -18402,10 +18834,22 @@
           <t>RD</t>
         </is>
       </c>
-      <c r="H428" t="inlineStr"/>
-      <c r="I428" t="inlineStr"/>
-      <c r="J428" t="inlineStr"/>
-      <c r="K428" t="inlineStr"/>
+      <c r="H428" t="n">
+        <v>137672.5386014707</v>
+      </c>
+      <c r="I428" t="n">
+        <v>91.13163169564635</v>
+      </c>
+      <c r="J428" t="inlineStr">
+        <is>
+          <t>[973.6930190823498, 396.4525562085672, 387.00238624719276, 941.270324867842, 241.37740660356442]</t>
+        </is>
+      </c>
+      <c r="K428" t="inlineStr">
+        <is>
+          <t>[940.3121532517728, 280.91778965877666, 372.0713419391571, 603.1998692814636, 149.95876895385337]</t>
+        </is>
+      </c>
     </row>
     <row r="429">
       <c r="A429" t="n">
@@ -18433,10 +18877,22 @@
           <t>GA</t>
         </is>
       </c>
-      <c r="H429" t="inlineStr"/>
-      <c r="I429" t="inlineStr"/>
-      <c r="J429" t="inlineStr"/>
-      <c r="K429" t="inlineStr"/>
+      <c r="H429" t="n">
+        <v>102711.2314156584</v>
+      </c>
+      <c r="I429" t="n">
+        <v>99.2489012752426</v>
+      </c>
+      <c r="J429" t="inlineStr">
+        <is>
+          <t>[317.86, 515.92, 340.49, 180.57, 884.27, 79.53, 285.53, 657.6, 992.8, 848.91]</t>
+        </is>
+      </c>
+      <c r="K429" t="inlineStr">
+        <is>
+          <t>[190.37794761029807, 420.9995483916319, 316.59631698906696, 58.973310154887926, 696.338926761258, 2.0095468756766417, 189.7523885463522, 558.4560489389218, 844.838996111189, 685.1924013080574]</t>
+        </is>
+      </c>
     </row>
     <row r="430">
       <c r="A430" t="n">
@@ -18464,10 +18920,22 @@
           <t>RD</t>
         </is>
       </c>
-      <c r="H430" t="inlineStr"/>
-      <c r="I430" t="inlineStr"/>
-      <c r="J430" t="inlineStr"/>
-      <c r="K430" t="inlineStr"/>
+      <c r="H430" t="n">
+        <v>121399.1325242235</v>
+      </c>
+      <c r="I430" t="n">
+        <v>96.18853698267259</v>
+      </c>
+      <c r="J430" t="inlineStr">
+        <is>
+          <t>[457.1559049481868, 123.5961180465599, 165.96041706999475, 628.398908012615, 656.1635842428966, 269.99545571178953, 177.49744110154663, 243.4672592603917, 397.2404452896817, 141.57007892271568]</t>
+        </is>
+      </c>
+      <c r="K430" t="inlineStr">
+        <is>
+          <t>[333.82193835963164, 36.55146492486491, 44.40775404098681, 449.551471523337, 431.05397620619243, 260.83739634492827, 165.07390933526005, 78.81254164117061, 262.3673742024632, 6.968901159726386]</t>
+        </is>
+      </c>
     </row>
     <row r="431">
       <c r="A431" t="n">
@@ -18495,10 +18963,22 @@
           <t>GA</t>
         </is>
       </c>
-      <c r="H431" t="inlineStr"/>
-      <c r="I431" t="inlineStr"/>
-      <c r="J431" t="inlineStr"/>
-      <c r="K431" t="inlineStr"/>
+      <c r="H431" t="n">
+        <v>138176.4285461508</v>
+      </c>
+      <c r="I431" t="n">
+        <v>97.84811173676493</v>
+      </c>
+      <c r="J431" t="inlineStr">
+        <is>
+          <t>[230.12, 620.2, 800.39, 772.71, 91.05, 630.3, 983.94, 86.17, 464.99, 304.23]</t>
+        </is>
+      </c>
+      <c r="K431" t="inlineStr">
+        <is>
+          <t>[2.994372641927561, 316.92070102996274, 467.14897599838366, 621.7704668351062, 8.129087984559648, 434.25506347028755, 499.0333963658731, 45.64848636965247, 6.048196751568132, 134.02034066911128]</t>
+        </is>
+      </c>
     </row>
     <row r="432">
       <c r="A432" t="n">
@@ -18526,10 +19006,22 @@
           <t>ACO</t>
         </is>
       </c>
-      <c r="H432" t="inlineStr"/>
-      <c r="I432" t="inlineStr"/>
-      <c r="J432" t="inlineStr"/>
-      <c r="K432" t="inlineStr"/>
+      <c r="H432" t="n">
+        <v>181205.0968970165</v>
+      </c>
+      <c r="I432" t="n">
+        <v>92.46608651979354</v>
+      </c>
+      <c r="J432" t="inlineStr">
+        <is>
+          <t>[965.0, 170.0, 655.0, 730.0, 920.0, 685.0, 310.0, 505.0, 295.0, 500.0]</t>
+        </is>
+      </c>
+      <c r="K432" t="inlineStr">
+        <is>
+          <t>[960.0, 165.0, 135.0, 210.0, 565.0, 670.0, 240.0, 285.0, 75.0, 100.0]</t>
+        </is>
+      </c>
     </row>
     <row r="433">
       <c r="A433" t="n">
@@ -18557,10 +19049,22 @@
           <t>RD</t>
         </is>
       </c>
-      <c r="H433" t="inlineStr"/>
-      <c r="I433" t="inlineStr"/>
-      <c r="J433" t="inlineStr"/>
-      <c r="K433" t="inlineStr"/>
+      <c r="H433" t="n">
+        <v>155989.9669516117</v>
+      </c>
+      <c r="I433" t="n">
+        <v>91.95727368244432</v>
+      </c>
+      <c r="J433" t="inlineStr">
+        <is>
+          <t>[859.045322512494, 372.2254629122388, 140.38964304192692, 638.624836412437, 200.86649206851283, 422.13547236002455, 817.6645848841464, 553.9891194417411, 450.11564300888006, 572.9305508251032]</t>
+        </is>
+      </c>
+      <c r="K433" t="inlineStr">
+        <is>
+          <t>[711.9284923168475, 178.0492681450511, 78.14770809697856, 562.7035449685935, 177.5667396924814, 416.8683988808426, 240.72027657895327, 102.73689400459304, 155.3596598354909, 500.22055610495346]</t>
+        </is>
+      </c>
     </row>
     <row r="434">
       <c r="A434" t="n">
@@ -18588,10 +19092,22 @@
           <t>RD</t>
         </is>
       </c>
-      <c r="H434" t="inlineStr"/>
-      <c r="I434" t="inlineStr"/>
-      <c r="J434" t="inlineStr"/>
-      <c r="K434" t="inlineStr"/>
+      <c r="H434" t="n">
+        <v>58753.64729284491</v>
+      </c>
+      <c r="I434" t="n">
+        <v>98.11919408123971</v>
+      </c>
+      <c r="J434" t="inlineStr">
+        <is>
+          <t>[718.5203902297392, 795.0333948250222, 690.4758104141581]</t>
+        </is>
+      </c>
+      <c r="K434" t="inlineStr">
+        <is>
+          <t>[704.6881201142472, 279.4146730731015, 449.4757476894544]</t>
+        </is>
+      </c>
     </row>
     <row r="435">
       <c r="A435" t="n">
@@ -18619,10 +19135,22 @@
           <t>GA</t>
         </is>
       </c>
-      <c r="H435" t="inlineStr"/>
-      <c r="I435" t="inlineStr"/>
-      <c r="J435" t="inlineStr"/>
-      <c r="K435" t="inlineStr"/>
+      <c r="H435" t="n">
+        <v>152908.639319194</v>
+      </c>
+      <c r="I435" t="n">
+        <v>92.86354101828663</v>
+      </c>
+      <c r="J435" t="inlineStr">
+        <is>
+          <t>[13.14, 683.0, 85.32, 977.96, 601.64, 219.86, 35.14, 629.64, 559.67, 120.07]</t>
+        </is>
+      </c>
+      <c r="K435" t="inlineStr">
+        <is>
+          <t>[12.170950143084786, 479.45180950505534, 49.63086914334695, 532.6348279070314, 167.78965103394555, 30.628356490567043, 20.179495853546364, 407.8276021253572, 403.38237618227015, 95.55164804612404]</t>
+        </is>
+      </c>
     </row>
     <row r="436">
       <c r="A436" t="n">
@@ -18650,10 +19178,22 @@
           <t>GA</t>
         </is>
       </c>
-      <c r="H436" t="inlineStr"/>
-      <c r="I436" t="inlineStr"/>
-      <c r="J436" t="inlineStr"/>
-      <c r="K436" t="inlineStr"/>
+      <c r="H436" t="n">
+        <v>102338.6025003425</v>
+      </c>
+      <c r="I436" t="n">
+        <v>98.96417682127469</v>
+      </c>
+      <c r="J436" t="inlineStr">
+        <is>
+          <t>[701.02, 191.24, 388.9, 263.61, 156.66, 485.75, 892.02, 538.53, 878.02, 18.88]</t>
+        </is>
+      </c>
+      <c r="K436" t="inlineStr">
+        <is>
+          <t>[640.4262297121455, 50.860073461383486, 353.50702648863665, 69.71384601614866, 152.52881840958605, 134.339838771014, 269.650213712156, 84.0813485224517, 613.9243199945979, 16.621851886293108]</t>
+        </is>
+      </c>
     </row>
     <row r="437">
       <c r="A437" t="n">
@@ -18681,10 +19221,22 @@
           <t>RD</t>
         </is>
       </c>
-      <c r="H437" t="inlineStr"/>
-      <c r="I437" t="inlineStr"/>
-      <c r="J437" t="inlineStr"/>
-      <c r="K437" t="inlineStr"/>
+      <c r="H437" t="n">
+        <v>57511.78527300519</v>
+      </c>
+      <c r="I437" t="n">
+        <v>98.00613710814562</v>
+      </c>
+      <c r="J437" t="inlineStr">
+        <is>
+          <t>[656.1107633567916, 706.2302172396882, 433.19342786033644]</t>
+        </is>
+      </c>
+      <c r="K437" t="inlineStr">
+        <is>
+          <t>[556.9761441353833, 362.1993556410427, 97.64096381125226]</t>
+        </is>
+      </c>
     </row>
     <row r="438">
       <c r="A438" t="n">
@@ -18712,10 +19264,22 @@
           <t>RD</t>
         </is>
       </c>
-      <c r="H438" t="inlineStr"/>
-      <c r="I438" t="inlineStr"/>
-      <c r="J438" t="inlineStr"/>
-      <c r="K438" t="inlineStr"/>
+      <c r="H438" t="n">
+        <v>86129.21548509363</v>
+      </c>
+      <c r="I438" t="n">
+        <v>96.72933412058742</v>
+      </c>
+      <c r="J438" t="inlineStr">
+        <is>
+          <t>[486.0517144963645, 790.4791044568807, 828.8314519625884]</t>
+        </is>
+      </c>
+      <c r="K438" t="inlineStr">
+        <is>
+          <t>[291.4553672949201, 592.9278147035533, 729.7219054728548]</t>
+        </is>
+      </c>
     </row>
     <row r="439">
       <c r="A439" t="n">
@@ -18743,10 +19307,22 @@
           <t>ACO</t>
         </is>
       </c>
-      <c r="H439" t="inlineStr"/>
-      <c r="I439" t="inlineStr"/>
-      <c r="J439" t="inlineStr"/>
-      <c r="K439" t="inlineStr"/>
+      <c r="H439" t="n">
+        <v>199631.5470007604</v>
+      </c>
+      <c r="I439" t="n">
+        <v>84.68798851778948</v>
+      </c>
+      <c r="J439" t="inlineStr">
+        <is>
+          <t>[530.0, 610.0, 890.0, 480.0, 470.0]</t>
+        </is>
+      </c>
+      <c r="K439" t="inlineStr">
+        <is>
+          <t>[380.0, 295.0, 805.0, 425.0, 370.0]</t>
+        </is>
+      </c>
     </row>
     <row r="440">
       <c r="A440" t="n">
@@ -18774,10 +19350,22 @@
           <t>NM</t>
         </is>
       </c>
-      <c r="H440" t="inlineStr"/>
-      <c r="I440" t="inlineStr"/>
-      <c r="J440" t="inlineStr"/>
-      <c r="K440" t="inlineStr"/>
+      <c r="H440" t="n">
+        <v>114851.6142905596</v>
+      </c>
+      <c r="I440" t="n">
+        <v>97.99226954877095</v>
+      </c>
+      <c r="J440" t="inlineStr">
+        <is>
+          <t>[742.6372326883314, 625.4375950758392, 690.9603066912648, 674.6046619988693, 773.137178456764, 736.8592767364198, 588.5132100759693, 564.8764753338932, 665.0111069048554, 264.01208994628746]</t>
+        </is>
+      </c>
+      <c r="K440" t="inlineStr">
+        <is>
+          <t>[283.37780230659195, 259.27679653787436, 239.40287640559686, 325.0077501651987, 429.5259735537274, 455.44791750032124, 334.22745239509146, 334.33863987268114, 434.7304607572109, 120.86021969425842]</t>
+        </is>
+      </c>
     </row>
     <row r="441">
       <c r="A441" t="n">
@@ -18805,10 +19393,22 @@
           <t>NM</t>
         </is>
       </c>
-      <c r="H441" t="inlineStr"/>
-      <c r="I441" t="inlineStr"/>
-      <c r="J441" t="inlineStr"/>
-      <c r="K441" t="inlineStr"/>
+      <c r="H441" t="n">
+        <v>130149.6703402122</v>
+      </c>
+      <c r="I441" t="n">
+        <v>90.5460197855235</v>
+      </c>
+      <c r="J441" t="inlineStr">
+        <is>
+          <t>[618.0274802140549, 179.09162677014655, 354.42229961437295]</t>
+        </is>
+      </c>
+      <c r="K441" t="inlineStr">
+        <is>
+          <t>[289.60018970410806, 98.95858517317119, 118.64228600826532]</t>
+        </is>
+      </c>
     </row>
     <row r="442">
       <c r="A442" t="n">
@@ -18836,10 +19436,22 @@
           <t>RD</t>
         </is>
       </c>
-      <c r="H442" t="inlineStr"/>
-      <c r="I442" t="inlineStr"/>
-      <c r="J442" t="inlineStr"/>
-      <c r="K442" t="inlineStr"/>
+      <c r="H442" t="n">
+        <v>87658.82959409518</v>
+      </c>
+      <c r="I442" t="n">
+        <v>98.43136651813369</v>
+      </c>
+      <c r="J442" t="inlineStr">
+        <is>
+          <t>[484.2445762562132, 797.3876344018478, 869.1467411918737, 212.67605888432374, 403.594310622553]</t>
+        </is>
+      </c>
+      <c r="K442" t="inlineStr">
+        <is>
+          <t>[412.1905403101165, 530.4511710598374, 238.95152681334454, 75.43189709841506, 326.4409001287806]</t>
+        </is>
+      </c>
     </row>
     <row r="443">
       <c r="A443" t="n">
@@ -18867,10 +19479,22 @@
           <t>GA</t>
         </is>
       </c>
-      <c r="H443" t="inlineStr"/>
-      <c r="I443" t="inlineStr"/>
-      <c r="J443" t="inlineStr"/>
-      <c r="K443" t="inlineStr"/>
+      <c r="H443" t="n">
+        <v>107400.4026359036</v>
+      </c>
+      <c r="I443" t="n">
+        <v>99.7567982936245</v>
+      </c>
+      <c r="J443" t="inlineStr">
+        <is>
+          <t>[249.68, 524.53, 864.38, 405.49, 374.0, 480.25, 299.05, 362.64, 539.22, 325.85]</t>
+        </is>
+      </c>
+      <c r="K443" t="inlineStr">
+        <is>
+          <t>[146.4876664834116, 331.0788523092113, 47.56868233076434, 144.3570774120884, 364.5925891225826, 283.7508852107967, 69.96914075741418, 326.8995475931521, 21.97685168195266, 201.7078001634607]</t>
+        </is>
+      </c>
     </row>
     <row r="444">
       <c r="A444" t="n">
@@ -18898,10 +19522,22 @@
           <t>NM</t>
         </is>
       </c>
-      <c r="H444" t="inlineStr"/>
-      <c r="I444" t="inlineStr"/>
-      <c r="J444" t="inlineStr"/>
-      <c r="K444" t="inlineStr"/>
+      <c r="H444" t="n">
+        <v>175247.882812057</v>
+      </c>
+      <c r="I444" t="n">
+        <v>86.5151806254358</v>
+      </c>
+      <c r="J444" t="inlineStr">
+        <is>
+          <t>[486.6697705720599, 502.14009119988185, 507.12409043530664]</t>
+        </is>
+      </c>
+      <c r="K444" t="inlineStr">
+        <is>
+          <t>[330.3646864667847, 451.6055373053946, 306.5179541833572]</t>
+        </is>
+      </c>
     </row>
     <row r="445">
       <c r="A445" t="n">
@@ -18929,10 +19565,22 @@
           <t>ACO</t>
         </is>
       </c>
-      <c r="H445" t="inlineStr"/>
-      <c r="I445" t="inlineStr"/>
-      <c r="J445" t="inlineStr"/>
-      <c r="K445" t="inlineStr"/>
+      <c r="H445" t="n">
+        <v>137898.3241040702</v>
+      </c>
+      <c r="I445" t="n">
+        <v>90.42876617072811</v>
+      </c>
+      <c r="J445" t="inlineStr">
+        <is>
+          <t>[985.0, 835.0, 630.0]</t>
+        </is>
+      </c>
+      <c r="K445" t="inlineStr">
+        <is>
+          <t>[920.0, 735.0, 320.0]</t>
+        </is>
+      </c>
     </row>
     <row r="446">
       <c r="A446" t="n">
@@ -18960,10 +19608,22 @@
           <t>ACO</t>
         </is>
       </c>
-      <c r="H446" t="inlineStr"/>
-      <c r="I446" t="inlineStr"/>
-      <c r="J446" t="inlineStr"/>
-      <c r="K446" t="inlineStr"/>
+      <c r="H446" t="n">
+        <v>200353.2560887712</v>
+      </c>
+      <c r="I446" t="n">
+        <v>83.33198096436689</v>
+      </c>
+      <c r="J446" t="inlineStr">
+        <is>
+          <t>[680.0, 865.0, 530.0]</t>
+        </is>
+      </c>
+      <c r="K446" t="inlineStr">
+        <is>
+          <t>[655.0, 815.0, 315.0]</t>
+        </is>
+      </c>
     </row>
     <row r="447">
       <c r="A447" t="n">
@@ -18991,10 +19651,22 @@
           <t>GA</t>
         </is>
       </c>
-      <c r="H447" t="inlineStr"/>
-      <c r="I447" t="inlineStr"/>
-      <c r="J447" t="inlineStr"/>
-      <c r="K447" t="inlineStr"/>
+      <c r="H447" t="n">
+        <v>117733.5680093875</v>
+      </c>
+      <c r="I447" t="n">
+        <v>95.4466727315225</v>
+      </c>
+      <c r="J447" t="inlineStr">
+        <is>
+          <t>[885.02, 788.75, 39.95, 859.69, 40.51]</t>
+        </is>
+      </c>
+      <c r="K447" t="inlineStr">
+        <is>
+          <t>[177.74546147213837, 31.424291980986577, 0.3909612839966962, 205.77341509823694, 6.054873843308419]</t>
+        </is>
+      </c>
     </row>
     <row r="448">
       <c r="A448" t="n">
@@ -19022,10 +19694,22 @@
           <t>ACO</t>
         </is>
       </c>
-      <c r="H448" t="inlineStr"/>
-      <c r="I448" t="inlineStr"/>
-      <c r="J448" t="inlineStr"/>
-      <c r="K448" t="inlineStr"/>
+      <c r="H448" t="n">
+        <v>121146.3979206722</v>
+      </c>
+      <c r="I448" t="n">
+        <v>94.88228729807128</v>
+      </c>
+      <c r="J448" t="inlineStr">
+        <is>
+          <t>[680.0, 640.0, 605.0, 560.0, 755.0]</t>
+        </is>
+      </c>
+      <c r="K448" t="inlineStr">
+        <is>
+          <t>[530.0, 630.0, 400.0, 490.0, 735.0]</t>
+        </is>
+      </c>
     </row>
     <row r="449">
       <c r="A449" t="n">
@@ -19053,10 +19737,22 @@
           <t>RD</t>
         </is>
       </c>
-      <c r="H449" t="inlineStr"/>
-      <c r="I449" t="inlineStr"/>
-      <c r="J449" t="inlineStr"/>
-      <c r="K449" t="inlineStr"/>
+      <c r="H449" t="n">
+        <v>86776.41183328442</v>
+      </c>
+      <c r="I449" t="n">
+        <v>99.42749271202885</v>
+      </c>
+      <c r="J449" t="inlineStr">
+        <is>
+          <t>[674.8451296305834, 664.8987380006832, 558.730432222077, 949.2695093881002, 566.8672149919006]</t>
+        </is>
+      </c>
+      <c r="K449" t="inlineStr">
+        <is>
+          <t>[571.5877746320656, 529.4596456387382, 472.0715634199458, 703.9696125251166, 284.65478390922675]</t>
+        </is>
+      </c>
     </row>
     <row r="450">
       <c r="A450" t="n">
@@ -19084,10 +19780,22 @@
           <t>NM</t>
         </is>
       </c>
-      <c r="H450" t="inlineStr"/>
-      <c r="I450" t="inlineStr"/>
-      <c r="J450" t="inlineStr"/>
-      <c r="K450" t="inlineStr"/>
+      <c r="H450" t="n">
+        <v>82263.57617285666</v>
+      </c>
+      <c r="I450" t="n">
+        <v>96.50888153782341</v>
+      </c>
+      <c r="J450" t="inlineStr">
+        <is>
+          <t>[323.14031398203235, 417.23099861746516, 298.7723628175833, 560.2099611855705, 486.276501033877]</t>
+        </is>
+      </c>
+      <c r="K450" t="inlineStr">
+        <is>
+          <t>[121.44723039189458, 316.30946353283184, 81.91318772111173, 226.151116914882, 158.58215745351967]</t>
+        </is>
+      </c>
     </row>
     <row r="451">
       <c r="A451" t="n">
@@ -19115,10 +19823,22 @@
           <t>RD</t>
         </is>
       </c>
-      <c r="H451" t="inlineStr"/>
-      <c r="I451" t="inlineStr"/>
-      <c r="J451" t="inlineStr"/>
-      <c r="K451" t="inlineStr"/>
+      <c r="H451" t="n">
+        <v>87150.73421018779</v>
+      </c>
+      <c r="I451" t="n">
+        <v>99.8827106112322</v>
+      </c>
+      <c r="J451" t="inlineStr">
+        <is>
+          <t>[431.431522954159, 490.64052129862523, 458.545752714436, 304.2076881931959, 473.4809312385835, 369.3324919185417, 302.2852521968306, 602.4734535364955, 290.89741248270053, 142.77339245142528]</t>
+        </is>
+      </c>
+      <c r="K451" t="inlineStr">
+        <is>
+          <t>[349.15627311963067, 279.6262239792364, 185.97617873399776, 79.9806071017598, 304.90833452073224, 366.6762448219313, 301.9321419141472, 195.46342676427363, 160.05028446980808, 43.38010260433695]</t>
+        </is>
+      </c>
     </row>
     <row r="452">
       <c r="A452" t="n">
@@ -19146,10 +19866,22 @@
           <t>NM</t>
         </is>
       </c>
-      <c r="H452" t="inlineStr"/>
-      <c r="I452" t="inlineStr"/>
-      <c r="J452" t="inlineStr"/>
-      <c r="K452" t="inlineStr"/>
+      <c r="H452" t="n">
+        <v>72668.02259977073</v>
+      </c>
+      <c r="I452" t="n">
+        <v>99.58470178819886</v>
+      </c>
+      <c r="J452" t="inlineStr">
+        <is>
+          <t>[782.3377106324979, 746.6659286126926, 550.8432776009366]</t>
+        </is>
+      </c>
+      <c r="K452" t="inlineStr">
+        <is>
+          <t>[777.915075914146, 646.8143731172285, 466.7324186777975]</t>
+        </is>
+      </c>
     </row>
     <row r="453">
       <c r="A453" t="n">
@@ -19177,10 +19909,22 @@
           <t>ACO</t>
         </is>
       </c>
-      <c r="H453" t="inlineStr"/>
-      <c r="I453" t="inlineStr"/>
-      <c r="J453" t="inlineStr"/>
-      <c r="K453" t="inlineStr"/>
+      <c r="H453" t="n">
+        <v>190279.5632025656</v>
+      </c>
+      <c r="I453" t="n">
+        <v>87.77888573979561</v>
+      </c>
+      <c r="J453" t="inlineStr">
+        <is>
+          <t>[885.0, 95.0, 795.0, 835.0, 905.0]</t>
+        </is>
+      </c>
+      <c r="K453" t="inlineStr">
+        <is>
+          <t>[750.0, 10.0, 610.0, 805.0, 905.0]</t>
+        </is>
+      </c>
     </row>
     <row r="454">
       <c r="A454" t="n">
@@ -19208,10 +19952,22 @@
           <t>NM</t>
         </is>
       </c>
-      <c r="H454" t="inlineStr"/>
-      <c r="I454" t="inlineStr"/>
-      <c r="J454" t="inlineStr"/>
-      <c r="K454" t="inlineStr"/>
+      <c r="H454" t="n">
+        <v>146184.4953728179</v>
+      </c>
+      <c r="I454" t="n">
+        <v>90.11024064197116</v>
+      </c>
+      <c r="J454" t="inlineStr">
+        <is>
+          <t>[425.6014737186578, 408.91814067543305, 447.59336956915286, 784.1649392946587, 566.8980411220539]</t>
+        </is>
+      </c>
+      <c r="K454" t="inlineStr">
+        <is>
+          <t>[207.3739918962265, 167.93161807319862, 374.9000328116041, 395.7829815352407, 134.8079773115177]</t>
+        </is>
+      </c>
     </row>
     <row r="455">
       <c r="A455" t="n">
@@ -19239,10 +19995,22 @@
           <t>RD</t>
         </is>
       </c>
-      <c r="H455" t="inlineStr"/>
-      <c r="I455" t="inlineStr"/>
-      <c r="J455" t="inlineStr"/>
-      <c r="K455" t="inlineStr"/>
+      <c r="H455" t="n">
+        <v>71124.91323377397</v>
+      </c>
+      <c r="I455" t="n">
+        <v>99.3438734765563</v>
+      </c>
+      <c r="J455" t="inlineStr">
+        <is>
+          <t>[890.8902616614915, 846.9486299982315, 931.4320116106486, 478.3781431186717, 296.39941388236724]</t>
+        </is>
+      </c>
+      <c r="K455" t="inlineStr">
+        <is>
+          <t>[459.129126544915, 712.5479229068467, 567.435125475276, 352.9551063568634, 164.07363753081614]</t>
+        </is>
+      </c>
     </row>
     <row r="456">
       <c r="A456" t="n">
@@ -19270,10 +20038,22 @@
           <t>RD</t>
         </is>
       </c>
-      <c r="H456" t="inlineStr"/>
-      <c r="I456" t="inlineStr"/>
-      <c r="J456" t="inlineStr"/>
-      <c r="K456" t="inlineStr"/>
+      <c r="H456" t="n">
+        <v>159574.9242730833</v>
+      </c>
+      <c r="I456" t="n">
+        <v>94.37242846088751</v>
+      </c>
+      <c r="J456" t="inlineStr">
+        <is>
+          <t>[811.2327338273884, 616.5399989230714, 539.5648840338664, 738.5000188785932, 889.5217759354838, 184.6040261833335, 652.8021357077241, 280.1354824418072, 61.00153467348923, 667.7162314241039]</t>
+        </is>
+      </c>
+      <c r="K456" t="inlineStr">
+        <is>
+          <t>[803.3086632137007, 452.6767742218043, 506.1790973050869, 506.601498626347, 18.879069696326177, 173.68796346190948, 280.9534578226015, 147.82498774127785, 8.964842048824208, 486.44658179717567]</t>
+        </is>
+      </c>
     </row>
     <row r="457">
       <c r="A457" t="n">
@@ -19301,10 +20081,22 @@
           <t>RD</t>
         </is>
       </c>
-      <c r="H457" t="inlineStr"/>
-      <c r="I457" t="inlineStr"/>
-      <c r="J457" t="inlineStr"/>
-      <c r="K457" t="inlineStr"/>
+      <c r="H457" t="n">
+        <v>110689.7650139018</v>
+      </c>
+      <c r="I457" t="n">
+        <v>99.74241957681356</v>
+      </c>
+      <c r="J457" t="inlineStr">
+        <is>
+          <t>[839.4414590926864, 318.26666120660207, 606.6825256763335, 921.2786194292025, 651.4194561633682, 739.2596691502018, 276.87763809486376, 904.1264937152376, 469.53402141106403, 598.4721668461364]</t>
+        </is>
+      </c>
+      <c r="K457" t="inlineStr">
+        <is>
+          <t>[335.64809243103036, 144.55761585261607, 537.0094416690116, 805.6459655079614, 352.8496543465334, 158.30591156804908, 36.25982895754474, 836.1436734851658, 310.2555590559468, 480.15905519829676]</t>
+        </is>
+      </c>
     </row>
     <row r="458">
       <c r="A458" t="n">
@@ -19332,10 +20124,22 @@
           <t>RD</t>
         </is>
       </c>
-      <c r="H458" t="inlineStr"/>
-      <c r="I458" t="inlineStr"/>
-      <c r="J458" t="inlineStr"/>
-      <c r="K458" t="inlineStr"/>
+      <c r="H458" t="n">
+        <v>129029.5378843172</v>
+      </c>
+      <c r="I458" t="n">
+        <v>97.53679325635829</v>
+      </c>
+      <c r="J458" t="inlineStr">
+        <is>
+          <t>[751.0041380990274, 828.8944061451507, 834.9289924066773, 957.5481699334853, 980.8764252485296, 681.0147926829138, 366.33855007459715, 137.01912672649664, 869.6011292425549, 829.4830069076952]</t>
+        </is>
+      </c>
+      <c r="K458" t="inlineStr">
+        <is>
+          <t>[416.4829495579467, 227.83652211803462, 651.3599332926245, 285.92778911187577, 680.2310290847173, 108.71343272101153, 136.5428622621704, 16.19683932185226, 680.2889289890339, 345.37783748090163]</t>
+        </is>
+      </c>
     </row>
     <row r="459">
       <c r="A459" t="n">
@@ -19363,10 +20167,22 @@
           <t>RD</t>
         </is>
       </c>
-      <c r="H459" t="inlineStr"/>
-      <c r="I459" t="inlineStr"/>
-      <c r="J459" t="inlineStr"/>
-      <c r="K459" t="inlineStr"/>
+      <c r="H459" t="n">
+        <v>190035.9930385079</v>
+      </c>
+      <c r="I459" t="n">
+        <v>84.84453918345407</v>
+      </c>
+      <c r="J459" t="inlineStr">
+        <is>
+          <t>[691.0231731876784, 569.9877467684505, 556.259356399695]</t>
+        </is>
+      </c>
+      <c r="K459" t="inlineStr">
+        <is>
+          <t>[681.9775062620093, 545.0628563838891, 505.30887426605784]</t>
+        </is>
+      </c>
     </row>
     <row r="460">
       <c r="A460" t="n">
@@ -19394,10 +20210,22 @@
           <t>RD</t>
         </is>
       </c>
-      <c r="H460" t="inlineStr"/>
-      <c r="I460" t="inlineStr"/>
-      <c r="J460" t="inlineStr"/>
-      <c r="K460" t="inlineStr"/>
+      <c r="H460" t="n">
+        <v>186830.703908554</v>
+      </c>
+      <c r="I460" t="n">
+        <v>86.97211912663488</v>
+      </c>
+      <c r="J460" t="inlineStr">
+        <is>
+          <t>[530.9894368597628, 977.615910778499, 920.059471009087, 542.0904390539259, 417.56810142855807]</t>
+        </is>
+      </c>
+      <c r="K460" t="inlineStr">
+        <is>
+          <t>[511.55489148011577, 732.9190477969398, 673.4487174692049, 350.44364390878746, 388.9999805559077]</t>
+        </is>
+      </c>
     </row>
     <row r="461">
       <c r="A461" t="n">
@@ -19425,10 +20253,22 @@
           <t>GA</t>
         </is>
       </c>
-      <c r="H461" t="inlineStr"/>
-      <c r="I461" t="inlineStr"/>
-      <c r="J461" t="inlineStr"/>
-      <c r="K461" t="inlineStr"/>
+      <c r="H461" t="n">
+        <v>126504.7768665861</v>
+      </c>
+      <c r="I461" t="n">
+        <v>91.12040519689084</v>
+      </c>
+      <c r="J461" t="inlineStr">
+        <is>
+          <t>[566.56, 591.74, 74.34]</t>
+        </is>
+      </c>
+      <c r="K461" t="inlineStr">
+        <is>
+          <t>[292.0214995253775, 524.0005321652803, 42.172979253402424]</t>
+        </is>
+      </c>
     </row>
     <row r="462">
       <c r="A462" t="n">
@@ -19456,10 +20296,22 @@
           <t>GA</t>
         </is>
       </c>
-      <c r="H462" t="inlineStr"/>
-      <c r="I462" t="inlineStr"/>
-      <c r="J462" t="inlineStr"/>
-      <c r="K462" t="inlineStr"/>
+      <c r="H462" t="n">
+        <v>230297.186570024</v>
+      </c>
+      <c r="I462" t="n">
+        <v>82.93022332078034</v>
+      </c>
+      <c r="J462" t="inlineStr">
+        <is>
+          <t>[13.59, 929.3, 759.44, 185.11, 220.92]</t>
+        </is>
+      </c>
+      <c r="K462" t="inlineStr">
+        <is>
+          <t>[10.940930763418255, 435.09380528614685, 1.6039478832716882, 103.33636809323737, 62.77494137470147]</t>
+        </is>
+      </c>
     </row>
     <row r="463">
       <c r="A463" t="n">
@@ -19487,10 +20339,22 @@
           <t>NM</t>
         </is>
       </c>
-      <c r="H463" t="inlineStr"/>
-      <c r="I463" t="inlineStr"/>
-      <c r="J463" t="inlineStr"/>
-      <c r="K463" t="inlineStr"/>
+      <c r="H463" t="n">
+        <v>101162.8514316655</v>
+      </c>
+      <c r="I463" t="n">
+        <v>95.41495897456423</v>
+      </c>
+      <c r="J463" t="inlineStr">
+        <is>
+          <t>[508.6949766481423, 223.22262153215246, 464.6073824925926]</t>
+        </is>
+      </c>
+      <c r="K463" t="inlineStr">
+        <is>
+          <t>[398.3945687780671, 167.98159504976059, 383.355146620042]</t>
+        </is>
+      </c>
     </row>
     <row r="464">
       <c r="A464" t="n">
@@ -19518,10 +20382,22 @@
           <t>ACO</t>
         </is>
       </c>
-      <c r="H464" t="inlineStr"/>
-      <c r="I464" t="inlineStr"/>
-      <c r="J464" t="inlineStr"/>
-      <c r="K464" t="inlineStr"/>
+      <c r="H464" t="n">
+        <v>106925.3494761447</v>
+      </c>
+      <c r="I464" t="n">
+        <v>95.7995542492415</v>
+      </c>
+      <c r="J464" t="inlineStr">
+        <is>
+          <t>[770.0, 1000.0, 845.0, 880.0, 305.0]</t>
+        </is>
+      </c>
+      <c r="K464" t="inlineStr">
+        <is>
+          <t>[495.0, 845.0, 715.0, 775.0, 200.0]</t>
+        </is>
+      </c>
     </row>
     <row r="465">
       <c r="A465" t="n">
@@ -19549,10 +20425,22 @@
           <t>NM</t>
         </is>
       </c>
-      <c r="H465" t="inlineStr"/>
-      <c r="I465" t="inlineStr"/>
-      <c r="J465" t="inlineStr"/>
-      <c r="K465" t="inlineStr"/>
+      <c r="H465" t="n">
+        <v>67101.86624765082</v>
+      </c>
+      <c r="I465" t="n">
+        <v>99.49215006806189</v>
+      </c>
+      <c r="J465" t="inlineStr">
+        <is>
+          <t>[728.9209933166063, 660.4178325173062, 300.2656873692274, 379.32939045044026, 370.0211074146799]</t>
+        </is>
+      </c>
+      <c r="K465" t="inlineStr">
+        <is>
+          <t>[409.22541529605826, 533.3833687578907, 300.2656873692274, 188.89709598882223, 203.82101114673787]</t>
+        </is>
+      </c>
     </row>
     <row r="466">
       <c r="A466" t="n">
@@ -19580,10 +20468,22 @@
           <t>GA</t>
         </is>
       </c>
-      <c r="H466" t="inlineStr"/>
-      <c r="I466" t="inlineStr"/>
-      <c r="J466" t="inlineStr"/>
-      <c r="K466" t="inlineStr"/>
+      <c r="H466" t="n">
+        <v>219086.1302872468</v>
+      </c>
+      <c r="I466" t="n">
+        <v>81.32111126501148</v>
+      </c>
+      <c r="J466" t="inlineStr">
+        <is>
+          <t>[450.74, 20.92, 602.18]</t>
+        </is>
+      </c>
+      <c r="K466" t="inlineStr">
+        <is>
+          <t>[201.08222140795013, 14.833836124727704, 456.55289737335505]</t>
+        </is>
+      </c>
     </row>
     <row r="467">
       <c r="A467" t="n">
@@ -19611,10 +20511,22 @@
           <t>NM</t>
         </is>
       </c>
-      <c r="H467" t="inlineStr"/>
-      <c r="I467" t="inlineStr"/>
-      <c r="J467" t="inlineStr"/>
-      <c r="K467" t="inlineStr"/>
+      <c r="H467" t="n">
+        <v>90995.95544700992</v>
+      </c>
+      <c r="I467" t="n">
+        <v>97.44022897607998</v>
+      </c>
+      <c r="J467" t="inlineStr">
+        <is>
+          <t>[1322.304990670222, 1187.8787038307778, 706.7159178817727, 129.3895308758531, 806.3435622626847]</t>
+        </is>
+      </c>
+      <c r="K467" t="inlineStr">
+        <is>
+          <t>[803.7131670002939, 1049.2718089601676, 382.62354567399996, 120.82323904436805, 453.4591937331889]</t>
+        </is>
+      </c>
     </row>
     <row r="468">
       <c r="A468" t="n">
@@ -19642,10 +20554,22 @@
           <t>NM</t>
         </is>
       </c>
-      <c r="H468" t="inlineStr"/>
-      <c r="I468" t="inlineStr"/>
-      <c r="J468" t="inlineStr"/>
-      <c r="K468" t="inlineStr"/>
+      <c r="H468" t="n">
+        <v>108020.9422891049</v>
+      </c>
+      <c r="I468" t="n">
+        <v>96.55143094570936</v>
+      </c>
+      <c r="J468" t="inlineStr">
+        <is>
+          <t>[907.2590631782255, 1039.6065585370684, 707.3675113667383, 889.8738914182624, 1437.1893297803979]</t>
+        </is>
+      </c>
+      <c r="K468" t="inlineStr">
+        <is>
+          <t>[907.2590631782255, 468.936433667213, 707.3675113667383, 261.27052286719265, 1289.4092147000424]</t>
+        </is>
+      </c>
     </row>
     <row r="469">
       <c r="A469" t="n">
@@ -19673,10 +20597,22 @@
           <t>GA</t>
         </is>
       </c>
-      <c r="H469" t="inlineStr"/>
-      <c r="I469" t="inlineStr"/>
-      <c r="J469" t="inlineStr"/>
-      <c r="K469" t="inlineStr"/>
+      <c r="H469" t="n">
+        <v>168886.3871103411</v>
+      </c>
+      <c r="I469" t="n">
+        <v>87.60494015816801</v>
+      </c>
+      <c r="J469" t="inlineStr">
+        <is>
+          <t>[590.6, 838.17, 736.64]</t>
+        </is>
+      </c>
+      <c r="K469" t="inlineStr">
+        <is>
+          <t>[396.9288811536768, 831.2790365073785, 227.50384555457995]</t>
+        </is>
+      </c>
     </row>
     <row r="470">
       <c r="A470" t="n">
@@ -19704,10 +20640,22 @@
           <t>GA</t>
         </is>
       </c>
-      <c r="H470" t="inlineStr"/>
-      <c r="I470" t="inlineStr"/>
-      <c r="J470" t="inlineStr"/>
-      <c r="K470" t="inlineStr"/>
+      <c r="H470" t="n">
+        <v>114375.191602058</v>
+      </c>
+      <c r="I470" t="n">
+        <v>92.93214427873586</v>
+      </c>
+      <c r="J470" t="inlineStr">
+        <is>
+          <t>[690.17, 121.1, 544.08]</t>
+        </is>
+      </c>
+      <c r="K470" t="inlineStr">
+        <is>
+          <t>[101.20644420762052, 114.46735934011502, 129.02790826718982]</t>
+        </is>
+      </c>
     </row>
     <row r="471">
       <c r="A471" t="n">
@@ -19735,10 +20683,22 @@
           <t>NM</t>
         </is>
       </c>
-      <c r="H471" t="inlineStr"/>
-      <c r="I471" t="inlineStr"/>
-      <c r="J471" t="inlineStr"/>
-      <c r="K471" t="inlineStr"/>
+      <c r="H471" t="n">
+        <v>277584.836614649</v>
+      </c>
+      <c r="I471" t="n">
+        <v>75.63238262599231</v>
+      </c>
+      <c r="J471" t="inlineStr">
+        <is>
+          <t>[558.5936963595158, 304.02845436946063, 1173.8254264569964]</t>
+        </is>
+      </c>
+      <c r="K471" t="inlineStr">
+        <is>
+          <t>[557.3439304740001, 23.0701877728836, 510.2748729800647]</t>
+        </is>
+      </c>
     </row>
     <row r="472">
       <c r="A472" t="n">
@@ -19766,10 +20726,22 @@
           <t>RD</t>
         </is>
       </c>
-      <c r="H472" t="inlineStr"/>
-      <c r="I472" t="inlineStr"/>
-      <c r="J472" t="inlineStr"/>
-      <c r="K472" t="inlineStr"/>
+      <c r="H472" t="n">
+        <v>121235.7335328274</v>
+      </c>
+      <c r="I472" t="n">
+        <v>96.23711867364889</v>
+      </c>
+      <c r="J472" t="inlineStr">
+        <is>
+          <t>[720.8720450641617, 735.3036873748179, 216.5985469492332, 536.8708185037003, 813.4214329194195, 383.56567368741776, 480.83225887312244, 184.5871488279479, 509.99376798995365, 268.7790481583141]</t>
+        </is>
+      </c>
+      <c r="K472" t="inlineStr">
+        <is>
+          <t>[515.4007416267779, 641.2517121542585, 146.3950458367209, 400.53240723901246, 168.04159495195952, 289.65773151382115, 24.633374359797898, 135.25286825927822, 53.20207974269038, 231.85951722804526]</t>
+        </is>
+      </c>
     </row>
     <row r="473">
       <c r="A473" t="n">
@@ -19797,10 +20769,22 @@
           <t>RD</t>
         </is>
       </c>
-      <c r="H473" t="inlineStr"/>
-      <c r="I473" t="inlineStr"/>
-      <c r="J473" t="inlineStr"/>
-      <c r="K473" t="inlineStr"/>
+      <c r="H473" t="n">
+        <v>125280.8382702457</v>
+      </c>
+      <c r="I473" t="n">
+        <v>96.41568642454286</v>
+      </c>
+      <c r="J473" t="inlineStr">
+        <is>
+          <t>[975.2917304291852, 305.3010831196259, 268.6320988782667, 437.37490607714113, 180.93046958824678, 499.4435208871133, 926.9581159690044, 760.9526940692717, 223.81786497951285, 182.11138745618638]</t>
+        </is>
+      </c>
+      <c r="K473" t="inlineStr">
+        <is>
+          <t>[646.9750032780784, 149.54426303590046, 195.39415354915448, 431.28299798841135, 34.83210601791386, 377.7475091921525, 48.48503486777481, 363.03907916952863, 207.91315767548758, 61.93277660336407]</t>
+        </is>
+      </c>
     </row>
     <row r="474">
       <c r="A474" t="n">
@@ -19828,10 +20812,22 @@
           <t>ACO</t>
         </is>
       </c>
-      <c r="H474" t="inlineStr"/>
-      <c r="I474" t="inlineStr"/>
-      <c r="J474" t="inlineStr"/>
-      <c r="K474" t="inlineStr"/>
+      <c r="H474" t="n">
+        <v>107948.6942331151</v>
+      </c>
+      <c r="I474" t="n">
+        <v>98.28692638938115</v>
+      </c>
+      <c r="J474" t="inlineStr">
+        <is>
+          <t>[605.0, 390.0, 785.0, 285.0, 495.0, 345.0, 460.0, 790.0, 280.0, 155.0]</t>
+        </is>
+      </c>
+      <c r="K474" t="inlineStr">
+        <is>
+          <t>[520.0, 80.0, 60.0, 120.0, 485.0, 325.0, 340.0, 80.0, 75.0, 105.0]</t>
+        </is>
+      </c>
     </row>
     <row r="475">
       <c r="A475" t="n">
@@ -19859,10 +20855,22 @@
           <t>GA</t>
         </is>
       </c>
-      <c r="H475" t="inlineStr"/>
-      <c r="I475" t="inlineStr"/>
-      <c r="J475" t="inlineStr"/>
-      <c r="K475" t="inlineStr"/>
+      <c r="H475" t="n">
+        <v>118330.1062284954</v>
+      </c>
+      <c r="I475" t="n">
+        <v>98.03397696881642</v>
+      </c>
+      <c r="J475" t="inlineStr">
+        <is>
+          <t>[643.72, 901.31, 54.94, 121.84, 925.48, 990.13, 189.65, 435.18, 842.36, 516.15]</t>
+        </is>
+      </c>
+      <c r="K475" t="inlineStr">
+        <is>
+          <t>[185.4997851603397, 385.5122610779421, 12.301724015817717, 26.25845267015377, 912.7777266983537, 67.42267465313168, 24.080096497922863, 356.6037414071305, 262.7022016372637, 204.10104501098266]</t>
+        </is>
+      </c>
     </row>
     <row r="476">
       <c r="A476" t="n">
@@ -19890,10 +20898,22 @@
           <t>GA</t>
         </is>
       </c>
-      <c r="H476" t="inlineStr"/>
-      <c r="I476" t="inlineStr"/>
-      <c r="J476" t="inlineStr"/>
-      <c r="K476" t="inlineStr"/>
+      <c r="H476" t="n">
+        <v>104359.0652530814</v>
+      </c>
+      <c r="I476" t="n">
+        <v>99.06722880511357</v>
+      </c>
+      <c r="J476" t="inlineStr">
+        <is>
+          <t>[592.95, 821.11, 716.69, 271.86, 592.77, 411.97, 444.13, 397.51, 443.44, 763.6]</t>
+        </is>
+      </c>
+      <c r="K476" t="inlineStr">
+        <is>
+          <t>[469.24108315462274, 112.59481451860245, 128.36828454129991, 203.02382985697963, 498.2182149937882, 162.64686268493554, 152.27679763355974, 53.03352319654809, 145.95157141722459, 679.3048826271639]</t>
+        </is>
+      </c>
     </row>
     <row r="477">
       <c r="A477" t="n">
@@ -19921,10 +20941,22 @@
           <t>ACO</t>
         </is>
       </c>
-      <c r="H477" t="inlineStr"/>
-      <c r="I477" t="inlineStr"/>
-      <c r="J477" t="inlineStr"/>
-      <c r="K477" t="inlineStr"/>
+      <c r="H477" t="n">
+        <v>195403.2724792477</v>
+      </c>
+      <c r="I477" t="n">
+        <v>86.23959330887151</v>
+      </c>
+      <c r="J477" t="inlineStr">
+        <is>
+          <t>[440.0, 875.0, 150.0, 975.0, 980.0]</t>
+        </is>
+      </c>
+      <c r="K477" t="inlineStr">
+        <is>
+          <t>[320.0, 205.0, 80.0, 970.0, 875.0]</t>
+        </is>
+      </c>
     </row>
     <row r="478">
       <c r="A478" t="n">
@@ -19952,10 +20984,22 @@
           <t>ACO</t>
         </is>
       </c>
-      <c r="H478" t="inlineStr"/>
-      <c r="I478" t="inlineStr"/>
-      <c r="J478" t="inlineStr"/>
-      <c r="K478" t="inlineStr"/>
+      <c r="H478" t="n">
+        <v>171836.3137874091</v>
+      </c>
+      <c r="I478" t="n">
+        <v>91.49428801352441</v>
+      </c>
+      <c r="J478" t="inlineStr">
+        <is>
+          <t>[520.0, 365.0, 855.0, 935.0, 255.0, 520.0, 560.0, 155.0, 880.0, 205.0]</t>
+        </is>
+      </c>
+      <c r="K478" t="inlineStr">
+        <is>
+          <t>[475.0, 175.0, 615.0, 530.0, 190.0, 265.0, 435.0, 45.0, 390.0, 95.0]</t>
+        </is>
+      </c>
     </row>
     <row r="479">
       <c r="A479" t="n">
@@ -19983,10 +21027,22 @@
           <t>ACO</t>
         </is>
       </c>
-      <c r="H479" t="inlineStr"/>
-      <c r="I479" t="inlineStr"/>
-      <c r="J479" t="inlineStr"/>
-      <c r="K479" t="inlineStr"/>
+      <c r="H479" t="n">
+        <v>105466.7085317717</v>
+      </c>
+      <c r="I479" t="n">
+        <v>94.00024362373564</v>
+      </c>
+      <c r="J479" t="inlineStr">
+        <is>
+          <t>[890.0, 775.0, 845.0]</t>
+        </is>
+      </c>
+      <c r="K479" t="inlineStr">
+        <is>
+          <t>[445.0, 380.0, 845.0]</t>
+        </is>
+      </c>
     </row>
     <row r="480">
       <c r="A480" t="n">
@@ -20014,10 +21070,22 @@
           <t>ACO</t>
         </is>
       </c>
-      <c r="H480" t="inlineStr"/>
-      <c r="I480" t="inlineStr"/>
-      <c r="J480" t="inlineStr"/>
-      <c r="K480" t="inlineStr"/>
+      <c r="H480" t="n">
+        <v>60717.71017093868</v>
+      </c>
+      <c r="I480" t="n">
+        <v>99.29146151091307</v>
+      </c>
+      <c r="J480" t="inlineStr">
+        <is>
+          <t>[800.0, 775.0, 875.0]</t>
+        </is>
+      </c>
+      <c r="K480" t="inlineStr">
+        <is>
+          <t>[785.0, 285.0, 785.0]</t>
+        </is>
+      </c>
     </row>
     <row r="481">
       <c r="A481" t="n">
@@ -20045,10 +21113,22 @@
           <t>ACO</t>
         </is>
       </c>
-      <c r="H481" t="inlineStr"/>
-      <c r="I481" t="inlineStr"/>
-      <c r="J481" t="inlineStr"/>
-      <c r="K481" t="inlineStr"/>
+      <c r="H481" t="n">
+        <v>75835.41490574488</v>
+      </c>
+      <c r="I481" t="n">
+        <v>98.1512778435056</v>
+      </c>
+      <c r="J481" t="inlineStr">
+        <is>
+          <t>[635.0, 585.0, 475.0, 355.0, 610.0]</t>
+        </is>
+      </c>
+      <c r="K481" t="inlineStr">
+        <is>
+          <t>[410.0, 315.0, 360.0, 200.0, 515.0]</t>
+        </is>
+      </c>
     </row>
     <row r="482">
       <c r="A482" t="n">
@@ -20076,10 +21156,22 @@
           <t>GA</t>
         </is>
       </c>
-      <c r="H482" t="inlineStr"/>
-      <c r="I482" t="inlineStr"/>
-      <c r="J482" t="inlineStr"/>
-      <c r="K482" t="inlineStr"/>
+      <c r="H482" t="n">
+        <v>110983.5396075516</v>
+      </c>
+      <c r="I482" t="n">
+        <v>98.15726556194461</v>
+      </c>
+      <c r="J482" t="inlineStr">
+        <is>
+          <t>[768.1, 224.43, 658.88, 387.95, 836.17, 651.8, 650.88, 851.76, 755.54, 27.22]</t>
+        </is>
+      </c>
+      <c r="K482" t="inlineStr">
+        <is>
+          <t>[175.96374435860122, 98.29431121813954, 227.41056187568182, 377.0095848494651, 740.0875475204867, 184.93141339936284, 87.40696061152285, 339.7813670408913, 316.75101296750915, 12.54700557565002]</t>
+        </is>
+      </c>
     </row>
     <row r="483">
       <c r="A483" t="n">
@@ -20107,10 +21199,22 @@
           <t>GA</t>
         </is>
       </c>
-      <c r="H483" t="inlineStr"/>
-      <c r="I483" t="inlineStr"/>
-      <c r="J483" t="inlineStr"/>
-      <c r="K483" t="inlineStr"/>
+      <c r="H483" t="n">
+        <v>151006.3553571195</v>
+      </c>
+      <c r="I483" t="n">
+        <v>94.86474632455506</v>
+      </c>
+      <c r="J483" t="inlineStr">
+        <is>
+          <t>[483.24, 744.64, 472.93, 86.99, 921.88, 694.85, 182.29, 173.18, 649.36, 593.95]</t>
+        </is>
+      </c>
+      <c r="K483" t="inlineStr">
+        <is>
+          <t>[143.17580814460754, 603.483150317992, 186.98765288716305, 27.745601945111336, 857.4224540069582, 475.24368210997267, 62.327990090407425, 59.66748809978509, 422.37954423873083, 146.3528254541229]</t>
+        </is>
+      </c>
     </row>
     <row r="484">
       <c r="A484" t="n">
@@ -20138,10 +21242,22 @@
           <t>NM</t>
         </is>
       </c>
-      <c r="H484" t="inlineStr"/>
-      <c r="I484" t="inlineStr"/>
-      <c r="J484" t="inlineStr"/>
-      <c r="K484" t="inlineStr"/>
+      <c r="H484" t="n">
+        <v>123301.2327397521</v>
+      </c>
+      <c r="I484" t="n">
+        <v>97.76933166108071</v>
+      </c>
+      <c r="J484" t="inlineStr">
+        <is>
+          <t>[1279.419376792084, 158.1290783180961, 845.4062374938806, 648.9945874678644, 1773.1362903600752]</t>
+        </is>
+      </c>
+      <c r="K484" t="inlineStr">
+        <is>
+          <t>[817.1739866547146, 103.19719777493897, 657.9280288383886, 524.9898638799989, 1540.4151305853286]</t>
+        </is>
+      </c>
     </row>
     <row r="485">
       <c r="A485" t="n">
@@ -20169,10 +21285,22 @@
           <t>RD</t>
         </is>
       </c>
-      <c r="H485" t="inlineStr"/>
-      <c r="I485" t="inlineStr"/>
-      <c r="J485" t="inlineStr"/>
-      <c r="K485" t="inlineStr"/>
+      <c r="H485" t="n">
+        <v>146055.084561255</v>
+      </c>
+      <c r="I485" t="n">
+        <v>91.09017984718294</v>
+      </c>
+      <c r="J485" t="inlineStr">
+        <is>
+          <t>[105.08274003163642, 543.3187867103733, 655.6286277117272, 673.0670173485177, 664.4817381880321]</t>
+        </is>
+      </c>
+      <c r="K485" t="inlineStr">
+        <is>
+          <t>[102.42817296995058, 498.1492285000759, 453.75923866350945, 490.55314584976577, 416.4822132478682]</t>
+        </is>
+      </c>
     </row>
     <row r="486">
       <c r="A486" t="n">
@@ -20200,10 +21328,22 @@
           <t>RD</t>
         </is>
       </c>
-      <c r="H486" t="inlineStr"/>
-      <c r="I486" t="inlineStr"/>
-      <c r="J486" t="inlineStr"/>
-      <c r="K486" t="inlineStr"/>
+      <c r="H486" t="n">
+        <v>70300.37842849713</v>
+      </c>
+      <c r="I486" t="n">
+        <v>98.29609166698985</v>
+      </c>
+      <c r="J486" t="inlineStr">
+        <is>
+          <t>[759.2697987725105, 738.5831095729186, 848.8001074205556]</t>
+        </is>
+      </c>
+      <c r="K486" t="inlineStr">
+        <is>
+          <t>[513.1894564255919, 616.1590116323872, 626.3368412892369]</t>
+        </is>
+      </c>
     </row>
     <row r="487">
       <c r="A487" t="n">
@@ -20231,10 +21371,22 @@
           <t>NM</t>
         </is>
       </c>
-      <c r="H487" t="inlineStr"/>
-      <c r="I487" t="inlineStr"/>
-      <c r="J487" t="inlineStr"/>
-      <c r="K487" t="inlineStr"/>
+      <c r="H487" t="n">
+        <v>108031.3516364248</v>
+      </c>
+      <c r="I487" t="n">
+        <v>98.18700367313689</v>
+      </c>
+      <c r="J487" t="inlineStr">
+        <is>
+          <t>[1296.971230254366, 2057.2075860325076, 1884.6170854662503, 1162.3935562125348, 521.1608454957753]</t>
+        </is>
+      </c>
+      <c r="K487" t="inlineStr">
+        <is>
+          <t>[941.9288185884432, 991.2763181235641, 1317.9323727470337, 762.621843183935, 130.1689495733885]</t>
+        </is>
+      </c>
     </row>
     <row r="488">
       <c r="A488" t="n">
@@ -20262,10 +21414,22 @@
           <t>NM</t>
         </is>
       </c>
-      <c r="H488" t="inlineStr"/>
-      <c r="I488" t="inlineStr"/>
-      <c r="J488" t="inlineStr"/>
-      <c r="K488" t="inlineStr"/>
+      <c r="H488" t="n">
+        <v>96979.55628942703</v>
+      </c>
+      <c r="I488" t="n">
+        <v>99.97672744076141</v>
+      </c>
+      <c r="J488" t="inlineStr">
+        <is>
+          <t>[582.6273521525741, 649.0953229164327, 485.21183130724154, 859.5059920429956, 528.3035331118682, 413.2034985876317, 655.8624491893779, 557.2712211452073, 562.7515242503918, 545.3266478123517]</t>
+        </is>
+      </c>
+      <c r="K488" t="inlineStr">
+        <is>
+          <t>[229.66961445408032, 288.81988805059666, 283.35971548122745, 516.9931992693867, 344.67198035799487, 226.68679219419832, 427.85052778358204, 273.62082571471865, 261.0682784043896, 229.94419959065698]</t>
+        </is>
+      </c>
     </row>
     <row r="489">
       <c r="A489" t="n">
@@ -20293,10 +21457,22 @@
           <t>RD</t>
         </is>
       </c>
-      <c r="H489" t="inlineStr"/>
-      <c r="I489" t="inlineStr"/>
-      <c r="J489" t="inlineStr"/>
-      <c r="K489" t="inlineStr"/>
+      <c r="H489" t="n">
+        <v>119580.5423430505</v>
+      </c>
+      <c r="I489" t="n">
+        <v>97.94820038131847</v>
+      </c>
+      <c r="J489" t="inlineStr">
+        <is>
+          <t>[757.6053018924999, 728.3077769720229, 453.73873268522857, 207.1965989197806, 878.1049900160593, 315.80489481373206, 481.990958141602, 757.5335496286099, 536.9155409866702, 595.4681213692234]</t>
+        </is>
+      </c>
+      <c r="K489" t="inlineStr">
+        <is>
+          <t>[362.5230191151502, 526.6225419217285, 404.45366929426547, 49.32959467492332, 837.609684646548, 220.79903142289575, 381.49196621173223, 407.69031788347047, 143.74664528709397, 180.68127244945433]</t>
+        </is>
+      </c>
     </row>
     <row r="490">
       <c r="A490" t="n">
@@ -20324,10 +21500,22 @@
           <t>NM</t>
         </is>
       </c>
-      <c r="H490" t="inlineStr"/>
-      <c r="I490" t="inlineStr"/>
-      <c r="J490" t="inlineStr"/>
-      <c r="K490" t="inlineStr"/>
+      <c r="H490" t="n">
+        <v>99591.38438597649</v>
+      </c>
+      <c r="I490" t="n">
+        <v>94.93158911476462</v>
+      </c>
+      <c r="J490" t="inlineStr">
+        <is>
+          <t>[380.2803476952713, 400.39422672830926, 438.89936797833224, 555.0266408175503, 673.3770475261238]</t>
+        </is>
+      </c>
+      <c r="K490" t="inlineStr">
+        <is>
+          <t>[176.52828907839623, 235.92690690319566, 136.85353746256442, 340.1679374803603, 268.7448476151589]</t>
+        </is>
+      </c>
     </row>
     <row r="491">
       <c r="A491" t="n">
@@ -20355,10 +21543,22 @@
           <t>GA</t>
         </is>
       </c>
-      <c r="H491" t="inlineStr"/>
-      <c r="I491" t="inlineStr"/>
-      <c r="J491" t="inlineStr"/>
-      <c r="K491" t="inlineStr"/>
+      <c r="H491" t="n">
+        <v>184106.5826656284</v>
+      </c>
+      <c r="I491" t="n">
+        <v>86.63502523710284</v>
+      </c>
+      <c r="J491" t="inlineStr">
+        <is>
+          <t>[631.21, 380.26, 262.64, 645.34, 346.61]</t>
+        </is>
+      </c>
+      <c r="K491" t="inlineStr">
+        <is>
+          <t>[191.9475828076365, 203.73395773986758, 188.6693547950977, 159.13382925257844, 49.640613050304516]</t>
+        </is>
+      </c>
     </row>
     <row r="492">
       <c r="A492" t="n">
@@ -20386,10 +21586,22 @@
           <t>NM</t>
         </is>
       </c>
-      <c r="H492" t="inlineStr"/>
-      <c r="I492" t="inlineStr"/>
-      <c r="J492" t="inlineStr"/>
-      <c r="K492" t="inlineStr"/>
+      <c r="H492" t="n">
+        <v>148353.1393151169</v>
+      </c>
+      <c r="I492" t="n">
+        <v>93.84370621564349</v>
+      </c>
+      <c r="J492" t="inlineStr">
+        <is>
+          <t>[647.1827258441192, 709.4918398895182, 739.5180062481618, 433.8904809732669, 612.5158548212354, 564.0942988203598, 593.0166376138386, 824.185836423183, 835.3666493926144, 438.2420942334582]</t>
+        </is>
+      </c>
+      <c r="K492" t="inlineStr">
+        <is>
+          <t>[224.4845762606347, 216.43533716511627, 446.23892463856754, 166.6943033978884, 154.06925150917434, 363.8104181517948, 471.8770832152812, 274.7800332793058, 341.368909127601, 237.1562984959014]</t>
+        </is>
+      </c>
     </row>
     <row r="493">
       <c r="A493" t="n">
@@ -20417,10 +21629,22 @@
           <t>RD</t>
         </is>
       </c>
-      <c r="H493" t="inlineStr"/>
-      <c r="I493" t="inlineStr"/>
-      <c r="J493" t="inlineStr"/>
-      <c r="K493" t="inlineStr"/>
+      <c r="H493" t="n">
+        <v>147059.3343740641</v>
+      </c>
+      <c r="I493" t="n">
+        <v>93.87067541833369</v>
+      </c>
+      <c r="J493" t="inlineStr">
+        <is>
+          <t>[859.8480805287129, 91.73225201511748, 774.494127007957, 369.53535239341437, 636.7563451995007, 188.98829884046398, 237.79252825766127, 575.4367116605036, 176.65039358964552, 60.57885825831588]</t>
+        </is>
+      </c>
+      <c r="K493" t="inlineStr">
+        <is>
+          <t>[831.9166765428771, 50.508649466729445, 616.5756108475503, 96.43320856622837, 249.16453652632634, 48.40096860350605, 161.52491390628057, 122.21910050700112, 21.91119503797963, 9.658636921887192]</t>
+        </is>
+      </c>
     </row>
     <row r="494">
       <c r="A494" t="n">
@@ -20448,10 +21672,22 @@
           <t>NM</t>
         </is>
       </c>
-      <c r="H494" t="inlineStr"/>
-      <c r="I494" t="inlineStr"/>
-      <c r="J494" t="inlineStr"/>
-      <c r="K494" t="inlineStr"/>
+      <c r="H494" t="n">
+        <v>68423.93996900979</v>
+      </c>
+      <c r="I494" t="n">
+        <v>97.3884033904383</v>
+      </c>
+      <c r="J494" t="inlineStr">
+        <is>
+          <t>[513.6863320465618, 701.2963514902054, 364.5623434878993]</t>
+        </is>
+      </c>
+      <c r="K494" t="inlineStr">
+        <is>
+          <t>[305.91168185464454, 351.9687516770674, 240.45825675382184]</t>
+        </is>
+      </c>
     </row>
     <row r="495">
       <c r="A495" t="n">
@@ -20479,10 +21715,22 @@
           <t>NM</t>
         </is>
       </c>
-      <c r="H495" t="inlineStr"/>
-      <c r="I495" t="inlineStr"/>
-      <c r="J495" t="inlineStr"/>
-      <c r="K495" t="inlineStr"/>
+      <c r="H495" t="n">
+        <v>205967.0430564836</v>
+      </c>
+      <c r="I495" t="n">
+        <v>82.09106266231019</v>
+      </c>
+      <c r="J495" t="inlineStr">
+        <is>
+          <t>[410.6830308014655, 689.8749523580645, 332.30327839170593]</t>
+        </is>
+      </c>
+      <c r="K495" t="inlineStr">
+        <is>
+          <t>[198.94467983747919, 633.5066047151546, 273.9673899519434]</t>
+        </is>
+      </c>
     </row>
     <row r="496">
       <c r="A496" t="n">
@@ -20510,10 +21758,22 @@
           <t>RD</t>
         </is>
       </c>
-      <c r="H496" t="inlineStr"/>
-      <c r="I496" t="inlineStr"/>
-      <c r="J496" t="inlineStr"/>
-      <c r="K496" t="inlineStr"/>
+      <c r="H496" t="n">
+        <v>71240.81716920614</v>
+      </c>
+      <c r="I496" t="n">
+        <v>97.49146361659194</v>
+      </c>
+      <c r="J496" t="inlineStr">
+        <is>
+          <t>[749.4662051046239, 785.0435448368505, 830.7916291773387]</t>
+        </is>
+      </c>
+      <c r="K496" t="inlineStr">
+        <is>
+          <t>[638.6793686364251, 628.2173436164481, 298.34578467429264]</t>
+        </is>
+      </c>
     </row>
     <row r="497">
       <c r="A497" t="n">
@@ -20541,10 +21801,22 @@
           <t>GA</t>
         </is>
       </c>
-      <c r="H497" t="inlineStr"/>
-      <c r="I497" t="inlineStr"/>
-      <c r="J497" t="inlineStr"/>
-      <c r="K497" t="inlineStr"/>
+      <c r="H497" t="n">
+        <v>115347.3790607088</v>
+      </c>
+      <c r="I497" t="n">
+        <v>93.98904899048512</v>
+      </c>
+      <c r="J497" t="inlineStr">
+        <is>
+          <t>[121.19, 570.4, 902.65, 840.74, 566.69]</t>
+        </is>
+      </c>
+      <c r="K497" t="inlineStr">
+        <is>
+          <t>[55.303048322031295, 249.96409767253078, 885.9584169374848, 457.4778632446357, 154.4807892472231]</t>
+        </is>
+      </c>
     </row>
     <row r="498">
       <c r="A498" t="n">
@@ -20572,10 +21844,22 @@
           <t>GA</t>
         </is>
       </c>
-      <c r="H498" t="inlineStr"/>
-      <c r="I498" t="inlineStr"/>
-      <c r="J498" t="inlineStr"/>
-      <c r="K498" t="inlineStr"/>
+      <c r="H498" t="n">
+        <v>108920.4324766254</v>
+      </c>
+      <c r="I498" t="n">
+        <v>95.35889877215305</v>
+      </c>
+      <c r="J498" t="inlineStr">
+        <is>
+          <t>[487.4, 42.29, 167.47, 800.76, 185.05]</t>
+        </is>
+      </c>
+      <c r="K498" t="inlineStr">
+        <is>
+          <t>[377.0205481301005, 5.309705797391518, 89.84996079726871, 199.58050227684095, 76.39103129461706]</t>
+        </is>
+      </c>
     </row>
     <row r="499">
       <c r="A499" t="n">
@@ -20603,10 +21887,22 @@
           <t>RD</t>
         </is>
       </c>
-      <c r="H499" t="inlineStr"/>
-      <c r="I499" t="inlineStr"/>
-      <c r="J499" t="inlineStr"/>
-      <c r="K499" t="inlineStr"/>
+      <c r="H499" t="n">
+        <v>129100.2463222746</v>
+      </c>
+      <c r="I499" t="n">
+        <v>90.52940073599385</v>
+      </c>
+      <c r="J499" t="inlineStr">
+        <is>
+          <t>[818.4650508209622, 597.563268796239, 349.4012814617662]</t>
+        </is>
+      </c>
+      <c r="K499" t="inlineStr">
+        <is>
+          <t>[454.73920071423134, 374.22625903952337, 191.84118341704104]</t>
+        </is>
+      </c>
     </row>
     <row r="500">
       <c r="A500" t="n">
@@ -20634,10 +21930,22 @@
           <t>ACO</t>
         </is>
       </c>
-      <c r="H500" t="inlineStr"/>
-      <c r="I500" t="inlineStr"/>
-      <c r="J500" t="inlineStr"/>
-      <c r="K500" t="inlineStr"/>
+      <c r="H500" t="n">
+        <v>72245.49212145382</v>
+      </c>
+      <c r="I500" t="n">
+        <v>98.98744572535229</v>
+      </c>
+      <c r="J500" t="inlineStr">
+        <is>
+          <t>[785.0, 975.0, 655.0, 645.0, 640.0]</t>
+        </is>
+      </c>
+      <c r="K500" t="inlineStr">
+        <is>
+          <t>[725.0, 670.0, 225.0, 550.0, 165.0]</t>
+        </is>
+      </c>
     </row>
     <row r="501">
       <c r="A501" t="n">
@@ -20665,10 +21973,22 @@
           <t>RD</t>
         </is>
       </c>
-      <c r="H501" t="inlineStr"/>
-      <c r="I501" t="inlineStr"/>
-      <c r="J501" t="inlineStr"/>
-      <c r="K501" t="inlineStr"/>
+      <c r="H501" t="n">
+        <v>194025.562074559</v>
+      </c>
+      <c r="I501" t="n">
+        <v>86.43267064503733</v>
+      </c>
+      <c r="J501" t="inlineStr">
+        <is>
+          <t>[627.6344581298243, 385.80569210337677, 145.05973665159334, 860.0906014997448, 992.974899843513]</t>
+        </is>
+      </c>
+      <c r="K501" t="inlineStr">
+        <is>
+          <t>[427.23967159119, 385.2150169088627, 86.06869072439112, 726.6450553909091, 892.4828239642355]</t>
+        </is>
+      </c>
     </row>
     <row r="502">
       <c r="A502" t="n">
@@ -20696,10 +22016,22 @@
           <t>NM</t>
         </is>
       </c>
-      <c r="H502" t="inlineStr"/>
-      <c r="I502" t="inlineStr"/>
-      <c r="J502" t="inlineStr"/>
-      <c r="K502" t="inlineStr"/>
+      <c r="H502" t="n">
+        <v>115176.1151224287</v>
+      </c>
+      <c r="I502" t="n">
+        <v>95.80835861314269</v>
+      </c>
+      <c r="J502" t="inlineStr">
+        <is>
+          <t>[981.3671340461352, 437.57080457154655, 640.0078936265636, 1425.7145047239733, 904.4658959161021]</t>
+        </is>
+      </c>
+      <c r="K502" t="inlineStr">
+        <is>
+          <t>[783.4286361181582, 437.57080457154655, 553.08683819111, 960.6936514289526, 0.0]</t>
+        </is>
+      </c>
     </row>
     <row r="503">
       <c r="A503" t="n">
@@ -20727,10 +22059,22 @@
           <t>GA</t>
         </is>
       </c>
-      <c r="H503" t="inlineStr"/>
-      <c r="I503" t="inlineStr"/>
-      <c r="J503" t="inlineStr"/>
-      <c r="K503" t="inlineStr"/>
+      <c r="H503" t="n">
+        <v>114797.4761552316</v>
+      </c>
+      <c r="I503" t="n">
+        <v>96.82163137710414</v>
+      </c>
+      <c r="J503" t="inlineStr">
+        <is>
+          <t>[726.3, 363.36, 60.45, 23.11, 244.55]</t>
+        </is>
+      </c>
+      <c r="K503" t="inlineStr">
+        <is>
+          <t>[694.7862084044995, 83.44402957718403, 48.63223886809417, 12.50229510812243, 233.9198220255818]</t>
+        </is>
+      </c>
     </row>
     <row r="504">
       <c r="A504" t="n">
@@ -20758,10 +22102,22 @@
           <t>NM</t>
         </is>
       </c>
-      <c r="H504" t="inlineStr"/>
-      <c r="I504" t="inlineStr"/>
-      <c r="J504" t="inlineStr"/>
-      <c r="K504" t="inlineStr"/>
+      <c r="H504" t="n">
+        <v>120997.9318889177</v>
+      </c>
+      <c r="I504" t="n">
+        <v>97.79426848255582</v>
+      </c>
+      <c r="J504" t="inlineStr">
+        <is>
+          <t>[1002.5968960254878, 704.5953047543339, 396.1546750815311, 336.8052591146733, 561.62336031954, 556.5920396956976, 1145.9455385068588, 560.9513461783547, 121.1312192793665, 954.1478507275897]</t>
+        </is>
+      </c>
+      <c r="K504" t="inlineStr">
+        <is>
+          <t>[772.6005577307822, 631.4158080395854, 203.851623885887, 154.73031223438338, 430.0855384589754, 284.9828020936497, 444.9465674825218, 213.73879526681674, 86.40955989089383, 509.12710157397015]</t>
+        </is>
+      </c>
     </row>
     <row r="505">
       <c r="A505" t="n">
@@ -20789,10 +22145,22 @@
           <t>NM</t>
         </is>
       </c>
-      <c r="H505" t="inlineStr"/>
-      <c r="I505" t="inlineStr"/>
-      <c r="J505" t="inlineStr"/>
-      <c r="K505" t="inlineStr"/>
+      <c r="H505" t="n">
+        <v>58028.99215949726</v>
+      </c>
+      <c r="I505" t="n">
+        <v>99.59786374360002</v>
+      </c>
+      <c r="J505" t="inlineStr">
+        <is>
+          <t>[465.18513555852326, 456.33006615843635, 467.4712987670209, 669.3942857825023, 588.4794844325207]</t>
+        </is>
+      </c>
+      <c r="K505" t="inlineStr">
+        <is>
+          <t>[182.26642126694088, 132.28529205059897, 180.87486199942515, 348.1703900246945, 377.60744370712905]</t>
+        </is>
+      </c>
     </row>
     <row r="506">
       <c r="A506" t="n">
@@ -20820,10 +22188,22 @@
           <t>RD</t>
         </is>
       </c>
-      <c r="H506" t="inlineStr"/>
-      <c r="I506" t="inlineStr"/>
-      <c r="J506" t="inlineStr"/>
-      <c r="K506" t="inlineStr"/>
+      <c r="H506" t="n">
+        <v>108189.3256697097</v>
+      </c>
+      <c r="I506" t="n">
+        <v>94.91540613237058</v>
+      </c>
+      <c r="J506" t="inlineStr">
+        <is>
+          <t>[640.0635104749441, 379.11169747495865, 629.190748041201, 206.21445487863267, 830.4209168865834]</t>
+        </is>
+      </c>
+      <c r="K506" t="inlineStr">
+        <is>
+          <t>[113.21762777550146, 266.1758172256921, 478.4082405809158, 78.96056455378104, 538.1730670866555]</t>
+        </is>
+      </c>
     </row>
     <row r="507">
       <c r="A507" t="n">
@@ -20851,10 +22231,22 @@
           <t>NM</t>
         </is>
       </c>
-      <c r="H507" t="inlineStr"/>
-      <c r="I507" t="inlineStr"/>
-      <c r="J507" t="inlineStr"/>
-      <c r="K507" t="inlineStr"/>
+      <c r="H507" t="n">
+        <v>178697.2971657913</v>
+      </c>
+      <c r="I507" t="n">
+        <v>86.86837787478512</v>
+      </c>
+      <c r="J507" t="inlineStr">
+        <is>
+          <t>[1220.177954741508, 471.74011053964995, 341.3517700832764, 924.0193613633492, 498.69417517036584]</t>
+        </is>
+      </c>
+      <c r="K507" t="inlineStr">
+        <is>
+          <t>[785.1633250482321, 254.97849065586138, 72.25287899860751, 672.0595913367272, 72.91002166972005]</t>
+        </is>
+      </c>
     </row>
     <row r="508">
       <c r="A508" t="n">
@@ -20882,10 +22274,22 @@
           <t>NM</t>
         </is>
       </c>
-      <c r="H508" t="inlineStr"/>
-      <c r="I508" t="inlineStr"/>
-      <c r="J508" t="inlineStr"/>
-      <c r="K508" t="inlineStr"/>
+      <c r="H508" t="n">
+        <v>56986.37819900391</v>
+      </c>
+      <c r="I508" t="n">
+        <v>99.49788633772792</v>
+      </c>
+      <c r="J508" t="inlineStr">
+        <is>
+          <t>[358.0509017170508, 889.7061234949899, 884.6361020633124]</t>
+        </is>
+      </c>
+      <c r="K508" t="inlineStr">
+        <is>
+          <t>[223.83166532488596, 599.223297715008, 684.7154169002457]</t>
+        </is>
+      </c>
     </row>
     <row r="509">
       <c r="A509" t="n">
@@ -20913,10 +22317,22 @@
           <t>RD</t>
         </is>
       </c>
-      <c r="H509" t="inlineStr"/>
-      <c r="I509" t="inlineStr"/>
-      <c r="J509" t="inlineStr"/>
-      <c r="K509" t="inlineStr"/>
+      <c r="H509" t="n">
+        <v>111386.5584395553</v>
+      </c>
+      <c r="I509" t="n">
+        <v>99.2851842604812</v>
+      </c>
+      <c r="J509" t="inlineStr">
+        <is>
+          <t>[130.27769735175409, 717.77284742589, 376.4737397464388, 587.3113807066328, 801.6407919351353, 329.44776099383245, 368.2327924035269, 862.5132414845637, 243.56358336371898, 499.1591555199757]</t>
+        </is>
+      </c>
+      <c r="K509" t="inlineStr">
+        <is>
+          <t>[81.8930535868464, 654.893160512681, 171.54126730322713, 177.52528875423138, 113.02559487053269, 177.22740925408374, 208.16307327769667, 613.2451398941629, 157.40280360409, 210.66298856609149]</t>
+        </is>
+      </c>
     </row>
     <row r="510">
       <c r="A510" t="n">
@@ -20944,10 +22360,22 @@
           <t>NM</t>
         </is>
       </c>
-      <c r="H510" t="inlineStr"/>
-      <c r="I510" t="inlineStr"/>
-      <c r="J510" t="inlineStr"/>
-      <c r="K510" t="inlineStr"/>
+      <c r="H510" t="n">
+        <v>63903.25572068212</v>
+      </c>
+      <c r="I510" t="n">
+        <v>99.36689661143073</v>
+      </c>
+      <c r="J510" t="inlineStr">
+        <is>
+          <t>[704.8186987922206, 898.4454138550262, 563.7782926842985, 353.3502364250708, 570.6226211756004]</t>
+        </is>
+      </c>
+      <c r="K510" t="inlineStr">
+        <is>
+          <t>[637.1883203326593, 467.70697737314924, 404.4409324497352, 206.50474022001512, 388.11169978207346]</t>
+        </is>
+      </c>
     </row>
     <row r="511">
       <c r="A511" t="n">
@@ -20975,10 +22403,22 @@
           <t>ACO</t>
         </is>
       </c>
-      <c r="H511" t="inlineStr"/>
-      <c r="I511" t="inlineStr"/>
-      <c r="J511" t="inlineStr"/>
-      <c r="K511" t="inlineStr"/>
+      <c r="H511" t="n">
+        <v>78088.75294156326</v>
+      </c>
+      <c r="I511" t="n">
+        <v>98.61570291670992</v>
+      </c>
+      <c r="J511" t="inlineStr">
+        <is>
+          <t>[885.0, 655.0, 810.0, 725.0, 265.0]</t>
+        </is>
+      </c>
+      <c r="K511" t="inlineStr">
+        <is>
+          <t>[500.0, 205.0, 765.0, 675.0, 110.0]</t>
+        </is>
+      </c>
     </row>
     <row r="512">
       <c r="A512" t="n">
